--- a/log/lqr_steering_speed/example_action.xlsx
+++ b/log/lqr_steering_speed/example_action.xlsx
@@ -1278,7 +1278,7 @@
         <v>0.8200000000000005</v>
       </c>
       <c r="B84">
-        <v>0.05170065462119652</v>
+        <v>0.05170065462119679</v>
       </c>
       <c r="C84">
         <v>6.431542522047331</v>
@@ -1289,7 +1289,7 @@
         <v>0.8300000000000005</v>
       </c>
       <c r="B85">
-        <v>0.07597906537211366</v>
+        <v>0.07597906537211352</v>
       </c>
       <c r="C85">
         <v>6.438670844227868</v>
@@ -1300,7 +1300,7 @@
         <v>0.8400000000000005</v>
       </c>
       <c r="B86">
-        <v>0.05776750299887753</v>
+        <v>0.05776750299887763</v>
       </c>
       <c r="C86">
         <v>6.44380013548971</v>
@@ -1311,7 +1311,7 @@
         <v>0.8500000000000005</v>
       </c>
       <c r="B87">
-        <v>0.0539075337135165</v>
+        <v>0.05390753371351645</v>
       </c>
       <c r="C87">
         <v>6.448743374188838</v>
@@ -1355,7 +1355,7 @@
         <v>0.8900000000000006</v>
       </c>
       <c r="B91">
-        <v>0.04647218478539753</v>
+        <v>0.04647218478539752</v>
       </c>
       <c r="C91">
         <v>6.468110909084885</v>
@@ -1377,7 +1377,7 @@
         <v>0.9100000000000006</v>
       </c>
       <c r="B93">
-        <v>0.05279063080241332</v>
+        <v>0.05279063080241343</v>
       </c>
       <c r="C93">
         <v>6.47696052502756</v>
@@ -1388,7 +1388,7 @@
         <v>0.9200000000000006</v>
       </c>
       <c r="B94">
-        <v>0.04718514161066606</v>
+        <v>0.047185141610666</v>
       </c>
       <c r="C94">
         <v>6.480797378257105</v>
@@ -1520,7 +1520,7 @@
         <v>1.040000000000001</v>
       </c>
       <c r="B106">
-        <v>0.03398614731523396</v>
+        <v>0.03398614731523399</v>
       </c>
       <c r="C106">
         <v>6.515007453476652</v>
@@ -1531,7 +1531,7 @@
         <v>1.050000000000001</v>
       </c>
       <c r="B107">
-        <v>0.02694349522056541</v>
+        <v>0.02694349522056543</v>
       </c>
       <c r="C107">
         <v>6.517357826846534</v>
@@ -1542,7 +1542,7 @@
         <v>1.060000000000001</v>
       </c>
       <c r="B108">
-        <v>0.04963765480094408</v>
+        <v>0.04963765480094406</v>
       </c>
       <c r="C108">
         <v>6.517787500834458</v>
@@ -1685,7 +1685,7 @@
         <v>1.190000000000001</v>
       </c>
       <c r="B121">
-        <v>0.04125538623716599</v>
+        <v>0.04125538623716601</v>
       </c>
       <c r="C121">
         <v>6.527604197634709</v>
@@ -1696,7 +1696,7 @@
         <v>1.200000000000001</v>
       </c>
       <c r="B122">
-        <v>0.03608430095453403</v>
+        <v>0.03608430095453402</v>
       </c>
       <c r="C122">
         <v>6.528825056164854</v>
@@ -1718,7 +1718,7 @@
         <v>1.220000000000001</v>
       </c>
       <c r="B124">
-        <v>0.05772442789200221</v>
+        <v>0.05772442789200222</v>
       </c>
       <c r="C124">
         <v>6.526823860661794</v>
@@ -1740,7 +1740,7 @@
         <v>1.240000000000001</v>
       </c>
       <c r="B126">
-        <v>0.03134128805781985</v>
+        <v>0.03134128805782072</v>
       </c>
       <c r="C126">
         <v>6.52887427399537</v>
@@ -1751,7 +1751,7 @@
         <v>1.250000000000001</v>
       </c>
       <c r="B127">
-        <v>0.05825028053209912</v>
+        <v>0.05825028053209869</v>
       </c>
       <c r="C127">
         <v>6.525037528131452</v>
@@ -1773,7 +1773,7 @@
         <v>1.270000000000001</v>
       </c>
       <c r="B129">
-        <v>0.03124819556588463</v>
+        <v>0.03124819556588462</v>
       </c>
       <c r="C129">
         <v>6.526766371372444</v>
@@ -1784,7 +1784,7 @@
         <v>1.280000000000001</v>
       </c>
       <c r="B130">
-        <v>0.06054312037934383</v>
+        <v>0.06054312037934384</v>
       </c>
       <c r="C130">
         <v>6.522286348480393</v>
@@ -1828,7 +1828,7 @@
         <v>1.320000000000001</v>
       </c>
       <c r="B134">
-        <v>0.04247519844692674</v>
+        <v>0.04247519844692672</v>
       </c>
       <c r="C134">
         <v>6.519181088326977</v>
@@ -1839,7 +1839,7 @@
         <v>1.330000000000001</v>
       </c>
       <c r="B135">
-        <v>0.0370152465471027</v>
+        <v>0.03701524654710271</v>
       </c>
       <c r="C135">
         <v>6.519746291521972</v>
@@ -1850,7 +1850,7 @@
         <v>1.340000000000001</v>
       </c>
       <c r="B136">
-        <v>0.06293511692628498</v>
+        <v>0.06293511692628496</v>
       </c>
       <c r="C136">
         <v>6.513994441813804</v>
@@ -2004,7 +2004,7 @@
         <v>1.480000000000001</v>
       </c>
       <c r="B150">
-        <v>0.02921746885749945</v>
+        <v>0.02921746885749946</v>
       </c>
       <c r="C150">
         <v>6.487407753048886</v>
@@ -2015,7 +2015,7 @@
         <v>1.490000000000001</v>
       </c>
       <c r="B151">
-        <v>0.05547604641935745</v>
+        <v>0.05547604641935852</v>
       </c>
       <c r="C151">
         <v>6.479415370072256</v>
@@ -2026,7 +2026,7 @@
         <v>1.500000000000001</v>
       </c>
       <c r="B152">
-        <v>0.03357613683910934</v>
+        <v>0.03357613683910882</v>
       </c>
       <c r="C152">
         <v>6.479065068468115</v>
@@ -2070,7 +2070,7 @@
         <v>1.540000000000001</v>
       </c>
       <c r="B156">
-        <v>0.03075947924624648</v>
+        <v>0.0307594792462465</v>
       </c>
       <c r="C156">
         <v>6.470656697955299</v>
@@ -2081,7 +2081,7 @@
         <v>1.550000000000001</v>
       </c>
       <c r="B157">
-        <v>0.02554620115752321</v>
+        <v>0.0255462011575232</v>
       </c>
       <c r="C157">
         <v>6.470221935259801</v>
@@ -2092,7 +2092,7 @@
         <v>1.560000000000001</v>
       </c>
       <c r="B158">
-        <v>0.05561736910939569</v>
+        <v>0.05561736910939567</v>
       </c>
       <c r="C158">
         <v>6.464500830618687</v>
@@ -2103,7 +2103,7 @@
         <v>1.570000000000001</v>
       </c>
       <c r="B159">
-        <v>0.03693987298787302</v>
+        <v>0.03693987298787273</v>
       </c>
       <c r="C159">
         <v>6.46394176435028</v>
@@ -2114,7 +2114,7 @@
         <v>1.580000000000001</v>
       </c>
       <c r="B160">
-        <v>0.03495574375678488</v>
+        <v>0.03495574375678504</v>
       </c>
       <c r="C160">
         <v>6.463463813157352</v>
@@ -2125,7 +2125,7 @@
         <v>1.590000000000001</v>
       </c>
       <c r="B161">
-        <v>0.0638571849235528</v>
+        <v>0.06385718492355279</v>
       </c>
       <c r="C161">
         <v>6.459337708506428</v>
@@ -2290,7 +2290,7 @@
         <v>1.740000000000001</v>
       </c>
       <c r="B176">
-        <v>0.04637780785489707</v>
+        <v>0.04637780785489708</v>
       </c>
       <c r="C176">
         <v>6.465230552997428</v>
@@ -2301,7 +2301,7 @@
         <v>1.750000000000001</v>
       </c>
       <c r="B177">
-        <v>0.02575630709660585</v>
+        <v>0.02575630709660584</v>
       </c>
       <c r="C177">
         <v>6.465313350464548</v>
@@ -2345,7 +2345,7 @@
         <v>1.790000000000001</v>
       </c>
       <c r="B181">
-        <v>0.02307661674407782</v>
+        <v>0.02307661674407784</v>
       </c>
       <c r="C181">
         <v>6.47205266265832</v>
@@ -2356,7 +2356,7 @@
         <v>1.800000000000001</v>
       </c>
       <c r="B182">
-        <v>0.01883969451437065</v>
+        <v>0.01883969451437064</v>
       </c>
       <c r="C182">
         <v>6.4721874565003</v>
@@ -2367,7 +2367,7 @@
         <v>1.810000000000001</v>
       </c>
       <c r="B183">
-        <v>0.04115375560811384</v>
+        <v>0.04115375560811382</v>
       </c>
       <c r="C183">
         <v>6.479845196487369</v>
@@ -2378,7 +2378,7 @@
         <v>1.820000000000001</v>
       </c>
       <c r="B184">
-        <v>0.02339082846834822</v>
+        <v>0.02339082846834823</v>
       </c>
       <c r="C184">
         <v>6.48005528369757</v>
@@ -2389,7 +2389,7 @@
         <v>1.830000000000001</v>
       </c>
       <c r="B185">
-        <v>0.02051366275988743</v>
+        <v>0.02051366275988744</v>
       </c>
       <c r="C185">
         <v>6.480257750505293</v>
@@ -2400,7 +2400,7 @@
         <v>1.840000000000001</v>
       </c>
       <c r="B186">
-        <v>0.04411062131744221</v>
+        <v>0.04411062131744219</v>
       </c>
       <c r="C186">
         <v>6.489109086948099</v>
@@ -2411,7 +2411,7 @@
         <v>1.850000000000001</v>
       </c>
       <c r="B187">
-        <v>0.02551550924414199</v>
+        <v>0.025515509244142</v>
       </c>
       <c r="C187">
         <v>6.48939475202563</v>
@@ -2477,7 +2477,7 @@
         <v>1.910000000000001</v>
       </c>
       <c r="B193">
-        <v>0.03260318420653315</v>
+        <v>0.03260318420653316</v>
       </c>
       <c r="C193">
         <v>6.511796104383019</v>
@@ -2488,7 +2488,7 @@
         <v>1.920000000000001</v>
       </c>
       <c r="B194">
-        <v>0.02835683894035301</v>
+        <v>0.028356838940353</v>
       </c>
       <c r="C194">
         <v>6.512226869979279</v>
@@ -2576,7 +2576,7 @@
         <v>2.000000000000001</v>
       </c>
       <c r="B202">
-        <v>0.03363677196497126</v>
+        <v>0.03363677196497125</v>
       </c>
       <c r="C202">
         <v>6.5536974831903</v>
@@ -2587,7 +2587,7 @@
         <v>2.010000000000001</v>
       </c>
       <c r="B203">
-        <v>0.02746010077342877</v>
+        <v>0.02746010077342878</v>
       </c>
       <c r="C203">
         <v>6.554369984453071</v>
@@ -2686,7 +2686,7 @@
         <v>2.099999999999999</v>
       </c>
       <c r="B212">
-        <v>0.02384295316632971</v>
+        <v>0.0238429531663297</v>
       </c>
       <c r="C212">
         <v>6.605125516652335</v>
@@ -2697,7 +2697,7 @@
         <v>2.109999999999999</v>
       </c>
       <c r="B213">
-        <v>0.04303744267095815</v>
+        <v>0.04303744267095817</v>
       </c>
       <c r="C213">
         <v>6.621737116697637</v>
@@ -2708,7 +2708,7 @@
         <v>2.119999999999999</v>
       </c>
       <c r="B214">
-        <v>0.0298255401295387</v>
+        <v>0.02982554012953869</v>
       </c>
       <c r="C214">
         <v>6.622758453652397</v>
@@ -2818,7 +2818,7 @@
         <v>2.219999999999997</v>
       </c>
       <c r="B224">
-        <v>0.02770595784463651</v>
+        <v>0.0277059578446365</v>
       </c>
       <c r="C224">
         <v>6.683675837417814</v>
@@ -2829,7 +2829,7 @@
         <v>2.229999999999996</v>
       </c>
       <c r="B225">
-        <v>0.02565451316999039</v>
+        <v>0.02565451316999041</v>
       </c>
       <c r="C225">
         <v>6.684850156801023</v>
@@ -3060,7 +3060,7 @@
         <v>2.439999999999992</v>
       </c>
       <c r="B246">
-        <v>0.02554488088190546</v>
+        <v>0.02554488088190545</v>
       </c>
       <c r="C246">
         <v>6.848663464604113</v>
@@ -3115,7 +3115,7 @@
         <v>2.489999999999991</v>
       </c>
       <c r="B251">
-        <v>0.02816081040666126</v>
+        <v>0.02816081040666125</v>
       </c>
       <c r="C251">
         <v>6.899017063875539</v>
@@ -3269,7 +3269,7 @@
         <v>2.629999999999988</v>
       </c>
       <c r="B265">
-        <v>0.02790908801234967</v>
+        <v>0.02790908801234966</v>
       </c>
       <c r="C265">
         <v>7.036150850502573</v>
@@ -3280,7 +3280,7 @@
         <v>2.639999999999988</v>
       </c>
       <c r="B266">
-        <v>0.01723355204758545</v>
+        <v>0.01723355204758547</v>
       </c>
       <c r="C266">
         <v>7.038205769410303</v>
@@ -3291,7 +3291,7 @@
         <v>2.649999999999987</v>
       </c>
       <c r="B267">
-        <v>0.0288103980126454</v>
+        <v>0.02881039801264539</v>
       </c>
       <c r="C267">
         <v>7.063559262876307</v>
@@ -3478,7 +3478,7 @@
         <v>2.819999999999984</v>
       </c>
       <c r="B284">
-        <v>0.02222872214547123</v>
+        <v>0.02222872214547125</v>
       </c>
       <c r="C284">
         <v>7.223080007197426</v>
@@ -3511,7 +3511,7 @@
         <v>2.849999999999983</v>
       </c>
       <c r="B287">
-        <v>0.01551601367008405</v>
+        <v>0.01551601367008404</v>
       </c>
       <c r="C287">
         <v>7.255573260237096</v>
@@ -3566,7 +3566,7 @@
         <v>2.899999999999982</v>
       </c>
       <c r="B292">
-        <v>0.01271901413205095</v>
+        <v>0.01271901413205096</v>
       </c>
       <c r="C292">
         <v>7.319912696911908</v>
@@ -3577,7 +3577,7 @@
         <v>2.909999999999982</v>
       </c>
       <c r="B293">
-        <v>0.01950388201637239</v>
+        <v>0.0195038820163724</v>
       </c>
       <c r="C293">
         <v>7.348992006857591</v>
@@ -3632,7 +3632,7 @@
         <v>2.959999999999981</v>
       </c>
       <c r="B298">
-        <v>0.008780068495583057</v>
+        <v>0.008780068495583064</v>
       </c>
       <c r="C298">
         <v>7.388771729966511</v>
@@ -3643,7 +3643,7 @@
         <v>2.969999999999981</v>
       </c>
       <c r="B299">
-        <v>0.01520092506124424</v>
+        <v>0.01520092506124423</v>
       </c>
       <c r="C299">
         <v>7.418688209937452</v>
@@ -3687,7 +3687,7 @@
         <v>3.00999999999998</v>
       </c>
       <c r="B303">
-        <v>0.006332347853320626</v>
+        <v>0.006332347853320623</v>
       </c>
       <c r="C303">
         <v>7.456976175179792</v>
@@ -3709,7 +3709,7 @@
         <v>3.029999999999979</v>
       </c>
       <c r="B305">
-        <v>0.006082207199998428</v>
+        <v>0.00608220719999843</v>
       </c>
       <c r="C305">
         <v>7.490679696091127</v>
@@ -3731,7 +3731,7 @@
         <v>3.049999999999979</v>
       </c>
       <c r="B307">
-        <v>0.009138236489671978</v>
+        <v>0.009138236489671971</v>
       </c>
       <c r="C307">
         <v>7.524712833180312</v>
@@ -3742,7 +3742,7 @@
         <v>3.059999999999979</v>
       </c>
       <c r="B308">
-        <v>0.003696311979969102</v>
+        <v>0.003696311979969106</v>
       </c>
       <c r="C308">
         <v>7.527568473267702</v>
@@ -3852,7 +3852,7 @@
         <v>3.159999999999977</v>
       </c>
       <c r="B318">
-        <v>0.003628086323817552</v>
+        <v>0.003628086323817548</v>
       </c>
       <c r="C318">
         <v>7.67414215916105</v>
@@ -3863,7 +3863,7 @@
         <v>3.169999999999976</v>
       </c>
       <c r="B319">
-        <v>-0.001690883808238152</v>
+        <v>-0.001690883808238151</v>
       </c>
       <c r="C319">
         <v>7.677203231618452</v>
@@ -3995,7 +3995,7 @@
         <v>3.289999999999974</v>
       </c>
       <c r="B331">
-        <v>0.008227669815879485</v>
+        <v>0.008227669815879482</v>
       </c>
       <c r="C331">
         <v>7.868943890562449</v>
@@ -4006,7 +4006,7 @@
         <v>3.299999999999974</v>
       </c>
       <c r="B332">
-        <v>0.004614350635624698</v>
+        <v>0.004614350635624702</v>
       </c>
       <c r="C332">
         <v>7.872306521123955</v>
@@ -4017,7 +4017,7 @@
         <v>3.309999999999973</v>
       </c>
       <c r="B333">
-        <v>0.001609358539973747</v>
+        <v>0.001609358539973745</v>
       </c>
       <c r="C333">
         <v>7.875547180441972</v>
@@ -4028,7 +4028,7 @@
         <v>3.319999999999973</v>
       </c>
       <c r="B334">
-        <v>0.003520413220392151</v>
+        <v>0.003520413220392155</v>
       </c>
       <c r="C334">
         <v>7.907926044433977</v>
@@ -4039,7 +4039,7 @@
         <v>3.329999999999973</v>
       </c>
       <c r="B335">
-        <v>-0.001609698931522414</v>
+        <v>-0.001609698931522415</v>
       </c>
       <c r="C335">
         <v>7.911265803187716</v>
@@ -4050,7 +4050,7 @@
         <v>3.339999999999973</v>
       </c>
       <c r="B336">
-        <v>-0.003800573684106886</v>
+        <v>-0.003800573684106888</v>
       </c>
       <c r="C336">
         <v>7.914484420317152</v>
@@ -4061,7 +4061,7 @@
         <v>3.349999999999973</v>
       </c>
       <c r="B337">
-        <v>-0.00370938023585394</v>
+        <v>-0.003709380235853935</v>
       </c>
       <c r="C337">
         <v>7.917586289940011</v>
@@ -4072,7 +4072,7 @@
         <v>3.359999999999972</v>
       </c>
       <c r="B338">
-        <v>-0.007441360669631724</v>
+        <v>-0.007441360669631726</v>
       </c>
       <c r="C338">
         <v>7.920575646788087</v>
@@ -4127,7 +4127,7 @@
         <v>3.409999999999971</v>
       </c>
       <c r="B343">
-        <v>0.0002342649643873704</v>
+        <v>0.0002342649643873717</v>
       </c>
       <c r="C343">
         <v>7.933972509109049</v>
@@ -4138,7 +4138,7 @@
         <v>3.419999999999971</v>
       </c>
       <c r="B344">
-        <v>0.004091222583349132</v>
+        <v>0.004091222583349131</v>
       </c>
       <c r="C344">
         <v>7.936367495718833</v>
@@ -4160,7 +4160,7 @@
         <v>3.439999999999971</v>
       </c>
       <c r="B346">
-        <v>0.008027798582236779</v>
+        <v>0.008027798582236775</v>
       </c>
       <c r="C346">
         <v>7.940900003080964</v>
@@ -4171,7 +4171,7 @@
         <v>3.44999999999997</v>
       </c>
       <c r="B347">
-        <v>0.009674935996571692</v>
+        <v>0.009674935996571698</v>
       </c>
       <c r="C347">
         <v>7.943043711699137</v>
@@ -4182,7 +4182,7 @@
         <v>3.45999999999997</v>
       </c>
       <c r="B348">
-        <v>0.009081415755516549</v>
+        <v>0.009081415755516551</v>
       </c>
       <c r="C348">
         <v>7.945109662502096</v>
@@ -4193,7 +4193,7 @@
         <v>3.46999999999997</v>
       </c>
       <c r="B349">
-        <v>0.00772045783234391</v>
+        <v>0.007720457832343908</v>
       </c>
       <c r="C349">
         <v>7.947100675965428</v>
@@ -4204,7 +4204,7 @@
         <v>3.47999999999997</v>
       </c>
       <c r="B350">
-        <v>0.008644677966570985</v>
+        <v>0.008644677966570988</v>
       </c>
       <c r="C350">
         <v>7.949019470258833</v>
@@ -4215,7 +4215,7 @@
         <v>3.48999999999997</v>
       </c>
       <c r="B351">
-        <v>0.005576741358012292</v>
+        <v>0.005576741358012291</v>
       </c>
       <c r="C351">
         <v>7.950868664957015</v>
@@ -4270,7 +4270,7 @@
         <v>3.539999999999969</v>
       </c>
       <c r="B356">
-        <v>-0.005659521788429102</v>
+        <v>-0.005659521788429104</v>
       </c>
       <c r="C356">
         <v>7.959155867868945</v>
@@ -4281,7 +4281,7 @@
         <v>3.549999999999968</v>
       </c>
       <c r="B357">
-        <v>-0.009184435856510218</v>
+        <v>-0.009184435856510216</v>
       </c>
       <c r="C357">
         <v>7.960637389402205</v>
@@ -4424,7 +4424,7 @@
         <v>3.679999999999966</v>
       </c>
       <c r="B370">
-        <v>0.003367547945852819</v>
+        <v>0.003367547945852817</v>
       </c>
       <c r="C370">
         <v>7.975650571503089</v>
@@ -4446,7 +4446,7 @@
         <v>3.699999999999965</v>
       </c>
       <c r="B372">
-        <v>0.009894529773641502</v>
+        <v>0.009894529773641506</v>
       </c>
       <c r="C372">
         <v>7.977384967550717</v>
@@ -4468,7 +4468,7 @@
         <v>3.719999999999965</v>
       </c>
       <c r="B374">
-        <v>0.008814470891460152</v>
+        <v>0.00881447089146015</v>
       </c>
       <c r="C374">
         <v>7.978995823546865</v>
@@ -4501,7 +4501,7 @@
         <v>3.749999999999964</v>
       </c>
       <c r="B377">
-        <v>0.002311476143778625</v>
+        <v>0.002311476143778623</v>
       </c>
       <c r="C377">
         <v>7.981199546629488</v>
@@ -4512,7 +4512,7 @@
         <v>3.759999999999964</v>
       </c>
       <c r="B378">
-        <v>-0.002484827189222731</v>
+        <v>-0.00248482718922273</v>
       </c>
       <c r="C378">
         <v>7.981881487340436</v>
@@ -4666,7 +4666,7 @@
         <v>3.899999999999961</v>
       </c>
       <c r="B392">
-        <v>-0.01949069272716011</v>
+        <v>-0.01949069272716012</v>
       </c>
       <c r="C392">
         <v>7.989198560345001</v>
@@ -4765,7 +4765,7 @@
         <v>3.989999999999959</v>
       </c>
       <c r="B401">
-        <v>-0.01254678339539096</v>
+        <v>-0.01254678339539095</v>
       </c>
       <c r="C401">
         <v>7.992254140119806</v>
@@ -4776,7 +4776,7 @@
         <v>3.999999999999959</v>
       </c>
       <c r="B402">
-        <v>-0.01070934056929115</v>
+        <v>-0.01070934056929116</v>
       </c>
       <c r="C402">
         <v>7.992535102343933</v>
@@ -4798,7 +4798,7 @@
         <v>4.019999999999959</v>
       </c>
       <c r="B404">
-        <v>-0.009921346691652243</v>
+        <v>-0.009921346691652242</v>
       </c>
       <c r="C404">
         <v>7.993066822790361</v>
@@ -4820,7 +4820,7 @@
         <v>4.039999999999958</v>
       </c>
       <c r="B406">
-        <v>-0.009300432151531405</v>
+        <v>-0.009300432151531406</v>
       </c>
       <c r="C406">
         <v>7.993560669089523</v>
@@ -4897,7 +4897,7 @@
         <v>4.109999999999957</v>
       </c>
       <c r="B413">
-        <v>-0.009223583196230088</v>
+        <v>-0.009223583196230092</v>
       </c>
       <c r="C413">
         <v>7.995028123944055</v>
@@ -4908,7 +4908,7 @@
         <v>4.119999999999957</v>
       </c>
       <c r="B414">
-        <v>-0.003632176309591961</v>
+        <v>-0.00363217630959196</v>
       </c>
       <c r="C414">
         <v>7.995208466653112</v>
@@ -4985,7 +4985,7 @@
         <v>4.189999999999955</v>
       </c>
       <c r="B421">
-        <v>-0.001610037333969212</v>
+        <v>-0.001610037333969208</v>
       </c>
       <c r="C421">
         <v>7.996300406012698</v>
@@ -5029,7 +5029,7 @@
         <v>4.229999999999954</v>
       </c>
       <c r="B425">
-        <v>-0.007769201377069504</v>
+        <v>-0.007769201377069507</v>
       </c>
       <c r="C425">
         <v>7.99680867561536</v>
@@ -5040,7 +5040,7 @@
         <v>4.239999999999954</v>
       </c>
       <c r="B426">
-        <v>-0.001554419587801857</v>
+        <v>-0.001554419587801855</v>
       </c>
       <c r="C426">
         <v>7.996924433144012</v>
@@ -5106,7 +5106,7 @@
         <v>4.299999999999953</v>
       </c>
       <c r="B432">
-        <v>-0.006269775262317697</v>
+        <v>-0.00626977526231769</v>
       </c>
       <c r="C432">
         <v>7.997535944414826</v>
@@ -5183,7 +5183,7 @@
         <v>4.369999999999951</v>
       </c>
       <c r="B439">
-        <v>-0.03033941744885</v>
+        <v>-0.03033941744885001</v>
       </c>
       <c r="C439">
         <v>7.998097476409465</v>
@@ -5194,7 +5194,7 @@
         <v>4.379999999999951</v>
       </c>
       <c r="B440">
-        <v>-0.04311157321007502</v>
+        <v>-0.04311157321007501</v>
       </c>
       <c r="C440">
         <v>7.998166485824523</v>
@@ -5205,7 +5205,7 @@
         <v>4.389999999999951</v>
       </c>
       <c r="B441">
-        <v>-0.03594812031494626</v>
+        <v>-0.03594812031494625</v>
       </c>
       <c r="C441">
         <v>7.998232992090926</v>
@@ -5216,7 +5216,7 @@
         <v>4.399999999999951</v>
       </c>
       <c r="B442">
-        <v>-0.03158121610773774</v>
+        <v>-0.03158121610773775</v>
       </c>
       <c r="C442">
         <v>7.998297086004302</v>
@@ -5282,7 +5282,7 @@
         <v>4.459999999999949</v>
       </c>
       <c r="B448">
-        <v>-0.03721606567467202</v>
+        <v>-0.03721606567467201</v>
       </c>
       <c r="C448">
         <v>7.998635674352518</v>
@@ -5480,7 +5480,7 @@
         <v>4.639999999999946</v>
       </c>
       <c r="B466">
-        <v>-0.02711774639766191</v>
+        <v>-0.02711774639766192</v>
       </c>
       <c r="C466">
         <v>7.999298392813261</v>
@@ -5546,7 +5546,7 @@
         <v>4.699999999999944</v>
       </c>
       <c r="B472">
-        <v>-0.03053853438278059</v>
+        <v>-0.0305385343827806</v>
       </c>
       <c r="C472">
         <v>7.999437892529074</v>
@@ -5568,7 +5568,7 @@
         <v>4.719999999999944</v>
       </c>
       <c r="B474">
-        <v>-0.03055079357617339</v>
+        <v>-0.03055079357617338</v>
       </c>
       <c r="C474">
         <v>7.999477931126943</v>
@@ -5579,7 +5579,7 @@
         <v>4.729999999999944</v>
       </c>
       <c r="B475">
-        <v>-0.04391075770649636</v>
+        <v>-0.04391075770649634</v>
       </c>
       <c r="C475">
         <v>7.999496867905298</v>
@@ -5590,7 +5590,7 @@
         <v>4.739999999999943</v>
       </c>
       <c r="B476">
-        <v>-0.03309582891623086</v>
+        <v>-0.03309582891623087</v>
       </c>
       <c r="C476">
         <v>7.999515117798086</v>
@@ -5601,7 +5601,7 @@
         <v>4.749999999999943</v>
       </c>
       <c r="B477">
-        <v>-0.0291352833849193</v>
+        <v>-0.02913528338491929</v>
       </c>
       <c r="C477">
         <v>7.999532705720408</v>
@@ -5612,7 +5612,7 @@
         <v>4.759999999999943</v>
       </c>
       <c r="B478">
-        <v>-0.04631350606435675</v>
+        <v>-0.04631350606435676</v>
       </c>
       <c r="C478">
         <v>7.999549655683633</v>
@@ -5634,7 +5634,7 @@
         <v>4.779999999999943</v>
       </c>
       <c r="B480">
-        <v>-0.04731697400711064</v>
+        <v>-0.04731697400711063</v>
       </c>
       <c r="C480">
         <v>7.999581733455088</v>
@@ -5667,7 +5667,7 @@
         <v>4.809999999999942</v>
       </c>
       <c r="B483">
-        <v>-0.04043232228067634</v>
+        <v>-0.04043232228067632</v>
       </c>
       <c r="C483">
         <v>7.9996256172818</v>
@@ -5755,7 +5755,7 @@
         <v>4.88999999999994</v>
       </c>
       <c r="B491">
-        <v>-0.02670117830248777</v>
+        <v>-0.02670117830248776</v>
       </c>
       <c r="C491">
         <v>7.999721420237026</v>
@@ -5777,7 +5777,7 @@
         <v>4.90999999999994</v>
       </c>
       <c r="B493">
-        <v>-0.02115750372357771</v>
+        <v>-0.0211575037235777</v>
       </c>
       <c r="C493">
         <v>7.999741263316296</v>
@@ -5788,7 +5788,7 @@
         <v>4.91999999999994</v>
       </c>
       <c r="B494">
-        <v>-0.009441285144780428</v>
+        <v>-0.009441285144780447</v>
       </c>
       <c r="C494">
         <v>7.99975064836008</v>
@@ -5799,7 +5799,7 @@
         <v>4.929999999999939</v>
       </c>
       <c r="B495">
-        <v>-0.00424184476025658</v>
+        <v>-0.004241844760256561</v>
       </c>
       <c r="C495">
         <v>7.99975969298423</v>
@@ -5810,7 +5810,7 @@
         <v>4.939999999999939</v>
       </c>
       <c r="B496">
-        <v>-0.01721561050801535</v>
+        <v>-0.01721561050801536</v>
       </c>
       <c r="C496">
         <v>7.999768409536643</v>
@@ -5953,7 +5953,7 @@
         <v>5.069999999999936</v>
       </c>
       <c r="B509">
-        <v>-0.01011325370431084</v>
+        <v>-0.01011325370431083</v>
       </c>
       <c r="C509">
         <v>7.999856739800983</v>
@@ -5964,7 +5964,7 @@
         <v>5.079999999999936</v>
       </c>
       <c r="B510">
-        <v>-0.008080825669186647</v>
+        <v>-0.008080825669186654</v>
       </c>
       <c r="C510">
         <v>7.999861936216199</v>
@@ -6019,7 +6019,7 @@
         <v>5.129999999999935</v>
       </c>
       <c r="B515">
-        <v>-0.00718444239796591</v>
+        <v>-0.007184442397965897</v>
       </c>
       <c r="C515">
         <v>7.999885224054605</v>
@@ -6085,7 +6085,7 @@
         <v>5.189999999999934</v>
       </c>
       <c r="B521">
-        <v>-0.01194683315433193</v>
+        <v>-0.01194683315433192</v>
       </c>
       <c r="C521">
         <v>7.999908044818228</v>
@@ -6096,7 +6096,7 @@
         <v>5.199999999999934</v>
       </c>
       <c r="B522">
-        <v>-0.004588207585650657</v>
+        <v>-0.004588207585650663</v>
       </c>
       <c r="C522">
         <v>7.999911380268751</v>
@@ -6151,7 +6151,7 @@
         <v>5.249999999999932</v>
       </c>
       <c r="B527">
-        <v>0.002379406943492854</v>
+        <v>0.002379406943492849</v>
       </c>
       <c r="C527">
         <v>7.999926328156779</v>
@@ -6162,7 +6162,7 @@
         <v>5.259999999999932</v>
       </c>
       <c r="B528">
-        <v>-0.003586205979449153</v>
+        <v>-0.003586205979449151</v>
       </c>
       <c r="C528">
         <v>7.999929000423672</v>
@@ -6173,7 +6173,7 @@
         <v>5.269999999999932</v>
       </c>
       <c r="B529">
-        <v>0.000300351039296369</v>
+        <v>0.0003003510392963621</v>
       </c>
       <c r="C529">
         <v>7.999931575760587</v>
@@ -6184,7 +6184,7 @@
         <v>5.279999999999932</v>
       </c>
       <c r="B530">
-        <v>0.0008518672918713405</v>
+        <v>0.0008518672918713423</v>
       </c>
       <c r="C530">
         <v>7.999934057683419</v>
@@ -6195,7 +6195,7 @@
         <v>5.289999999999932</v>
       </c>
       <c r="B531">
-        <v>-0.008624181939490532</v>
+        <v>-0.008624181939490539</v>
       </c>
       <c r="C531">
         <v>7.999936449580537</v>
@@ -6206,7 +6206,7 @@
         <v>5.299999999999931</v>
       </c>
       <c r="B532">
-        <v>-0.005543561472177448</v>
+        <v>-0.005543561472177451</v>
       </c>
       <c r="C532">
         <v>7.999938754717407</v>
@@ -6316,7 +6316,7 @@
         <v>5.399999999999929</v>
       </c>
       <c r="B542">
-        <v>-0.01101636205075709</v>
+        <v>-0.0110163620507571</v>
       </c>
       <c r="C542">
         <v>7.999957673256429</v>
@@ -6360,7 +6360,7 @@
         <v>5.439999999999928</v>
       </c>
       <c r="B546">
-        <v>-0.005992101390288294</v>
+        <v>-0.005992101390288291</v>
       </c>
       <c r="C546">
         <v>7.999963488326194</v>
@@ -6371,7 +6371,7 @@
         <v>5.449999999999928</v>
       </c>
       <c r="B547">
-        <v>0.000304602233502216</v>
+        <v>0.0003046022335022065</v>
       </c>
       <c r="C547">
         <v>7.999964812698341</v>
@@ -6382,7 +6382,7 @@
         <v>5.459999999999928</v>
       </c>
       <c r="B548">
-        <v>-0.0005984908236754561</v>
+        <v>-0.0005984908236754535</v>
       </c>
       <c r="C548">
         <v>7.999966089032109</v>
@@ -6426,7 +6426,7 @@
         <v>5.499999999999927</v>
       </c>
       <c r="B552">
-        <v>0.008074350965378181</v>
+        <v>0.008074350965378176</v>
       </c>
       <c r="C552">
         <v>7.999970747898524</v>
@@ -6437,7 +6437,7 @@
         <v>5.509999999999927</v>
       </c>
       <c r="B553">
-        <v>0.004459725016466472</v>
+        <v>0.004459725016466475</v>
       </c>
       <c r="C553">
         <v>7.999971808947345</v>
@@ -6448,7 +6448,7 @@
         <v>5.519999999999927</v>
       </c>
       <c r="B554">
-        <v>0.005625683503889423</v>
+        <v>0.005625683503889426</v>
       </c>
       <c r="C554">
         <v>7.999972831509201</v>
@@ -6459,7 +6459,7 @@
         <v>5.529999999999927</v>
       </c>
       <c r="B555">
-        <v>0.003667089789395908</v>
+        <v>0.003667089789395906</v>
       </c>
       <c r="C555">
         <v>7.999973816980113</v>
@@ -6470,7 +6470,7 @@
         <v>5.539999999999926</v>
       </c>
       <c r="B556">
-        <v>0.0003860756525735885</v>
+        <v>0.0003860756525784718</v>
       </c>
       <c r="C556">
         <v>7.999974766705465</v>
@@ -6481,7 +6481,7 @@
         <v>5.549999999999926</v>
       </c>
       <c r="B557">
-        <v>-0.001114510119252959</v>
+        <v>-0.001114510119255397</v>
       </c>
       <c r="C557">
         <v>7.99997568198184</v>
@@ -6492,7 +6492,7 @@
         <v>5.559999999999926</v>
       </c>
       <c r="B558">
-        <v>-0.004397463826220159</v>
+        <v>-0.004397463826220161</v>
       </c>
       <c r="C558">
         <v>7.999976564058792</v>
@@ -6514,7 +6514,7 @@
         <v>5.579999999999925</v>
       </c>
       <c r="B560">
-        <v>-0.008575586795814317</v>
+        <v>-0.008575586795810164</v>
       </c>
       <c r="C560">
         <v>7.999978233387655</v>
@@ -6525,7 +6525,7 @@
         <v>5.589999999999925</v>
       </c>
       <c r="B561">
-        <v>-0.009185716939547993</v>
+        <v>-0.00918571693955007</v>
       </c>
       <c r="C561">
         <v>7.999979022918567</v>
@@ -6547,7 +6547,7 @@
         <v>5.609999999999925</v>
       </c>
       <c r="B563">
-        <v>-0.00740330292994963</v>
+        <v>-0.007403302929949626</v>
       </c>
       <c r="C563">
         <v>7.999980517104238</v>
@@ -6558,7 +6558,7 @@
         <v>5.619999999999925</v>
       </c>
       <c r="B564">
-        <v>-0.006052067667776421</v>
+        <v>-0.006052067667776423</v>
       </c>
       <c r="C564">
         <v>7.999981223798886</v>
@@ -6569,7 +6569,7 @@
         <v>5.629999999999924</v>
       </c>
       <c r="B565">
-        <v>-0.003389373469496752</v>
+        <v>-0.003389373469496749</v>
       </c>
       <c r="C565">
         <v>7.999981904859905</v>
@@ -6580,7 +6580,7 @@
         <v>5.639999999999924</v>
       </c>
       <c r="B566">
-        <v>-0.001422164014351037</v>
+        <v>-0.001422164014351038</v>
       </c>
       <c r="C566">
         <v>7.999982561217093</v>
@@ -6767,7 +6767,7 @@
         <v>5.809999999999921</v>
       </c>
       <c r="B583">
-        <v>0.008403624517464911</v>
+        <v>0.00840362451746491</v>
       </c>
       <c r="C583">
         <v>7.999990694538098</v>
@@ -6866,7 +6866,7 @@
         <v>5.899999999999919</v>
       </c>
       <c r="B592">
-        <v>-8.70528468211243E-06</v>
+        <v>-8.705284682111562E-06</v>
       </c>
       <c r="C592">
         <v>7.999993326926195</v>
@@ -7108,7 +7108,7 @@
         <v>6.119999999999914</v>
       </c>
       <c r="B614">
-        <v>0.02328639914841407</v>
+        <v>0.02328639914841406</v>
       </c>
       <c r="C614">
         <v>7.999997039815368</v>
@@ -7119,7 +7119,7 @@
         <v>6.129999999999914</v>
       </c>
       <c r="B615">
-        <v>0.02083844464996343</v>
+        <v>0.02083844464996344</v>
       </c>
       <c r="C615">
         <v>7.999997147188865</v>
@@ -7152,7 +7152,7 @@
         <v>6.159999999999913</v>
       </c>
       <c r="B618">
-        <v>0.03681221737906528</v>
+        <v>0.03681221737906527</v>
       </c>
       <c r="C618">
         <v>7.999997446501041</v>
@@ -7207,7 +7207,7 @@
         <v>6.209999999999912</v>
       </c>
       <c r="B623">
-        <v>0.02990151902405929</v>
+        <v>0.0299015190240593</v>
       </c>
       <c r="C623">
         <v>7.999997877211177</v>
@@ -7273,7 +7273,7 @@
         <v>6.269999999999911</v>
       </c>
       <c r="B629">
-        <v>0.02258503456235336</v>
+        <v>0.02258503456235337</v>
       </c>
       <c r="C629">
         <v>7.999998299282733</v>
@@ -7284,7 +7284,7 @@
         <v>6.279999999999911</v>
       </c>
       <c r="B630">
-        <v>0.02091382104967461</v>
+        <v>0.0209138210496746</v>
       </c>
       <c r="C630">
         <v>7.999998360972115</v>
@@ -7350,7 +7350,7 @@
         <v>6.339999999999909</v>
       </c>
       <c r="B636">
-        <v>0.03801092434739306</v>
+        <v>0.03801092434738754</v>
       </c>
       <c r="C636">
         <v>7.999998686858064</v>
@@ -7361,7 +7361,7 @@
         <v>6.349999999999909</v>
       </c>
       <c r="B637">
-        <v>0.02386731515479239</v>
+        <v>0.02386731515479515</v>
       </c>
       <c r="C637">
         <v>7.999998734489094</v>
@@ -7438,7 +7438,7 @@
         <v>6.419999999999908</v>
       </c>
       <c r="B644">
-        <v>0.03341432828522439</v>
+        <v>0.03341432828522438</v>
       </c>
       <c r="C644">
         <v>7.999999022885536</v>
@@ -7449,7 +7449,7 @@
         <v>6.429999999999907</v>
       </c>
       <c r="B645">
-        <v>0.02810740706090984</v>
+        <v>0.02810740706090986</v>
       </c>
       <c r="C645">
         <v>7.999999058327986</v>
@@ -7460,7 +7460,7 @@
         <v>6.439999999999907</v>
       </c>
       <c r="B646">
-        <v>0.04410089793806773</v>
+        <v>0.04410089793806774</v>
       </c>
       <c r="C646">
         <v>7.999999092484847</v>
@@ -7471,7 +7471,7 @@
         <v>6.449999999999907</v>
       </c>
       <c r="B647">
-        <v>0.02887424883937801</v>
+        <v>0.02887424883937802</v>
       </c>
       <c r="C647">
         <v>7.999999125402752</v>
@@ -7493,7 +7493,7 @@
         <v>6.469999999999906</v>
       </c>
       <c r="B649">
-        <v>0.03261006882605896</v>
+        <v>0.03261006882605897</v>
       </c>
       <c r="C649">
         <v>7.99999918769982</v>
@@ -7559,7 +7559,7 @@
         <v>6.529999999999905</v>
       </c>
       <c r="B655">
-        <v>0.03156008825724414</v>
+        <v>0.03156008825724413</v>
       </c>
       <c r="C655">
         <v>7.999999349208491</v>
@@ -7603,7 +7603,7 @@
         <v>6.569999999999904</v>
       </c>
       <c r="B659">
-        <v>0.03618910127476997</v>
+        <v>0.03618910127476999</v>
       </c>
       <c r="C659">
         <v>7.999999438617638</v>
@@ -7614,7 +7614,7 @@
         <v>6.579999999999904</v>
       </c>
       <c r="B660">
-        <v>0.03169688545534464</v>
+        <v>0.03169688545534463</v>
       </c>
       <c r="C660">
         <v>7.999999458980417</v>
@@ -7669,7 +7669,7 @@
         <v>6.629999999999903</v>
       </c>
       <c r="B665">
-        <v>0.03679945179667839</v>
+        <v>0.03679945179667841</v>
       </c>
       <c r="C665">
         <v>7.99999955023662</v>
@@ -7680,7 +7680,7 @@
         <v>6.639999999999903</v>
       </c>
       <c r="B666">
-        <v>0.05678947388256944</v>
+        <v>0.05678947388256943</v>
       </c>
       <c r="C666">
         <v>7.999999566550692</v>
@@ -7845,7 +7845,7 @@
         <v>6.7899999999999</v>
       </c>
       <c r="B681">
-        <v>0.0519866741055519</v>
+        <v>0.05198667410555187</v>
       </c>
       <c r="C681">
         <v>7.999999750970019</v>
@@ -7856,7 +7856,7 @@
         <v>6.799999999999899</v>
       </c>
       <c r="B682">
-        <v>0.0309445916530946</v>
+        <v>0.03094459165309459</v>
       </c>
       <c r="C682">
         <v>7.999999760002976</v>
@@ -7867,7 +7867,7 @@
         <v>6.809999999999899</v>
       </c>
       <c r="B683">
-        <v>0.05425297951025539</v>
+        <v>0.0542529795102554</v>
       </c>
       <c r="C683">
         <v>7.999999768708284</v>
@@ -7966,7 +7966,7 @@
         <v>6.899999999999897</v>
       </c>
       <c r="B692">
-        <v>0.05585256095189445</v>
+        <v>0.05585256095189442</v>
       </c>
       <c r="C692">
         <v>7.999999834137552</v>
@@ -7977,7 +7977,7 @@
         <v>6.909999999999897</v>
       </c>
       <c r="B693">
-        <v>0.08321767628149268</v>
+        <v>0.08321767628149269</v>
       </c>
       <c r="C693">
         <v>7.999999840153809</v>
@@ -8164,7 +8164,7 @@
         <v>7.079999999999893</v>
       </c>
       <c r="B710">
-        <v>0.04126819689855148</v>
+        <v>0.04126819689855145</v>
       </c>
       <c r="C710">
         <v>7.919496821933486</v>
@@ -8307,7 +8307,7 @@
         <v>7.209999999999891</v>
       </c>
       <c r="B723">
-        <v>-0.002434183921930171</v>
+        <v>-0.002434183921930191</v>
       </c>
       <c r="C723">
         <v>7.737018621813017</v>
@@ -8318,7 +8318,7 @@
         <v>7.219999999999891</v>
       </c>
       <c r="B724">
-        <v>0.02760215571149481</v>
+        <v>0.02760215571149482</v>
       </c>
       <c r="C724">
         <v>7.705943146796269</v>
@@ -8340,7 +8340,7 @@
         <v>7.23999999999989</v>
       </c>
       <c r="B726">
-        <v>-0.002118402408680546</v>
+        <v>-0.002118402408680518</v>
       </c>
       <c r="C726">
         <v>7.699078075027408</v>
@@ -8351,7 +8351,7 @@
         <v>7.24999999999989</v>
       </c>
       <c r="B727">
-        <v>0.03312544544331068</v>
+        <v>0.03312544544331067</v>
       </c>
       <c r="C727">
         <v>7.668272351945217</v>
@@ -8373,7 +8373,7 @@
         <v>7.269999999999889</v>
       </c>
       <c r="B729">
-        <v>0.04477835836491029</v>
+        <v>0.04477835836491027</v>
       </c>
       <c r="C729">
         <v>7.633665509283651</v>
@@ -8384,7 +8384,7 @@
         <v>7.279999999999889</v>
       </c>
       <c r="B730">
-        <v>0.02643965451256877</v>
+        <v>0.02643965451256878</v>
       </c>
       <c r="C730">
         <v>7.629787361108663</v>
@@ -8461,7 +8461,7 @@
         <v>7.349999999999888</v>
       </c>
       <c r="B737">
-        <v>0.07128224061202573</v>
+        <v>0.0712822406120257</v>
       </c>
       <c r="C737">
         <v>7.523535073823489</v>
@@ -8472,7 +8472,7 @@
         <v>7.359999999999888</v>
       </c>
       <c r="B738">
-        <v>0.04820139267941793</v>
+        <v>0.04820139267941798</v>
       </c>
       <c r="C738">
         <v>7.519830966571535</v>
@@ -8483,7 +8483,7 @@
         <v>7.369999999999887</v>
       </c>
       <c r="B739">
-        <v>0.04095535066796846</v>
+        <v>0.04095535066796845</v>
       </c>
       <c r="C739">
         <v>7.516664289238538</v>
@@ -8516,7 +8516,7 @@
         <v>7.399999999999887</v>
       </c>
       <c r="B742">
-        <v>0.06001335280519478</v>
+        <v>0.06001335280519481</v>
       </c>
       <c r="C742">
         <v>7.452633495994081</v>
@@ -8527,7 +8527,7 @@
         <v>7.409999999999886</v>
       </c>
       <c r="B743">
-        <v>0.03535823348189664</v>
+        <v>0.03535823348189662</v>
       </c>
       <c r="C743">
         <v>7.448805913706156</v>
@@ -8593,7 +8593,7 @@
         <v>7.469999999999885</v>
       </c>
       <c r="B749">
-        <v>0.01161622210650675</v>
+        <v>0.01161622210650672</v>
       </c>
       <c r="C749">
         <v>7.375691562292442</v>
@@ -8604,7 +8604,7 @@
         <v>7.479999999999885</v>
       </c>
       <c r="B750">
-        <v>0.00491408494006515</v>
+        <v>0.004914084940065136</v>
       </c>
       <c r="C750">
         <v>7.372716520808082</v>
@@ -8615,7 +8615,7 @@
         <v>7.489999999999885</v>
       </c>
       <c r="B751">
-        <v>0.0313803717425836</v>
+        <v>0.03138037174258361</v>
       </c>
       <c r="C751">
         <v>7.343262316661188</v>
@@ -8659,7 +8659,7 @@
         <v>7.529999999999884</v>
       </c>
       <c r="B755">
-        <v>0.002569518717713402</v>
+        <v>0.002569518717713375</v>
       </c>
       <c r="C755">
         <v>7.303361171810761</v>
@@ -8670,7 +8670,7 @@
         <v>7.539999999999884</v>
       </c>
       <c r="B756">
-        <v>0.02972179405604079</v>
+        <v>0.02972179405604083</v>
       </c>
       <c r="C756">
         <v>7.27401497615527</v>
@@ -8681,7 +8681,7 @@
         <v>7.549999999999883</v>
       </c>
       <c r="B757">
-        <v>0.009003985184565085</v>
+        <v>0.009003985184565074</v>
       </c>
       <c r="C757">
         <v>7.27051045473954</v>
@@ -8791,7 +8791,7 @@
         <v>7.649999999999881</v>
       </c>
       <c r="B767">
-        <v>0.04307000326079353</v>
+        <v>0.0430700032607935</v>
       </c>
       <c r="C767">
         <v>7.135408949777273</v>
@@ -8835,7 +8835,7 @@
         <v>7.68999999999988</v>
       </c>
       <c r="B771">
-        <v>0.0189638921489397</v>
+        <v>0.01896389214893969</v>
       </c>
       <c r="C771">
         <v>7.097202810758211</v>
@@ -8846,7 +8846,7 @@
         <v>7.69999999999988</v>
       </c>
       <c r="B772">
-        <v>0.01431625634676758</v>
+        <v>0.01431625634676759</v>
       </c>
       <c r="C772">
         <v>7.094367164972749</v>
@@ -8857,7 +8857,7 @@
         <v>7.70999999999988</v>
       </c>
       <c r="B773">
-        <v>0.04054360980880894</v>
+        <v>0.04054360980880893</v>
       </c>
       <c r="C773">
         <v>7.065912818820702</v>
@@ -8923,7 +8923,7 @@
         <v>7.769999999999879</v>
       </c>
       <c r="B779">
-        <v>0.02790168197461679</v>
+        <v>0.0279016819746168</v>
       </c>
       <c r="C779">
         <v>6.996359944591036</v>
@@ -8934,7 +8934,7 @@
         <v>7.779999999999879</v>
       </c>
       <c r="B780">
-        <v>0.0202445571815949</v>
+        <v>0.02024455718159489</v>
       </c>
       <c r="C780">
         <v>6.993368612037728</v>
@@ -8967,7 +8967,7 @@
         <v>7.809999999999878</v>
       </c>
       <c r="B783">
-        <v>0.01826637062050778</v>
+        <v>0.01826637062050779</v>
       </c>
       <c r="C783">
         <v>6.959097905692186</v>
@@ -9055,7 +9055,7 @@
         <v>7.889999999999876</v>
       </c>
       <c r="B791">
-        <v>0.04530017928334186</v>
+        <v>0.04530017928334188</v>
       </c>
       <c r="C791">
         <v>6.861190043054496</v>
@@ -9066,7 +9066,7 @@
         <v>7.899999999999876</v>
       </c>
       <c r="B792">
-        <v>0.03818802101621809</v>
+        <v>0.03818802101621808</v>
       </c>
       <c r="C792">
         <v>6.858532287762431</v>
@@ -9132,7 +9132,7 @@
         <v>7.959999999999875</v>
       </c>
       <c r="B798">
-        <v>0.03928609570778903</v>
+        <v>0.03928609570778901</v>
       </c>
       <c r="C798">
         <v>6.792719224596826</v>
@@ -9165,7 +9165,7 @@
         <v>7.989999999999874</v>
       </c>
       <c r="B801">
-        <v>0.04001675603728445</v>
+        <v>0.04001675603728444</v>
       </c>
       <c r="C801">
         <v>6.760096045955399</v>
@@ -9308,7 +9308,7 @@
         <v>8.119999999999871</v>
       </c>
       <c r="B814">
-        <v>0.08488379225983378</v>
+        <v>0.08488379225983375</v>
       </c>
       <c r="C814">
         <v>6.604907960174547</v>
@@ -9330,7 +9330,7 @@
         <v>8.139999999999871</v>
       </c>
       <c r="B816">
-        <v>0.03719802703716087</v>
+        <v>0.03719802703716085</v>
       </c>
       <c r="C816">
         <v>6.599462649791232</v>
@@ -9385,7 +9385,7 @@
         <v>8.18999999999987</v>
       </c>
       <c r="B821">
-        <v>0.05779584854190965</v>
+        <v>0.05779584854190967</v>
       </c>
       <c r="C821">
         <v>6.538789426824765</v>
@@ -9396,7 +9396,7 @@
         <v>8.19999999999987</v>
       </c>
       <c r="B822">
-        <v>0.04725762197343525</v>
+        <v>0.04725762197343524</v>
       </c>
       <c r="C822">
         <v>6.536304461889269</v>
@@ -9418,7 +9418,7 @@
         <v>8.219999999999869</v>
       </c>
       <c r="B824">
-        <v>0.06551108556862473</v>
+        <v>0.0655110855686247</v>
       </c>
       <c r="C824">
         <v>6.507426391621439</v>
@@ -9429,7 +9429,7 @@
         <v>8.229999999999869</v>
       </c>
       <c r="B825">
-        <v>0.05786228879826772</v>
+        <v>0.05786228879826773</v>
       </c>
       <c r="C825">
         <v>6.504953517813041</v>
@@ -9462,7 +9462,7 @@
         <v>8.259999999999868</v>
       </c>
       <c r="B828">
-        <v>0.06501088463375032</v>
+        <v>0.06501088463375035</v>
       </c>
       <c r="C828">
         <v>6.47375330140208</v>
@@ -9495,7 +9495,7 @@
         <v>8.289999999999868</v>
       </c>
       <c r="B831">
-        <v>0.07530321782124508</v>
+        <v>0.07530321782124505</v>
       </c>
       <c r="C831">
         <v>6.442702960995467</v>
@@ -9638,7 +9638,7 @@
         <v>8.419999999999865</v>
       </c>
       <c r="B844">
-        <v>0.0679784621256206</v>
+        <v>0.06797846212562063</v>
       </c>
       <c r="C844">
         <v>6.31869531851813</v>
@@ -9726,7 +9726,7 @@
         <v>8.499999999999863</v>
       </c>
       <c r="B852">
-        <v>0.08920667831502875</v>
+        <v>0.08920667831502872</v>
       </c>
       <c r="C852">
         <v>6.231482737074151</v>
@@ -9737,7 +9737,7 @@
         <v>8.509999999999863</v>
       </c>
       <c r="B853">
-        <v>0.07393923108953664</v>
+        <v>0.07393923108953665</v>
       </c>
       <c r="C853">
         <v>6.22916823720905</v>
@@ -10441,7 +10441,7 @@
         <v>9.149999999999849</v>
       </c>
       <c r="B917">
-        <v>0.03048225492472537</v>
+        <v>0.03048225492472536</v>
       </c>
       <c r="C917">
         <v>5.797069864653591</v>
@@ -10452,7 +10452,7 @@
         <v>9.159999999999849</v>
       </c>
       <c r="B918">
-        <v>0.02731526797885932</v>
+        <v>0.02731526797885931</v>
       </c>
       <c r="C918">
         <v>5.797200813531059</v>
@@ -10606,7 +10606,7 @@
         <v>9.299999999999846</v>
       </c>
       <c r="B932">
-        <v>0.02473092779061535</v>
+        <v>0.02473092779061534</v>
       </c>
       <c r="C932">
         <v>5.936076869857022</v>
@@ -10771,7 +10771,7 @@
         <v>9.449999999999843</v>
       </c>
       <c r="B947">
-        <v>0.0005898080818124056</v>
+        <v>0.0005898080818123987</v>
       </c>
       <c r="C947">
         <v>6.256655589368092</v>
@@ -10782,7 +10782,7 @@
         <v>9.459999999999843</v>
       </c>
       <c r="B948">
-        <v>-0.005454989970254375</v>
+        <v>-0.005454989970254371</v>
       </c>
       <c r="C948">
         <v>6.259970155193935</v>
@@ -10793,7 +10793,7 @@
         <v>9.469999999999843</v>
       </c>
       <c r="B949">
-        <v>-0.008994461657648056</v>
+        <v>-0.008994461657648063</v>
       </c>
       <c r="C949">
         <v>6.26316449320765</v>
@@ -10804,7 +10804,7 @@
         <v>9.479999999999842</v>
       </c>
       <c r="B950">
-        <v>-0.009361799732273298</v>
+        <v>-0.009361799732273295</v>
       </c>
       <c r="C950">
         <v>6.339621872274549</v>
@@ -10859,7 +10859,7 @@
         <v>9.529999999999841</v>
       </c>
       <c r="B955">
-        <v>-0.01952045486506466</v>
+        <v>-0.01952045486506465</v>
       </c>
       <c r="C955">
         <v>6.437644054755144</v>
@@ -10881,7 +10881,7 @@
         <v>9.549999999999841</v>
       </c>
       <c r="B957">
-        <v>-0.0221577277399069</v>
+        <v>-0.02215772773990691</v>
       </c>
       <c r="C957">
         <v>6.529459239919136</v>
@@ -10936,7 +10936,7 @@
         <v>9.59999999999984</v>
       </c>
       <c r="B962">
-        <v>-0.02150803561568245</v>
+        <v>-0.02150803561568244</v>
       </c>
       <c r="C962">
         <v>6.626806198893209</v>
@@ -10947,7 +10947,7 @@
         <v>9.60999999999984</v>
       </c>
       <c r="B963">
-        <v>-0.02982475626508595</v>
+        <v>-0.02982475626508596</v>
       </c>
       <c r="C963">
         <v>6.69342253162411</v>
@@ -11387,7 +11387,7 @@
         <v>10.00999999999983</v>
       </c>
       <c r="B1003">
-        <v>-0.04517595335851771</v>
+        <v>-0.0451759533585177</v>
       </c>
       <c r="C1003">
         <v>6.067846571442714</v>
@@ -12124,7 +12124,7 @@
         <v>10.67999999999982</v>
       </c>
       <c r="B1070">
-        <v>-0.067526371521235</v>
+        <v>-0.06752637152123503</v>
       </c>
       <c r="C1070">
         <v>5.531070103085236</v>
@@ -12333,7 +12333,7 @@
         <v>10.86999999999981</v>
       </c>
       <c r="B1089">
-        <v>-0.07808916107228081</v>
+        <v>-0.07808916107228082</v>
       </c>
       <c r="C1089">
         <v>5.385132374552663</v>
@@ -12344,7 +12344,7 @@
         <v>10.87999999999981</v>
       </c>
       <c r="B1090">
-        <v>-0.04152003835215056</v>
+        <v>-0.04152003835215054</v>
       </c>
       <c r="C1090">
         <v>5.383266140146038</v>
@@ -12410,7 +12410,7 @@
         <v>10.93999999999981</v>
       </c>
       <c r="B1096">
-        <v>-0.01762769726817635</v>
+        <v>-0.01762769726817634</v>
       </c>
       <c r="C1096">
         <v>5.378874101956723</v>
@@ -12421,7 +12421,7 @@
         <v>10.94999999999981</v>
       </c>
       <c r="B1097">
-        <v>-0.04994177982837505</v>
+        <v>-0.04994177982837504</v>
       </c>
       <c r="C1097">
         <v>5.394298854020987</v>
@@ -12432,7 +12432,7 @@
         <v>10.95999999999981</v>
       </c>
       <c r="B1098">
-        <v>-0.02356299609361633</v>
+        <v>-0.02356299609361634</v>
       </c>
       <c r="C1098">
         <v>5.394358513180272</v>
@@ -12443,7 +12443,7 @@
         <v>10.96999999999981</v>
       </c>
       <c r="B1099">
-        <v>-0.02009564593146832</v>
+        <v>-0.02009564593146831</v>
       </c>
       <c r="C1099">
         <v>5.394416008348684</v>
@@ -12454,7 +12454,7 @@
         <v>10.97999999999981</v>
       </c>
       <c r="B1100">
-        <v>-0.01517032376201326</v>
+        <v>-0.01517032376201327</v>
       </c>
       <c r="C1100">
         <v>5.394471418019728</v>
@@ -12564,7 +12564,7 @@
         <v>11.07999999999981</v>
       </c>
       <c r="B1110">
-        <v>-0.008446364118244256</v>
+        <v>-0.00844636411824427</v>
       </c>
       <c r="C1110">
         <v>5.52147388942566</v>
@@ -12575,7 +12575,7 @@
         <v>11.08999999999981</v>
       </c>
       <c r="B1111">
-        <v>-0.00609642647546765</v>
+        <v>-0.006096426475467643</v>
       </c>
       <c r="C1111">
         <v>5.522645406680212</v>
@@ -12597,7 +12597,7 @@
         <v>11.10999999999981</v>
       </c>
       <c r="B1113">
-        <v>-0.006596612627156693</v>
+        <v>-0.0065966126271567</v>
       </c>
       <c r="C1113">
         <v>5.587612154650863</v>
@@ -12608,7 +12608,7 @@
         <v>11.11999999999981</v>
       </c>
       <c r="B1114">
-        <v>-0.003315060339141682</v>
+        <v>-0.003315060339141671</v>
       </c>
       <c r="C1114">
         <v>5.589335139517117</v>
@@ -12619,7 +12619,7 @@
         <v>11.12999999999981</v>
       </c>
       <c r="B1115">
-        <v>-0.01079460619464932</v>
+        <v>-0.01079460619464933</v>
       </c>
       <c r="C1115">
         <v>5.663362183476175</v>
@@ -12630,7 +12630,7 @@
         <v>11.13999999999981</v>
       </c>
       <c r="B1116">
-        <v>-0.000592683151457293</v>
+        <v>-0.0005926831514572895</v>
       </c>
       <c r="C1116">
         <v>5.66577855006692</v>
@@ -12641,7 +12641,7 @@
         <v>11.14999999999981</v>
       </c>
       <c r="B1117">
-        <v>0.001415577297324196</v>
+        <v>0.001415577297324203</v>
       </c>
       <c r="C1117">
         <v>5.668107268837779</v>
@@ -12652,7 +12652,7 @@
         <v>11.15999999999981</v>
       </c>
       <c r="B1118">
-        <v>0.004803909923685819</v>
+        <v>0.004803909923685816</v>
       </c>
       <c r="C1118">
         <v>5.670351519000199</v>
@@ -12773,7 +12773,7 @@
         <v>11.2699999999998</v>
       </c>
       <c r="B1129">
-        <v>0.019479183953585</v>
+        <v>0.01947918395358499</v>
       </c>
       <c r="C1129">
         <v>5.986292196950416</v>
@@ -12949,7 +12949,7 @@
         <v>11.4299999999998</v>
       </c>
       <c r="B1145">
-        <v>0.0594155539808857</v>
+        <v>0.05941555398088709</v>
       </c>
       <c r="C1145">
         <v>6.28985835012185</v>
@@ -12960,7 +12960,7 @@
         <v>11.4399999999998</v>
       </c>
       <c r="B1146">
-        <v>0.05485206254107927</v>
+        <v>0.05485206254107858</v>
       </c>
       <c r="C1146">
         <v>6.293796772884231</v>
@@ -13026,7 +13026,7 @@
         <v>11.4999999999998</v>
       </c>
       <c r="B1152">
-        <v>0.0723575019714211</v>
+        <v>0.07235750197142109</v>
       </c>
       <c r="C1152">
         <v>6.277092047462972</v>
@@ -13059,7 +13059,7 @@
         <v>11.5299999999998</v>
       </c>
       <c r="B1155">
-        <v>0.08737031373141402</v>
+        <v>0.08737031373141403</v>
       </c>
       <c r="C1155">
         <v>6.261298816879759</v>
@@ -13180,7 +13180,7 @@
         <v>11.6399999999998</v>
       </c>
       <c r="B1166">
-        <v>0.07891570208598871</v>
+        <v>0.07891570208598872</v>
       </c>
       <c r="C1166">
         <v>6.207920723837997</v>
@@ -13235,7 +13235,7 @@
         <v>11.6899999999998</v>
       </c>
       <c r="B1171">
-        <v>0.08600404771043174</v>
+        <v>0.08600404771043173</v>
       </c>
       <c r="C1171">
         <v>6.164865220456148</v>
@@ -13257,7 +13257,7 @@
         <v>11.70999999999979</v>
       </c>
       <c r="B1173">
-        <v>0.06348357262140131</v>
+        <v>0.06348357262140132</v>
       </c>
       <c r="C1173">
         <v>6.165226815228602</v>
@@ -13312,7 +13312,7 @@
         <v>11.75999999999979</v>
       </c>
       <c r="B1178">
-        <v>0.06561183220257603</v>
+        <v>0.06561183220257602</v>
       </c>
       <c r="C1178">
         <v>6.11819140644045</v>
@@ -13356,7 +13356,7 @@
         <v>11.79999999999979</v>
       </c>
       <c r="B1182">
-        <v>0.05486612165431965</v>
+        <v>0.05486612165431966</v>
       </c>
       <c r="C1182">
         <v>6.090564922403921</v>
@@ -13378,7 +13378,7 @@
         <v>11.81999999999979</v>
       </c>
       <c r="B1184">
-        <v>0.0828899821888429</v>
+        <v>0.08288998218884289</v>
       </c>
       <c r="C1184">
         <v>6.065898114868153</v>
@@ -13477,7 +13477,7 @@
         <v>11.90999999999979</v>
       </c>
       <c r="B1193">
-        <v>0.0679733665675251</v>
+        <v>0.06797336656752509</v>
       </c>
       <c r="C1193">
         <v>5.985478100166767</v>
@@ -13488,7 +13488,7 @@
         <v>11.91999999999979</v>
       </c>
       <c r="B1194">
-        <v>0.03626888137667232</v>
+        <v>0.03626888137667233</v>
       </c>
       <c r="C1194">
         <v>5.983124939099781</v>
@@ -13499,7 +13499,7 @@
         <v>11.92999999999979</v>
       </c>
       <c r="B1195">
-        <v>0.02570899068134231</v>
+        <v>0.02570899068134157</v>
       </c>
       <c r="C1195">
         <v>5.981113198805873</v>
@@ -13510,7 +13510,7 @@
         <v>11.93999999999979</v>
       </c>
       <c r="B1196">
-        <v>0.01661468581188963</v>
+        <v>0.01661468581189</v>
       </c>
       <c r="C1196">
         <v>5.979393342453109</v>
@@ -13697,7 +13697,7 @@
         <v>12.10999999999979</v>
       </c>
       <c r="B1213">
-        <v>0.04844844720731354</v>
+        <v>0.04844844720731353</v>
       </c>
       <c r="C1213">
         <v>5.923337131061182</v>
@@ -13708,7 +13708,7 @@
         <v>12.11999999999979</v>
       </c>
       <c r="B1214">
-        <v>0.07971910262744888</v>
+        <v>0.0797191026274489</v>
       </c>
       <c r="C1214">
         <v>5.924253884532476</v>
@@ -14544,7 +14544,7 @@
         <v>12.87999999999977</v>
       </c>
       <c r="B1290">
-        <v>0.02547756544751124</v>
+        <v>0.02547756544751123</v>
       </c>
       <c r="C1290">
         <v>6.314297276543468</v>
@@ -14555,7 +14555,7 @@
         <v>12.88999999999977</v>
       </c>
       <c r="B1291">
-        <v>0.04448302777915482</v>
+        <v>0.04448302777915483</v>
       </c>
       <c r="C1291">
         <v>6.338295895616318</v>
@@ -15061,7 +15061,7 @@
         <v>13.34999999999976</v>
       </c>
       <c r="B1337">
-        <v>0.01333663090738593</v>
+        <v>0.01333663090738592</v>
       </c>
       <c r="C1337">
         <v>6.788971821430567</v>
@@ -15633,7 +15633,7 @@
         <v>13.86999999999975</v>
       </c>
       <c r="B1389">
-        <v>0.01541931525941901</v>
+        <v>0.015419315259419</v>
       </c>
       <c r="C1389">
         <v>7.497193288406852</v>
@@ -15688,7 +15688,7 @@
         <v>13.91999999999975</v>
       </c>
       <c r="B1394">
-        <v>0.02413694958740937</v>
+        <v>0.02413694958740938</v>
       </c>
       <c r="C1394">
         <v>7.54039547685815</v>
@@ -15809,7 +15809,7 @@
         <v>14.02999999999975</v>
       </c>
       <c r="B1405">
-        <v>0.03321018443924022</v>
+        <v>0.03321018443924023</v>
       </c>
       <c r="C1405">
         <v>7.569734008865757</v>
@@ -15842,7 +15842,7 @@
         <v>14.05999999999974</v>
       </c>
       <c r="B1408">
-        <v>0.02853584350316702</v>
+        <v>0.02853584350316703</v>
       </c>
       <c r="C1408">
         <v>7.565884950320656</v>
@@ -15886,7 +15886,7 @@
         <v>14.09999999999974</v>
       </c>
       <c r="B1412">
-        <v>0.05155263319530978</v>
+        <v>0.0515526331953098</v>
       </c>
       <c r="C1412">
         <v>7.542414727528113</v>
@@ -16260,7 +16260,7 @@
         <v>14.43999999999974</v>
       </c>
       <c r="B1446">
-        <v>0.03675263094240665</v>
+        <v>0.03675263094240663</v>
       </c>
       <c r="C1446">
         <v>7.17124628893498</v>
@@ -16315,7 +16315,7 @@
         <v>14.48999999999974</v>
       </c>
       <c r="B1451">
-        <v>0.04642668072270648</v>
+        <v>0.04642668072270646</v>
       </c>
       <c r="C1451">
         <v>7.103757449555334</v>
@@ -16326,7 +16326,7 @@
         <v>14.49999999999974</v>
       </c>
       <c r="B1452">
-        <v>0.03619778400393198</v>
+        <v>0.03619778400393196</v>
       </c>
       <c r="C1452">
         <v>7.100864908246169</v>
@@ -16337,7 +16337,7 @@
         <v>14.50999999999974</v>
       </c>
       <c r="B1453">
-        <v>0.07056246284034307</v>
+        <v>0.07056246284034308</v>
       </c>
       <c r="C1453">
         <v>7.072474133852881</v>
@@ -16348,7 +16348,7 @@
         <v>14.51999999999973</v>
       </c>
       <c r="B1454">
-        <v>0.04247748957853523</v>
+        <v>0.04247748957853525</v>
       </c>
       <c r="C1454">
         <v>7.069190910253659</v>
@@ -16359,7 +16359,7 @@
         <v>14.52999999999973</v>
       </c>
       <c r="B1455">
-        <v>0.03390569815392724</v>
+        <v>0.03390569815392723</v>
       </c>
       <c r="C1455">
         <v>7.066384050450846</v>
@@ -16480,7 +16480,7 @@
         <v>14.63999999999973</v>
       </c>
       <c r="B1466">
-        <v>0.04661688168283416</v>
+        <v>0.04661688168283415</v>
       </c>
       <c r="C1466">
         <v>6.93225229740644</v>
@@ -16491,7 +16491,7 @@
         <v>14.64999999999973</v>
       </c>
       <c r="B1467">
-        <v>0.08978882895013184</v>
+        <v>0.08978882895013185</v>
       </c>
       <c r="C1467">
         <v>6.904528533892624</v>
@@ -16513,7 +16513,7 @@
         <v>14.66999999999973</v>
       </c>
       <c r="B1469">
-        <v>0.05507997329121146</v>
+        <v>0.05507997329121149</v>
       </c>
       <c r="C1469">
         <v>6.89857148111882</v>
@@ -16524,7 +16524,7 @@
         <v>14.67999999999973</v>
       </c>
       <c r="B1470">
-        <v>0.09791162158012638</v>
+        <v>0.09791162158012637</v>
       </c>
       <c r="C1470">
         <v>6.871043343423861</v>
@@ -16601,7 +16601,7 @@
         <v>14.74999999999973</v>
       </c>
       <c r="B1477">
-        <v>0.06327912234211444</v>
+        <v>0.06327912234211445</v>
       </c>
       <c r="C1477">
         <v>6.80185856894863</v>
@@ -16612,7 +16612,7 @@
         <v>14.75999999999973</v>
       </c>
       <c r="B1478">
-        <v>0.05136288967101089</v>
+        <v>0.05136288967101085</v>
       </c>
       <c r="C1478">
         <v>6.799244032290824</v>
@@ -16623,7 +16623,7 @@
         <v>14.76999999999973</v>
       </c>
       <c r="B1479">
-        <v>0.09829552786026935</v>
+        <v>0.09829552786026936</v>
       </c>
       <c r="C1479">
         <v>6.772188486608631</v>
@@ -16645,7 +16645,7 @@
         <v>14.78999999999973</v>
       </c>
       <c r="B1481">
-        <v>0.05459904308433641</v>
+        <v>0.05459904308433644</v>
       </c>
       <c r="C1481">
         <v>6.766567131601676</v>
@@ -16689,7 +16689,7 @@
         <v>14.82999999999973</v>
       </c>
       <c r="B1485">
-        <v>0.1057671847298792</v>
+        <v>0.1057671847298793</v>
       </c>
       <c r="C1485">
         <v>6.707290458489211</v>
@@ -16700,7 +16700,7 @@
         <v>14.83999999999973</v>
       </c>
       <c r="B1486">
-        <v>0.06955475921093693</v>
+        <v>0.06955475921093691</v>
       </c>
       <c r="C1486">
         <v>6.704302156306043</v>
@@ -16744,7 +16744,7 @@
         <v>14.87999999999973</v>
       </c>
       <c r="B1490">
-        <v>0.05590219738625915</v>
+        <v>0.05590219738625912</v>
       </c>
       <c r="C1490">
         <v>6.669587879814237</v>
@@ -16777,7 +16777,7 @@
         <v>14.90999999999973</v>
       </c>
       <c r="B1493">
-        <v>0.05934260866916248</v>
+        <v>0.05934260866916245</v>
       </c>
       <c r="C1493">
         <v>6.637588580250745</v>
@@ -16799,7 +16799,7 @@
         <v>14.92999999999973</v>
       </c>
       <c r="B1495">
-        <v>0.07151688075869383</v>
+        <v>0.07151688075869382</v>
       </c>
       <c r="C1495">
         <v>6.608259301842737</v>
@@ -16810,7 +16810,7 @@
         <v>14.93999999999973</v>
       </c>
       <c r="B1496">
-        <v>0.05958791234678524</v>
+        <v>0.05958791234678526</v>
       </c>
       <c r="C1496">
         <v>6.605746613781413</v>
@@ -16821,7 +16821,7 @@
         <v>14.94999999999973</v>
       </c>
       <c r="B1497">
-        <v>0.1168406200759479</v>
+        <v>0.1168406200759478</v>
       </c>
       <c r="C1497">
         <v>6.579483909787792</v>
@@ -16832,7 +16832,7 @@
         <v>14.95999999999973</v>
       </c>
       <c r="B1498">
-        <v>0.07745234466603101</v>
+        <v>0.07745234466603106</v>
       </c>
       <c r="C1498">
         <v>6.576559657515626</v>
@@ -16843,7 +16843,7 @@
         <v>14.96999999999973</v>
       </c>
       <c r="B1499">
-        <v>0.06479209508079586</v>
+        <v>0.06479209508079585</v>
       </c>
       <c r="C1499">
         <v>6.574059685793332</v>
@@ -16909,7 +16909,7 @@
         <v>15.02999999999972</v>
       </c>
       <c r="B1505">
-        <v>0.05842157857396744</v>
+        <v>0.05842157857396742</v>
       </c>
       <c r="C1505">
         <v>6.51114486094195</v>
@@ -16942,7 +16942,7 @@
         <v>15.05999999999972</v>
       </c>
       <c r="B1508">
-        <v>0.05415892060058788</v>
+        <v>0.05415892060058786</v>
       </c>
       <c r="C1508">
         <v>6.479914561543328</v>
@@ -16953,7 +16953,7 @@
         <v>15.06999999999972</v>
       </c>
       <c r="B1509">
-        <v>0.04268946852761839</v>
+        <v>0.04268946852761838</v>
       </c>
       <c r="C1509">
         <v>6.477808625390206</v>
@@ -16964,7 +16964,7 @@
         <v>15.07999999999972</v>
       </c>
       <c r="B1510">
-        <v>0.09985432209027775</v>
+        <v>0.09985432209027779</v>
       </c>
       <c r="C1510">
         <v>6.452352957514524</v>
@@ -16975,7 +16975,7 @@
         <v>15.08999999999972</v>
       </c>
       <c r="B1511">
-        <v>0.05451895666423497</v>
+        <v>0.05451895666423493</v>
       </c>
       <c r="C1511">
         <v>6.449746707170076</v>
@@ -16986,7 +16986,7 @@
         <v>15.09999999999972</v>
       </c>
       <c r="B1512">
-        <v>0.04212164278164594</v>
+        <v>0.04212164278164596</v>
       </c>
       <c r="C1512">
         <v>6.447518598390148</v>
@@ -16997,7 +16997,7 @@
         <v>15.10999999999972</v>
       </c>
       <c r="B1513">
-        <v>0.09959610677252564</v>
+        <v>0.09959610677252563</v>
       </c>
       <c r="C1513">
         <v>6.422071993053629</v>
@@ -17019,7 +17019,7 @@
         <v>15.12999999999972</v>
       </c>
       <c r="B1515">
-        <v>0.04950807677609983</v>
+        <v>0.0495080767760998</v>
       </c>
       <c r="C1515">
         <v>6.417081502427267</v>
@@ -17151,7 +17151,7 @@
         <v>15.24999999999972</v>
       </c>
       <c r="B1527">
-        <v>0.06023184666295807</v>
+        <v>0.06023184666295806</v>
       </c>
       <c r="C1527">
         <v>6.29553253713299</v>
@@ -17162,7 +17162,7 @@
         <v>15.25999999999972</v>
       </c>
       <c r="B1528">
-        <v>0.04851855280933108</v>
+        <v>0.04851855280933109</v>
       </c>
       <c r="C1528">
         <v>6.293504880721894</v>
@@ -17195,7 +17195,7 @@
         <v>15.28999999999972</v>
       </c>
       <c r="B1531">
-        <v>0.04478141657659931</v>
+        <v>0.04478141657659929</v>
       </c>
       <c r="C1531">
         <v>6.264116765220849</v>
@@ -17404,7 +17404,7 @@
         <v>15.47999999999971</v>
       </c>
       <c r="B1550">
-        <v>0.03452953762084998</v>
+        <v>0.03452953762085</v>
       </c>
       <c r="C1550">
         <v>6.086746627589997</v>
@@ -17415,7 +17415,7 @@
         <v>15.48999999999971</v>
       </c>
       <c r="B1551">
-        <v>0.07325855094924494</v>
+        <v>0.07325855094924491</v>
       </c>
       <c r="C1551">
         <v>6.062412194874761</v>
@@ -17426,7 +17426,7 @@
         <v>15.49999999999971</v>
       </c>
       <c r="B1552">
-        <v>0.04461244170454415</v>
+        <v>0.04461244170454417</v>
       </c>
       <c r="C1552">
         <v>6.059778154323123</v>
@@ -17558,7 +17558,7 @@
         <v>15.61999999999971</v>
       </c>
       <c r="B1564">
-        <v>0.02993825136593657</v>
+        <v>0.02993825136593658</v>
       </c>
       <c r="C1564">
         <v>5.985996612395198</v>
@@ -17613,7 +17613,7 @@
         <v>15.66999999999971</v>
       </c>
       <c r="B1569">
-        <v>0.04964826383499378</v>
+        <v>0.04964826383499379</v>
       </c>
       <c r="C1569">
         <v>5.967446362917204</v>
@@ -17624,7 +17624,7 @@
         <v>15.67999999999971</v>
       </c>
       <c r="B1570">
-        <v>0.04345030301876727</v>
+        <v>0.04345030301876726</v>
       </c>
       <c r="C1570">
         <v>5.966519604201961</v>
@@ -17635,7 +17635,7 @@
         <v>15.68999999999971</v>
       </c>
       <c r="B1571">
-        <v>0.07634991423415878</v>
+        <v>0.07634991423415879</v>
       </c>
       <c r="C1571">
         <v>5.964651871399381</v>
@@ -17646,7 +17646,7 @@
         <v>15.69999999999971</v>
       </c>
       <c r="B1572">
-        <v>0.05224320194953702</v>
+        <v>0.05224320194953701</v>
       </c>
       <c r="C1572">
         <v>5.963926017949453</v>
@@ -17668,7 +17668,7 @@
         <v>15.71999999999971</v>
       </c>
       <c r="B1574">
-        <v>0.03892660046755263</v>
+        <v>0.03892660046755262</v>
       </c>
       <c r="C1574">
         <v>5.962774973791139</v>
@@ -17723,7 +17723,7 @@
         <v>15.76999999999971</v>
       </c>
       <c r="B1579">
-        <v>0.03224473746446429</v>
+        <v>0.0322447374644643</v>
       </c>
       <c r="C1579">
         <v>5.968262367200489</v>
@@ -17734,7 +17734,7 @@
         <v>15.77999999999971</v>
       </c>
       <c r="B1580">
-        <v>0.02218854356914635</v>
+        <v>0.02218854356914634</v>
       </c>
       <c r="C1580">
         <v>5.968268904706846</v>
@@ -17800,7 +17800,7 @@
         <v>15.83999999999971</v>
       </c>
       <c r="B1586">
-        <v>0.01667866246127607</v>
+        <v>0.01667866246127608</v>
       </c>
       <c r="C1586">
         <v>5.98557840433066</v>
@@ -17811,7 +17811,7 @@
         <v>15.84999999999971</v>
       </c>
       <c r="B1587">
-        <v>0.01082073273157176</v>
+        <v>0.01082073273157175</v>
       </c>
       <c r="C1587">
         <v>5.985758352380161</v>
@@ -17833,7 +17833,7 @@
         <v>15.86999999999971</v>
       </c>
       <c r="B1589">
-        <v>0.02087371734342091</v>
+        <v>0.02087371734342092</v>
       </c>
       <c r="C1589">
         <v>5.997921573945213</v>
@@ -17844,7 +17844,7 @@
         <v>15.87999999999971</v>
       </c>
       <c r="B1590">
-        <v>0.0184463932343404</v>
+        <v>0.01844639323434041</v>
       </c>
       <c r="C1590">
         <v>5.998209702401714</v>
@@ -17855,7 +17855,7 @@
         <v>15.88999999999971</v>
       </c>
       <c r="B1591">
-        <v>0.01442822898918793</v>
+        <v>0.01442822898918794</v>
       </c>
       <c r="C1591">
         <v>5.998487379699373</v>
@@ -17866,7 +17866,7 @@
         <v>15.89999999999971</v>
       </c>
       <c r="B1592">
-        <v>0.04207548999278861</v>
+        <v>0.0420754899927886</v>
       </c>
       <c r="C1592">
         <v>6.012375696309833</v>
@@ -17932,7 +17932,7 @@
         <v>15.9599999999997</v>
       </c>
       <c r="B1598">
-        <v>0.05012329438515391</v>
+        <v>0.05012329438515392</v>
       </c>
       <c r="C1598">
         <v>6.047601036098552</v>
@@ -17998,7 +17998,7 @@
         <v>16.0199999999997</v>
       </c>
       <c r="B1604">
-        <v>0.03334014887619851</v>
+        <v>0.0333401488761985</v>
       </c>
       <c r="C1604">
         <v>6.070314130803796</v>
@@ -18031,7 +18031,7 @@
         <v>16.04999999999971</v>
       </c>
       <c r="B1607">
-        <v>0.03594101524689044</v>
+        <v>0.03594101524689042</v>
       </c>
       <c r="C1607">
         <v>6.092909253925805</v>
@@ -18042,7 +18042,7 @@
         <v>16.05999999999971</v>
       </c>
       <c r="B1608">
-        <v>0.05716624467502473</v>
+        <v>0.05716624467502474</v>
       </c>
       <c r="C1608">
         <v>6.115132394829048</v>
@@ -18130,7 +18130,7 @@
         <v>16.13999999999972</v>
       </c>
       <c r="B1616">
-        <v>0.02290827500739383</v>
+        <v>0.02290827500739382</v>
       </c>
       <c r="C1616">
         <v>6.170410438453729</v>
@@ -18152,7 +18152,7 @@
         <v>16.15999999999973</v>
       </c>
       <c r="B1618">
-        <v>0.03811321816004962</v>
+        <v>0.03811321816004963</v>
       </c>
       <c r="C1618">
         <v>6.197873615870114</v>
@@ -18273,7 +18273,7 @@
         <v>16.26999999999974</v>
       </c>
       <c r="B1629">
-        <v>0.02269652023556086</v>
+        <v>0.02269652023556085</v>
       </c>
       <c r="C1629">
         <v>6.295930987652207</v>
@@ -18284,7 +18284,7 @@
         <v>16.27999999999975</v>
       </c>
       <c r="B1630">
-        <v>0.02109543632581213</v>
+        <v>0.02109543632581212</v>
       </c>
       <c r="C1630">
         <v>6.297706530271498</v>
@@ -18295,7 +18295,7 @@
         <v>16.28999999999975</v>
       </c>
       <c r="B1631">
-        <v>0.03876602221668064</v>
+        <v>0.03876602221668065</v>
       </c>
       <c r="C1631">
         <v>6.328473635927257</v>
@@ -18339,7 +18339,7 @@
         <v>16.32999999999975</v>
       </c>
       <c r="B1635">
-        <v>0.03585472186098932</v>
+        <v>0.03585472186098933</v>
       </c>
       <c r="C1635">
         <v>6.365965960277527</v>
@@ -18460,7 +18460,7 @@
         <v>16.43999999999977</v>
       </c>
       <c r="B1646">
-        <v>0.0315366881489877</v>
+        <v>0.03153668814898772</v>
       </c>
       <c r="C1646">
         <v>6.485190711903154</v>
@@ -18471,7 +18471,7 @@
         <v>16.44999999999977</v>
       </c>
       <c r="B1647">
-        <v>0.02871222672699466</v>
+        <v>0.02871222672699465</v>
       </c>
       <c r="C1647">
         <v>6.487453180214059</v>
@@ -18515,7 +18515,7 @@
         <v>16.48999999999978</v>
       </c>
       <c r="B1651">
-        <v>0.0396712218989577</v>
+        <v>0.03967122189895769</v>
       </c>
       <c r="C1651">
         <v>6.565027168970954</v>
@@ -18647,7 +18647,7 @@
         <v>16.6099999999998</v>
       </c>
       <c r="B1663">
-        <v>0.02587004648427046</v>
+        <v>0.02587004648427045</v>
       </c>
       <c r="C1663">
         <v>6.744634238667078</v>
@@ -18713,7 +18713,7 @@
         <v>16.66999999999981</v>
       </c>
       <c r="B1669">
-        <v>0.02477304769369336</v>
+        <v>0.02477304769369335</v>
       </c>
       <c r="C1669">
         <v>6.842050556692593</v>
@@ -18724,7 +18724,7 @@
         <v>16.67999999999981</v>
       </c>
       <c r="B1670">
-        <v>0.01884239907307794</v>
+        <v>0.01884239907307795</v>
       </c>
       <c r="C1670">
         <v>6.845378602589684</v>
@@ -18746,7 +18746,7 @@
         <v>16.69999999999981</v>
       </c>
       <c r="B1672">
-        <v>0.02461202981240557</v>
+        <v>0.02461202981240556</v>
       </c>
       <c r="C1672">
         <v>6.892690097271585</v>
@@ -18801,7 +18801,7 @@
         <v>16.74999999999982</v>
       </c>
       <c r="B1677">
-        <v>0.01499905166486931</v>
+        <v>0.01499905166486932</v>
       </c>
       <c r="C1677">
         <v>6.951155696176002</v>
@@ -18933,7 +18933,7 @@
         <v>16.86999999999984</v>
       </c>
       <c r="B1689">
-        <v>0.001464993836970476</v>
+        <v>0.001464993836970469</v>
       </c>
       <c r="C1689">
         <v>7.172704871444897</v>
@@ -18944,7 +18944,7 @@
         <v>16.87999999999984</v>
       </c>
       <c r="B1690">
-        <v>0.003502514195246814</v>
+        <v>0.003502514195246824</v>
       </c>
       <c r="C1690">
         <v>7.223677453082456</v>
@@ -18955,7 +18955,7 @@
         <v>16.88999999999984</v>
       </c>
       <c r="B1691">
-        <v>-0.001771386948982668</v>
+        <v>-0.001771386948982672</v>
       </c>
       <c r="C1691">
         <v>7.227826786207517</v>
@@ -18966,7 +18966,7 @@
         <v>16.89999999999984</v>
       </c>
       <c r="B1692">
-        <v>-0.003801260087211496</v>
+        <v>-0.003801260087211489</v>
       </c>
       <c r="C1692">
         <v>7.231825612367373</v>
@@ -18977,7 +18977,7 @@
         <v>16.90999999999984</v>
       </c>
       <c r="B1693">
-        <v>-0.004017603030647098</v>
+        <v>-0.004017603030647101</v>
       </c>
       <c r="C1693">
         <v>7.284029083018765</v>
@@ -19065,7 +19065,7 @@
         <v>16.98999999999986</v>
       </c>
       <c r="B1701">
-        <v>0.002469157502619286</v>
+        <v>0.002469157502619283</v>
       </c>
       <c r="C1701">
         <v>7.418008966658419</v>
@@ -19076,7 +19076,7 @@
         <v>16.99999999999986</v>
       </c>
       <c r="B1702">
-        <v>0.004724452840982392</v>
+        <v>0.004724452840982394</v>
       </c>
       <c r="C1702">
         <v>7.474106917837739</v>
@@ -19186,7 +19186,7 @@
         <v>17.09999999999987</v>
       </c>
       <c r="B1712">
-        <v>-0.007702053558836605</v>
+        <v>-0.007702053558836607</v>
       </c>
       <c r="C1712">
         <v>7.67755473120833</v>
@@ -19406,7 +19406,7 @@
         <v>17.2999999999999</v>
       </c>
       <c r="B1732">
-        <v>-0.03461492693486187</v>
+        <v>-0.03461492693486186</v>
       </c>
       <c r="C1732">
         <v>7.912497240521835</v>
@@ -19681,7 +19681,7 @@
         <v>17.54999999999994</v>
       </c>
       <c r="B1757">
-        <v>-0.03694818642317743</v>
+        <v>-0.03694818642317742</v>
       </c>
       <c r="C1757">
         <v>7.965256202536454</v>
@@ -19692,7 +19692,7 @@
         <v>17.55999999999995</v>
       </c>
       <c r="B1758">
-        <v>-0.05146736389626531</v>
+        <v>-0.05146736389626533</v>
       </c>
       <c r="C1758">
         <v>7.966516449269677</v>
@@ -19736,7 +19736,7 @@
         <v>17.59999999999995</v>
       </c>
       <c r="B1762">
-        <v>-0.03330105568775452</v>
+        <v>-0.03330105568775454</v>
       </c>
       <c r="C1762">
         <v>7.971116594875874</v>
@@ -19747,7 +19747,7 @@
         <v>17.60999999999995</v>
       </c>
       <c r="B1763">
-        <v>-0.0488561039457212</v>
+        <v>-0.04885610394572119</v>
       </c>
       <c r="C1763">
         <v>7.972164270133313</v>
@@ -19846,7 +19846,7 @@
         <v>17.69999999999997</v>
       </c>
       <c r="B1772">
-        <v>-0.02522858420020207</v>
+        <v>-0.02522858420020206</v>
       </c>
       <c r="C1772">
         <v>7.980038617990103</v>
@@ -19857,7 +19857,7 @@
         <v>17.70999999999997</v>
       </c>
       <c r="B1773">
-        <v>-0.04776706464582177</v>
+        <v>-0.0477670646458218</v>
       </c>
       <c r="C1773">
         <v>7.980762668563302</v>
@@ -19868,7 +19868,7 @@
         <v>17.71999999999997</v>
       </c>
       <c r="B1774">
-        <v>-0.03447194403210699</v>
+        <v>-0.03447194403210698</v>
       </c>
       <c r="C1774">
         <v>7.981460455963325</v>
@@ -19879,7 +19879,7 @@
         <v>17.72999999999997</v>
       </c>
       <c r="B1775">
-        <v>-0.05812325487029277</v>
+        <v>-0.05812325487029276</v>
       </c>
       <c r="C1775">
         <v>7.982132932822891</v>
@@ -19934,7 +19934,7 @@
         <v>17.77999999999998</v>
       </c>
       <c r="B1780">
-        <v>-0.07008611560823902</v>
+        <v>-0.07008611560823903</v>
       </c>
       <c r="C1780">
         <v>7.98514665127789</v>
@@ -20022,7 +20022,7 @@
         <v>17.85999999999999</v>
       </c>
       <c r="B1788">
-        <v>-0.05331052533264003</v>
+        <v>-0.05331052533264004</v>
       </c>
       <c r="C1788">
         <v>7.988947560436886</v>
@@ -20220,7 +20220,7 @@
         <v>18.04000000000002</v>
       </c>
       <c r="B1806">
-        <v>-0.07899750826905215</v>
+        <v>-0.07899750826905218</v>
       </c>
       <c r="C1806">
         <v>7.994316260899451</v>
@@ -20231,7 +20231,7 @@
         <v>18.05000000000002</v>
       </c>
       <c r="B1807">
-        <v>-0.05497025287889074</v>
+        <v>-0.05497025287889072</v>
       </c>
       <c r="C1807">
         <v>7.994522424708732</v>
@@ -20253,7 +20253,7 @@
         <v>18.07000000000003</v>
       </c>
       <c r="B1809">
-        <v>-0.06203715263433132</v>
+        <v>-0.06203715263433129</v>
       </c>
       <c r="C1809">
         <v>7.994912589304873</v>
@@ -20264,7 +20264,7 @@
         <v>18.08000000000003</v>
       </c>
       <c r="B1810">
-        <v>-0.05192504167346397</v>
+        <v>-0.05192504167346396</v>
       </c>
       <c r="C1810">
         <v>7.995097122751909</v>
@@ -20286,7 +20286,7 @@
         <v>18.10000000000003</v>
       </c>
       <c r="B1812">
-        <v>-0.05226321044249377</v>
+        <v>-0.05226321044249375</v>
       </c>
       <c r="C1812">
         <v>7.995446351930827</v>
@@ -20363,7 +20363,7 @@
         <v>18.17000000000004</v>
       </c>
       <c r="B1819">
-        <v>-0.05456505697109058</v>
+        <v>-0.05456505697109056</v>
       </c>
       <c r="C1819">
         <v>7.996484079772095</v>
@@ -20374,7 +20374,7 @@
         <v>18.18000000000004</v>
       </c>
       <c r="B1820">
-        <v>-0.04419706340908532</v>
+        <v>-0.04419706340908531</v>
       </c>
       <c r="C1820">
         <v>7.996611611225332</v>
@@ -20385,7 +20385,7 @@
         <v>18.19000000000004</v>
       </c>
       <c r="B1821">
-        <v>-0.06891489141602697</v>
+        <v>-0.068914891416027</v>
       </c>
       <c r="C1821">
         <v>7.996734516785343</v>
@@ -20429,7 +20429,7 @@
         <v>18.23000000000005</v>
       </c>
       <c r="B1825">
-        <v>-0.03154845436873312</v>
+        <v>-0.0315484543687331</v>
       </c>
       <c r="C1825">
         <v>7.997183145975927</v>
@@ -20440,7 +20440,7 @@
         <v>18.24000000000005</v>
       </c>
       <c r="B1826">
-        <v>-0.05696231851545881</v>
+        <v>-0.05696231851545882</v>
       </c>
       <c r="C1826">
         <v>7.997285320503209</v>
@@ -20451,7 +20451,7 @@
         <v>18.25000000000005</v>
       </c>
       <c r="B1827">
-        <v>-0.03737223203435887</v>
+        <v>-0.03737223203435889</v>
       </c>
       <c r="C1827">
         <v>7.997383788898069</v>
@@ -20462,7 +20462,7 @@
         <v>18.26000000000005</v>
       </c>
       <c r="B1828">
-        <v>-0.03202165872446183</v>
+        <v>-0.03202165872446184</v>
       </c>
       <c r="C1828">
         <v>7.997478685591445</v>
@@ -20473,7 +20473,7 @@
         <v>18.27000000000006</v>
       </c>
       <c r="B1829">
-        <v>-0.06240301463730892</v>
+        <v>-0.06240301463730891</v>
       </c>
       <c r="C1829">
         <v>7.99757014013812</v>
@@ -20506,7 +20506,7 @@
         <v>18.30000000000006</v>
       </c>
       <c r="B1832">
-        <v>-0.05056303956888573</v>
+        <v>-0.05056303956888576</v>
       </c>
       <c r="C1832">
         <v>7.997825076973045</v>
@@ -20517,7 +20517,7 @@
         <v>18.31000000000006</v>
       </c>
       <c r="B1833">
-        <v>-0.04421623536701091</v>
+        <v>-0.0442162353670109</v>
       </c>
       <c r="C1833">
         <v>7.997903967015005</v>
@@ -20605,7 +20605,7 @@
         <v>18.39000000000008</v>
       </c>
       <c r="B1841">
-        <v>-0.05606348179151614</v>
+        <v>-0.05606348179151611</v>
       </c>
       <c r="C1841">
         <v>7.998440332996797</v>
@@ -20616,7 +20616,7 @@
         <v>18.40000000000008</v>
       </c>
       <c r="B1842">
-        <v>-0.03401969494504276</v>
+        <v>-0.03401969494504277</v>
       </c>
       <c r="C1842">
         <v>7.998496906123202</v>
@@ -20638,7 +20638,7 @@
         <v>18.42000000000008</v>
       </c>
       <c r="B1844">
-        <v>-0.04358789404549103</v>
+        <v>-0.04358789404549106</v>
       </c>
       <c r="C1844">
         <v>7.998603970651614</v>
@@ -20649,7 +20649,7 @@
         <v>18.43000000000008</v>
       </c>
       <c r="B1845">
-        <v>-0.0202213670123885</v>
+        <v>-0.02022136701238852</v>
       </c>
       <c r="C1845">
         <v>7.998654608220165</v>
@@ -20660,7 +20660,7 @@
         <v>18.44000000000008</v>
       </c>
       <c r="B1846">
-        <v>-0.03938908335396161</v>
+        <v>-0.03938908335396159</v>
       </c>
       <c r="C1846">
         <v>7.998703409034101</v>
@@ -20726,7 +20726,7 @@
         <v>18.50000000000009</v>
       </c>
       <c r="B1852">
-        <v>-0.02842781378278878</v>
+        <v>-0.02842781378278875</v>
       </c>
       <c r="C1852">
         <v>7.998961208661425</v>
@@ -20737,7 +20737,7 @@
         <v>18.51000000000009</v>
       </c>
       <c r="B1853">
-        <v>-0.02202057093552954</v>
+        <v>-0.02202057093552953</v>
       </c>
       <c r="C1853">
         <v>7.998998888290208</v>
@@ -20748,7 +20748,7 @@
         <v>18.5200000000001</v>
       </c>
       <c r="B1854">
-        <v>-0.04302882952093849</v>
+        <v>-0.0430288295209385</v>
       </c>
       <c r="C1854">
         <v>7.999035201182118</v>
@@ -20759,7 +20759,7 @@
         <v>18.5300000000001</v>
       </c>
       <c r="B1855">
-        <v>-0.02370849759302996</v>
+        <v>-0.02370849759302994</v>
       </c>
       <c r="C1855">
         <v>7.999070196912212</v>
@@ -20770,7 +20770,7 @@
         <v>18.5400000000001</v>
       </c>
       <c r="B1856">
-        <v>-0.04278192800867908</v>
+        <v>-0.0427819280086791</v>
       </c>
       <c r="C1856">
         <v>7.999103923257328</v>
@@ -20781,7 +20781,7 @@
         <v>18.5500000000001</v>
       </c>
       <c r="B1857">
-        <v>-0.02781208598574125</v>
+        <v>-0.02781208598574127</v>
       </c>
       <c r="C1857">
         <v>7.99913642626132</v>
@@ -20792,7 +20792,7 @@
         <v>18.5600000000001</v>
       </c>
       <c r="B1858">
-        <v>-0.02299978152852379</v>
+        <v>-0.02299978152852377</v>
       </c>
       <c r="C1858">
         <v>7.999167750297912</v>
@@ -20814,7 +20814,7 @@
         <v>18.5800000000001</v>
       </c>
       <c r="B1860">
-        <v>-0.02996283071520767</v>
+        <v>-0.02996283071520764</v>
       </c>
       <c r="C1860">
         <v>7.999227030974422</v>
@@ -20825,7 +20825,7 @@
         <v>18.59000000000011</v>
       </c>
       <c r="B1861">
-        <v>-0.05159186591619056</v>
+        <v>-0.05159186591619055</v>
       </c>
       <c r="C1861">
         <v>7.999255068545456</v>
@@ -20836,7 +20836,7 @@
         <v>18.60000000000011</v>
       </c>
       <c r="B1862">
-        <v>-0.03741390689702249</v>
+        <v>-0.03741390689702251</v>
       </c>
       <c r="C1862">
         <v>7.999282089121807</v>
@@ -20935,7 +20935,7 @@
         <v>18.69000000000012</v>
       </c>
       <c r="B1871">
-        <v>-0.02134842155411924</v>
+        <v>-0.02134842155411926</v>
       </c>
       <c r="C1871">
         <v>7.999485176305514</v>
@@ -20946,7 +20946,7 @@
         <v>18.70000000000012</v>
       </c>
       <c r="B1872">
-        <v>-0.03746663221895642</v>
+        <v>-0.03746663221895641</v>
       </c>
       <c r="C1872">
         <v>7.999503850282642</v>
@@ -20957,7 +20957,7 @@
         <v>18.71000000000013</v>
       </c>
       <c r="B1873">
-        <v>-0.01790689941487142</v>
+        <v>-0.01790689941487139</v>
       </c>
       <c r="C1873">
         <v>7.999521846906677</v>
@@ -20968,7 +20968,7 @@
         <v>18.72000000000013</v>
       </c>
       <c r="B1874">
-        <v>-0.03249605829618914</v>
+        <v>-0.03249605829618918</v>
       </c>
       <c r="C1874">
         <v>7.999539190746955</v>
@@ -20979,7 +20979,7 @@
         <v>18.73000000000013</v>
       </c>
       <c r="B1875">
-        <v>-0.01735887014449003</v>
+        <v>-0.01735887014449002</v>
       </c>
       <c r="C1875">
         <v>7.999555905481618</v>
@@ -20990,7 +20990,7 @@
         <v>18.74000000000013</v>
       </c>
       <c r="B1876">
-        <v>-0.01123451856092037</v>
+        <v>-0.0112345185609204</v>
       </c>
       <c r="C1876">
         <v>7.999572013929941</v>
@@ -21001,7 +21001,7 @@
         <v>18.75000000000013</v>
       </c>
       <c r="B1877">
-        <v>-0.02926403926526302</v>
+        <v>-0.029264039265263</v>
       </c>
       <c r="C1877">
         <v>7.99958753808349</v>
@@ -21078,7 +21078,7 @@
         <v>18.82000000000014</v>
       </c>
       <c r="B1884">
-        <v>-0.03705696873992524</v>
+        <v>-0.03705696873992523</v>
       </c>
       <c r="C1884">
         <v>7.999681533756348</v>
@@ -21122,7 +21122,7 @@
         <v>18.86000000000015</v>
       </c>
       <c r="B1888">
-        <v>-0.0293249809636785</v>
+        <v>-0.02932498096367848</v>
       </c>
       <c r="C1888">
         <v>7.999725286317219</v>
@@ -21133,7 +21133,7 @@
         <v>18.87000000000015</v>
       </c>
       <c r="B1889">
-        <v>-0.04669888071990639</v>
+        <v>-0.0466988807199064</v>
       </c>
       <c r="C1889">
         <v>7.999735250887777</v>
@@ -21144,7 +21144,7 @@
         <v>18.88000000000015</v>
       </c>
       <c r="B1890">
-        <v>-0.03519428829837548</v>
+        <v>-0.0351942882983755</v>
       </c>
       <c r="C1890">
         <v>7.999744854017779</v>
@@ -21155,7 +21155,7 @@
         <v>18.89000000000015</v>
       </c>
       <c r="B1891">
-        <v>-0.02965288035216728</v>
+        <v>-0.02965288035216727</v>
       </c>
       <c r="C1891">
         <v>7.999754108817601</v>
@@ -21221,7 +21221,7 @@
         <v>18.95000000000016</v>
       </c>
       <c r="B1897">
-        <v>-0.03806951453956066</v>
+        <v>-0.03806951453956064</v>
       </c>
       <c r="C1897">
         <v>7.99980299906661</v>
@@ -21232,7 +21232,7 @@
         <v>18.96000000000016</v>
       </c>
       <c r="B1898">
-        <v>-0.02564512654705228</v>
+        <v>-0.02564512654705229</v>
       </c>
       <c r="C1898">
         <v>7.999810144796232</v>
@@ -21287,7 +21287,7 @@
         <v>19.01000000000017</v>
       </c>
       <c r="B1903">
-        <v>-0.01751403670418512</v>
+        <v>-0.01751403670418513</v>
       </c>
       <c r="C1903">
         <v>7.99984216852602</v>
@@ -21342,7 +21342,7 @@
         <v>19.06000000000018</v>
       </c>
       <c r="B1908">
-        <v>-0.009813350776092557</v>
+        <v>-0.009813350776092569</v>
       </c>
       <c r="C1908">
         <v>7.999868790669497</v>
@@ -21364,7 +21364,7 @@
         <v>19.08000000000018</v>
       </c>
       <c r="B1910">
-        <v>-0.01055586426746853</v>
+        <v>-0.01055586426746851</v>
       </c>
       <c r="C1910">
         <v>7.999878136636047</v>
@@ -21375,7 +21375,7 @@
         <v>19.09000000000018</v>
       </c>
       <c r="B1911">
-        <v>-0.007665700102929557</v>
+        <v>-0.007665700102929563</v>
       </c>
       <c r="C1911">
         <v>7.999882556933122</v>
@@ -21408,7 +21408,7 @@
         <v>19.12000000000019</v>
       </c>
       <c r="B1914">
-        <v>-0.01932102297173729</v>
+        <v>-0.01932102297173731</v>
       </c>
       <c r="C1914">
         <v>7.99989487886338</v>
@@ -21419,7 +21419,7 @@
         <v>19.13000000000019</v>
       </c>
       <c r="B1915">
-        <v>-0.01074799659964903</v>
+        <v>-0.01074799659964902</v>
       </c>
       <c r="C1915">
         <v>7.999898691876887</v>
@@ -21452,7 +21452,7 @@
         <v>19.1600000000002</v>
       </c>
       <c r="B1918">
-        <v>-0.008760710998443975</v>
+        <v>-0.008760710998443989</v>
       </c>
       <c r="C1918">
         <v>7.999909320955816</v>
@@ -21463,7 +21463,7 @@
         <v>19.1700000000002</v>
       </c>
       <c r="B1919">
-        <v>-0.01939902116139058</v>
+        <v>-0.01939902116139057</v>
       </c>
       <c r="C1919">
         <v>7.999912610117553</v>
@@ -21628,7 +21628,7 @@
         <v>19.32000000000022</v>
       </c>
       <c r="B1934">
-        <v>-0.009941927582148655</v>
+        <v>-0.009941927582148669</v>
       </c>
       <c r="C1934">
         <v>7.999949791820276</v>
@@ -21639,7 +21639,7 @@
         <v>19.33000000000022</v>
       </c>
       <c r="B1935">
-        <v>-0.002947178966690475</v>
+        <v>-0.002947178966690469</v>
       </c>
       <c r="C1935">
         <v>7.999951612999856</v>
@@ -21650,7 +21650,7 @@
         <v>19.34000000000022</v>
       </c>
       <c r="B1936">
-        <v>0.0009355252154730539</v>
+        <v>0.0009355252154730591</v>
       </c>
       <c r="C1936">
         <v>7.999953368120578</v>
@@ -21661,7 +21661,7 @@
         <v>19.35000000000023</v>
       </c>
       <c r="B1937">
-        <v>-0.006116783447897905</v>
+        <v>-0.006116783447897909</v>
       </c>
       <c r="C1937">
         <v>7.999955059578564</v>
@@ -21683,7 +21683,7 @@
         <v>19.37000000000023</v>
       </c>
       <c r="B1939">
-        <v>-0.00422219537914207</v>
+        <v>-0.004222195379142077</v>
       </c>
       <c r="C1939">
         <v>7.999958260659416</v>
@@ -21694,7 +21694,7 @@
         <v>19.38000000000023</v>
       </c>
       <c r="B1940">
-        <v>-0.0002678509374746344</v>
+        <v>-0.000267850937474624</v>
       </c>
       <c r="C1940">
         <v>7.999959774652458</v>
@@ -21705,7 +21705,7 @@
         <v>19.39000000000023</v>
       </c>
       <c r="B1941">
-        <v>0.0001619317200678063</v>
+        <v>0.0001619317200678028</v>
       </c>
       <c r="C1941">
         <v>7.999961233729086</v>
@@ -21727,7 +21727,7 @@
         <v>19.41000000000023</v>
       </c>
       <c r="B1943">
-        <v>-0.006467841583985725</v>
+        <v>-0.006467841583985735</v>
       </c>
       <c r="C1943">
         <v>7.999963995028681</v>
@@ -21749,7 +21749,7 @@
         <v>19.43000000000024</v>
       </c>
       <c r="B1945">
-        <v>-0.008817864056107644</v>
+        <v>-0.008817864056107651</v>
       </c>
       <c r="C1945">
         <v>7.999966559642465</v>
@@ -21760,7 +21760,7 @@
         <v>19.44000000000024</v>
       </c>
       <c r="B1946">
-        <v>-0.006670913069009958</v>
+        <v>-0.006670913069009955</v>
       </c>
       <c r="C1946">
         <v>7.999967772610085</v>
@@ -21782,7 +21782,7 @@
         <v>19.46000000000024</v>
       </c>
       <c r="B1948">
-        <v>-0.006828937292587083</v>
+        <v>-0.00682893729258709</v>
       </c>
       <c r="C1948">
         <v>7.999970068148878</v>
@@ -21804,7 +21804,7 @@
         <v>19.48000000000025</v>
       </c>
       <c r="B1950">
-        <v>-0.005725386215869534</v>
+        <v>-0.005725386215869528</v>
       </c>
       <c r="C1950">
         <v>7.999972200177738</v>
@@ -21815,7 +21815,7 @@
         <v>19.49000000000025</v>
       </c>
       <c r="B1951">
-        <v>-0.003658865104596298</v>
+        <v>-0.003658865104596302</v>
       </c>
       <c r="C1951">
         <v>7.999973208548663</v>
@@ -21870,7 +21870,7 @@
         <v>19.54000000000025</v>
       </c>
       <c r="B1956">
-        <v>0.006051895066891776</v>
+        <v>0.006051895066891783</v>
       </c>
       <c r="C1956">
         <v>7.999977727583071</v>
@@ -21881,7 +21881,7 @@
         <v>19.55000000000026</v>
       </c>
       <c r="B1957">
-        <v>0.003390195179895387</v>
+        <v>0.003390195179895384</v>
       </c>
       <c r="C1957">
         <v>7.999978535460813</v>
@@ -22079,7 +22079,7 @@
         <v>19.73000000000028</v>
       </c>
       <c r="B1975">
-        <v>-0.007665866649370967</v>
+        <v>-0.007665866649370964</v>
       </c>
       <c r="C1975">
         <v>7.99998896181789</v>
@@ -22090,7 +22090,7 @@
         <v>19.74000000000029</v>
       </c>
       <c r="B1976">
-        <v>-0.004643978934173139</v>
+        <v>-0.004643978934173141</v>
       </c>
       <c r="C1976">
         <v>7.999989362201094</v>
@@ -22244,7 +22244,7 @@
         <v>19.88000000000031</v>
       </c>
       <c r="B1990">
-        <v>0.001913911122543315</v>
+        <v>0.001913911122543314</v>
       </c>
       <c r="C1990">
         <v>7.99999365822432</v>
@@ -22255,7 +22255,7 @@
         <v>19.89000000000031</v>
       </c>
       <c r="B1991">
-        <v>-6.932309543313843E-05</v>
+        <v>-6.932309543313756E-05</v>
       </c>
       <c r="C1991">
         <v>7.999993888256805</v>
@@ -22277,7 +22277,7 @@
         <v>19.91000000000031</v>
       </c>
       <c r="B1993">
-        <v>-0.004443313330838486</v>
+        <v>-0.004443313330838488</v>
       </c>
       <c r="C1993">
         <v>7.999994323592823</v>
@@ -22332,7 +22332,7 @@
         <v>19.96000000000032</v>
       </c>
       <c r="B1998">
-        <v>-0.005112001922903649</v>
+        <v>-0.005112001922903646</v>
       </c>
       <c r="C1998">
         <v>7.999995281057912</v>
@@ -22343,7 +22343,7 @@
         <v>19.97000000000032</v>
       </c>
       <c r="B1999">
-        <v>-0.0006536360669854194</v>
+        <v>-0.0006536360669854185</v>
       </c>
       <c r="C1999">
         <v>7.999995452226057</v>
@@ -22354,7 +22354,7 @@
         <v>19.98000000000032</v>
       </c>
       <c r="B2000">
-        <v>0.0008466116098692672</v>
+        <v>0.0008466116098692664</v>
       </c>
       <c r="C2000">
         <v>7.999995617185494</v>
@@ -22365,7 +22365,7 @@
         <v>19.99000000000033</v>
       </c>
       <c r="B2001">
-        <v>0.002792894707646076</v>
+        <v>0.002792894707646075</v>
       </c>
       <c r="C2001">
         <v>7.999995776161428</v>
@@ -22486,7 +22486,7 @@
         <v>20.10000000000034</v>
       </c>
       <c r="B2012">
-        <v>0.02018949589249999</v>
+        <v>0.0201894958925</v>
       </c>
       <c r="C2012">
         <v>7.999997186779669</v>
@@ -22651,7 +22651,7 @@
         <v>20.25000000000037</v>
       </c>
       <c r="B2027">
-        <v>0.01822759032820796</v>
+        <v>0.01822759032820797</v>
       </c>
       <c r="C2027">
         <v>7.999998383718252</v>
@@ -22662,7 +22662,7 @@
         <v>20.26000000000037</v>
       </c>
       <c r="B2028">
-        <v>0.01135812362506444</v>
+        <v>0.01135812362506445</v>
       </c>
       <c r="C2028">
         <v>7.99999844234494</v>
@@ -22673,7 +22673,7 @@
         <v>20.27000000000037</v>
       </c>
       <c r="B2029">
-        <v>0.01961564005579784</v>
+        <v>0.01961564005579783</v>
       </c>
       <c r="C2029">
         <v>7.999998498845088</v>
@@ -22728,7 +22728,7 @@
         <v>20.32000000000038</v>
       </c>
       <c r="B2034">
-        <v>0.02136509462574135</v>
+        <v>0.02136509462574134</v>
       </c>
       <c r="C2034">
         <v>7.999998752051628</v>
@@ -22783,7 +22783,7 @@
         <v>20.37000000000038</v>
       </c>
       <c r="B2039">
-        <v>0.02623032186613873</v>
+        <v>0.02623032186613874</v>
       </c>
       <c r="C2039">
         <v>7.999998962548684</v>
@@ -22948,7 +22948,7 @@
         <v>20.52000000000041</v>
       </c>
       <c r="B2054">
-        <v>0.03544994385314967</v>
+        <v>0.03544994385314966</v>
       </c>
       <c r="C2054">
         <v>7.999999403952258</v>
@@ -22959,7 +22959,7 @@
         <v>20.53000000000041</v>
       </c>
       <c r="B2055">
-        <v>0.02589990718336124</v>
+        <v>0.02589990718336126</v>
       </c>
       <c r="C2055">
         <v>7.99999942557244</v>
@@ -23003,7 +23003,7 @@
         <v>20.57000000000042</v>
       </c>
       <c r="B2059">
-        <v>0.0387363842751772</v>
+        <v>0.03873638427517719</v>
       </c>
       <c r="C2059">
         <v>7.999999504490307</v>
@@ -23014,7 +23014,7 @@
         <v>20.58000000000042</v>
       </c>
       <c r="B2060">
-        <v>0.02867995336880986</v>
+        <v>0.02867995336880987</v>
       </c>
       <c r="C2060">
         <v>7.999999522463716</v>
@@ -23025,7 +23025,7 @@
         <v>20.59000000000042</v>
       </c>
       <c r="B2061">
-        <v>0.02303780062697659</v>
+        <v>0.02303780062697658</v>
       </c>
       <c r="C2061">
         <v>7.999999539785183</v>
@@ -23190,7 +23190,7 @@
         <v>20.74000000000044</v>
       </c>
       <c r="B2076">
-        <v>0.01962036138901399</v>
+        <v>0.01962036138901398</v>
       </c>
       <c r="C2076">
         <v>7.99999973559241</v>
@@ -23201,7 +23201,7 @@
         <v>20.75000000000044</v>
       </c>
       <c r="B2077">
-        <v>0.03911810999453361</v>
+        <v>0.03911810999453362</v>
       </c>
       <c r="C2077">
         <v>7.999999745183151</v>
@@ -23212,7 +23212,7 @@
         <v>20.76000000000045</v>
       </c>
       <c r="B2078">
-        <v>0.02649798213990382</v>
+        <v>0.02649798213990383</v>
       </c>
       <c r="C2078">
         <v>7.999999754426013</v>
@@ -23399,7 +23399,7 @@
         <v>20.93000000000047</v>
       </c>
       <c r="B2095">
-        <v>0.04190076627682669</v>
+        <v>0.04190076627682671</v>
       </c>
       <c r="C2095">
         <v>7.999999868959927</v>
@@ -23421,7 +23421,7 @@
         <v>20.95000000000048</v>
       </c>
       <c r="B2097">
-        <v>0.05817382450264588</v>
+        <v>0.05817382450264587</v>
       </c>
       <c r="C2097">
         <v>7.999999878293838</v>
@@ -23432,7 +23432,7 @@
         <v>20.96000000000048</v>
       </c>
       <c r="B2098">
-        <v>0.03886474473447506</v>
+        <v>0.03886474473447507</v>
       </c>
       <c r="C2098">
         <v>7.999999882708432</v>
@@ -23465,7 +23465,7 @@
         <v>20.99000000000048</v>
       </c>
       <c r="B2101">
-        <v>0.03499100354212373</v>
+        <v>0.03499100354212374</v>
       </c>
       <c r="C2101">
         <v>7.999999895014468</v>
@@ -23498,7 +23498,7 @@
         <v>21.02000000000049</v>
       </c>
       <c r="B2104">
-        <v>0.06578899564375484</v>
+        <v>0.06578899564375486</v>
       </c>
       <c r="C2104">
         <v>7.999999906029374</v>
@@ -23509,7 +23509,7 @@
         <v>21.03000000000049</v>
       </c>
       <c r="B2105">
-        <v>0.04503417668944374</v>
+        <v>0.04503417668944373</v>
       </c>
       <c r="C2105">
         <v>7.99999990943793</v>
@@ -23542,7 +23542,7 @@
         <v>21.06000000000049</v>
       </c>
       <c r="B2108">
-        <v>0.04080701487461977</v>
+        <v>0.04080701487461974</v>
       </c>
       <c r="C2108">
         <v>7.999999918939551</v>
@@ -23553,7 +23553,7 @@
         <v>21.07000000000049</v>
       </c>
       <c r="B2109">
-        <v>0.03139034714191601</v>
+        <v>0.03139034714191602</v>
       </c>
       <c r="C2109">
         <v>7.999999921879821</v>
@@ -23674,7 +23674,7 @@
         <v>21.18000000000051</v>
       </c>
       <c r="B2120">
-        <v>0.08331016124340118</v>
+        <v>0.08331016124340121</v>
       </c>
       <c r="C2120">
         <v>7.939079775819812</v>
@@ -23685,7 +23685,7 @@
         <v>21.19000000000051</v>
       </c>
       <c r="B2121">
-        <v>0.05752468915369106</v>
+        <v>0.05752468915369105</v>
       </c>
       <c r="C2121">
         <v>7.93696323149662</v>
@@ -23696,7 +23696,7 @@
         <v>21.20000000000051</v>
       </c>
       <c r="B2122">
-        <v>0.09203149044051055</v>
+        <v>0.09203149044051052</v>
       </c>
       <c r="C2122">
         <v>7.90616005756316</v>
@@ -23707,7 +23707,7 @@
         <v>21.21000000000052</v>
       </c>
       <c r="B2123">
-        <v>0.06628497597439392</v>
+        <v>0.06628497597439395</v>
       </c>
       <c r="C2123">
         <v>7.903305238562172</v>
@@ -23718,7 +23718,7 @@
         <v>21.22000000000052</v>
       </c>
       <c r="B2124">
-        <v>0.0549279563419894</v>
+        <v>0.05492795634198942</v>
       </c>
       <c r="C2124">
         <v>7.900864626019039</v>
@@ -23729,7 +23729,7 @@
         <v>21.23000000000052</v>
       </c>
       <c r="B2125">
-        <v>0.08788410738834346</v>
+        <v>0.08788410738834343</v>
       </c>
       <c r="C2125">
         <v>7.869923466923191</v>
@@ -23828,7 +23828,7 @@
         <v>21.32000000000053</v>
       </c>
       <c r="B2134">
-        <v>0.04605711088776554</v>
+        <v>0.04605711088776551</v>
       </c>
       <c r="C2134">
         <v>7.755642203534057</v>
@@ -23850,7 +23850,7 @@
         <v>21.34000000000054</v>
       </c>
       <c r="B2136">
-        <v>0.04577765674027669</v>
+        <v>0.04577765674027672</v>
       </c>
       <c r="C2136">
         <v>7.720845548449432</v>
@@ -23861,7 +23861,7 @@
         <v>21.35000000000054</v>
       </c>
       <c r="B2137">
-        <v>0.03161150325164112</v>
+        <v>0.0316115032516411</v>
       </c>
       <c r="C2137">
         <v>7.717699244419595</v>
@@ -23872,7 +23872,7 @@
         <v>21.36000000000054</v>
       </c>
       <c r="B2138">
-        <v>0.07055772049424099</v>
+        <v>0.07055772049424096</v>
       </c>
       <c r="C2138">
         <v>7.686840185575859</v>
@@ -23883,7 +23883,7 @@
         <v>21.37000000000054</v>
       </c>
       <c r="B2139">
-        <v>0.03579977754149323</v>
+        <v>0.03579977754149324</v>
       </c>
       <c r="C2139">
         <v>7.683269936901269</v>
@@ -23949,7 +23949,7 @@
         <v>21.43000000000055</v>
       </c>
       <c r="B2145">
-        <v>0.03198408134032307</v>
+        <v>0.03198408134032309</v>
       </c>
       <c r="C2145">
         <v>7.607442000312976</v>
@@ -23960,7 +23960,7 @@
         <v>21.44000000000055</v>
       </c>
       <c r="B2146">
-        <v>0.07719809092699141</v>
+        <v>0.0771980909269914</v>
       </c>
       <c r="C2146">
         <v>7.576987083113581</v>
@@ -23971,7 +23971,7 @@
         <v>21.45000000000055</v>
       </c>
       <c r="B2147">
-        <v>0.04164525757159267</v>
+        <v>0.04164525757159264</v>
       </c>
       <c r="C2147">
         <v>7.573435740058343</v>
@@ -23982,7 +23982,7 @@
         <v>21.46000000000056</v>
       </c>
       <c r="B2148">
-        <v>0.08660732865477964</v>
+        <v>0.08660732865477966</v>
       </c>
       <c r="C2148">
         <v>7.542766907761963</v>
@@ -24004,7 +24004,7 @@
         <v>21.48000000000056</v>
       </c>
       <c r="B2150">
-        <v>0.04390825622935358</v>
+        <v>0.04390825622935356</v>
       </c>
       <c r="C2150">
         <v>7.535640198941906</v>
@@ -24015,7 +24015,7 @@
         <v>21.49000000000056</v>
       </c>
       <c r="B2151">
-        <v>0.09221751761270927</v>
+        <v>0.09221751761270928</v>
       </c>
       <c r="C2151">
         <v>7.505331961826513</v>
@@ -24026,7 +24026,7 @@
         <v>21.50000000000056</v>
       </c>
       <c r="B2152">
-        <v>0.05746494959349075</v>
+        <v>0.05746494959349078</v>
       </c>
       <c r="C2152">
         <v>7.501690796474055</v>
@@ -24037,7 +24037,7 @@
         <v>21.51000000000056</v>
       </c>
       <c r="B2153">
-        <v>0.04831822258159042</v>
+        <v>0.04831822258159041</v>
       </c>
       <c r="C2153">
         <v>7.498577928783402</v>
@@ -24048,7 +24048,7 @@
         <v>21.52000000000056</v>
       </c>
       <c r="B2154">
-        <v>0.09798665353238589</v>
+        <v>0.09798665353238586</v>
       </c>
       <c r="C2154">
         <v>7.468548426509989</v>
@@ -24059,7 +24059,7 @@
         <v>21.53000000000057</v>
       </c>
       <c r="B2155">
-        <v>0.05907550610053297</v>
+        <v>0.05907550610053296</v>
       </c>
       <c r="C2155">
         <v>7.465038747083717</v>
@@ -24070,7 +24070,7 @@
         <v>21.54000000000057</v>
       </c>
       <c r="B2156">
-        <v>0.1062137236420215</v>
+        <v>0.1062137236420214</v>
       </c>
       <c r="C2156">
         <v>7.434801213359342</v>
@@ -24114,7 +24114,7 @@
         <v>21.58000000000057</v>
       </c>
       <c r="B2160">
-        <v>0.07590512099626304</v>
+        <v>0.07590512099626301</v>
       </c>
       <c r="C2160">
         <v>7.394291709479938</v>
@@ -24125,7 +24125,7 @@
         <v>21.59000000000058</v>
       </c>
       <c r="B2161">
-        <v>0.06252618837848258</v>
+        <v>0.06252618837848259</v>
       </c>
       <c r="C2161">
         <v>7.391219827903355</v>
@@ -24147,7 +24147,7 @@
         <v>21.61000000000058</v>
       </c>
       <c r="B2163">
-        <v>0.07276853925162265</v>
+        <v>0.07276853925162267</v>
       </c>
       <c r="C2163">
         <v>7.358155183919023</v>
@@ -24169,7 +24169,7 @@
         <v>21.63000000000058</v>
       </c>
       <c r="B2165">
-        <v>0.1158475693835272</v>
+        <v>0.1158475693835273</v>
       </c>
       <c r="C2165">
         <v>7.32581817448659</v>
@@ -24180,7 +24180,7 @@
         <v>21.64000000000058</v>
       </c>
       <c r="B2166">
-        <v>0.07464027489722551</v>
+        <v>0.07464027489722549</v>
       </c>
       <c r="C2166">
         <v>7.322443929865836</v>
@@ -24213,7 +24213,7 @@
         <v>21.67000000000059</v>
       </c>
       <c r="B2169">
-        <v>0.07041440857466602</v>
+        <v>0.07041440857466601</v>
       </c>
       <c r="C2169">
         <v>7.286030883422759</v>
@@ -24224,7 +24224,7 @@
         <v>21.68000000000059</v>
       </c>
       <c r="B2170">
-        <v>0.1238303669340731</v>
+        <v>0.1238303669340732</v>
       </c>
       <c r="C2170">
         <v>7.256757529666781</v>
@@ -24235,7 +24235,7 @@
         <v>21.69000000000059</v>
       </c>
       <c r="B2171">
-        <v>0.07978466190081712</v>
+        <v>0.07978466190081715</v>
       </c>
       <c r="C2171">
         <v>7.253264070874605</v>
@@ -24246,7 +24246,7 @@
         <v>21.70000000000059</v>
       </c>
       <c r="B2172">
-        <v>0.0653791505683389</v>
+        <v>0.06537915056833893</v>
       </c>
       <c r="C2172">
         <v>7.250277478959616</v>
@@ -24312,7 +24312,7 @@
         <v>21.7600000000006</v>
       </c>
       <c r="B2178">
-        <v>0.03253660667311907</v>
+        <v>0.0325366066731191</v>
       </c>
       <c r="C2178">
         <v>7.18007800834872</v>
@@ -24323,7 +24323,7 @@
         <v>21.7700000000006</v>
       </c>
       <c r="B2179">
-        <v>0.0829309145510074</v>
+        <v>0.08293091455100741</v>
       </c>
       <c r="C2179">
         <v>7.151458468343074</v>
@@ -24334,7 +24334,7 @@
         <v>21.78000000000061</v>
       </c>
       <c r="B2180">
-        <v>0.03964317653660829</v>
+        <v>0.03964317653660827</v>
       </c>
       <c r="C2180">
         <v>7.148215647379679</v>
@@ -24345,7 +24345,7 @@
         <v>21.79000000000061</v>
       </c>
       <c r="B2181">
-        <v>0.02758453920684584</v>
+        <v>0.02758453920684587</v>
       </c>
       <c r="C2181">
         <v>7.145443328183379</v>
@@ -24356,7 +24356,7 @@
         <v>21.80000000000061</v>
       </c>
       <c r="B2182">
-        <v>0.0762392518012262</v>
+        <v>0.07623925180122619</v>
       </c>
       <c r="C2182">
         <v>7.116989646164371</v>
@@ -24367,7 +24367,7 @@
         <v>21.81000000000061</v>
       </c>
       <c r="B2183">
-        <v>0.03229255175458319</v>
+        <v>0.03229255175458316</v>
       </c>
       <c r="C2183">
         <v>7.113786815297129</v>
@@ -24378,7 +24378,7 @@
         <v>21.82000000000061</v>
       </c>
       <c r="B2184">
-        <v>0.07598837934563005</v>
+        <v>0.07598837934563006</v>
       </c>
       <c r="C2184">
         <v>7.085090112501384</v>
@@ -24422,7 +24422,7 @@
         <v>21.86000000000062</v>
       </c>
       <c r="B2188">
-        <v>0.03322106083199704</v>
+        <v>0.03322106083199707</v>
       </c>
       <c r="C2188">
         <v>7.046815604290903</v>
@@ -24433,7 +24433,7 @@
         <v>21.87000000000062</v>
       </c>
       <c r="B2189">
-        <v>0.02289487808614056</v>
+        <v>0.02289487808614053</v>
       </c>
       <c r="C2189">
         <v>7.043943396695905</v>
@@ -24455,7 +24455,7 @@
         <v>21.89000000000062</v>
       </c>
       <c r="B2191">
-        <v>0.03768185136968612</v>
+        <v>0.03768185136968615</v>
       </c>
       <c r="C2191">
         <v>7.012518891701092</v>
@@ -24466,7 +24466,7 @@
         <v>21.90000000000062</v>
       </c>
       <c r="B2192">
-        <v>0.02758411243171209</v>
+        <v>0.02758411243171208</v>
       </c>
       <c r="C2192">
         <v>7.009732753480542</v>
@@ -24532,7 +24532,7 @@
         <v>21.96000000000063</v>
       </c>
       <c r="B2198">
-        <v>0.03732055580673043</v>
+        <v>0.03732055580673041</v>
       </c>
       <c r="C2198">
         <v>6.942221487814936</v>
@@ -24543,7 +24543,7 @@
         <v>21.97000000000063</v>
       </c>
       <c r="B2199">
-        <v>0.08210721623900416</v>
+        <v>0.08210721623900417</v>
       </c>
       <c r="C2199">
         <v>6.914582966744733</v>
@@ -24785,7 +24785,7 @@
         <v>22.19000000000067</v>
       </c>
       <c r="B2221">
-        <v>0.02308273002215372</v>
+        <v>0.02308273002215375</v>
       </c>
       <c r="C2221">
         <v>6.682552351709473</v>
@@ -24796,7 +24796,7 @@
         <v>22.20000000000067</v>
       </c>
       <c r="B2222">
-        <v>0.01830393503825353</v>
+        <v>0.01830393503825352</v>
       </c>
       <c r="C2222">
         <v>6.680012118279845</v>
@@ -24917,7 +24917,7 @@
         <v>22.31000000000069</v>
       </c>
       <c r="B2233">
-        <v>0.04696552260853824</v>
+        <v>0.04696552260853822</v>
       </c>
       <c r="C2233">
         <v>6.555259840038024</v>
@@ -24928,7 +24928,7 @@
         <v>22.32000000000069</v>
       </c>
       <c r="B2234">
-        <v>0.0394420340811403</v>
+        <v>0.03944203408114032</v>
       </c>
       <c r="C2234">
         <v>6.552768909975341</v>
@@ -24950,7 +24950,7 @@
         <v>22.34000000000069</v>
       </c>
       <c r="B2236">
-        <v>0.04610572332352179</v>
+        <v>0.04610572332352176</v>
       </c>
       <c r="C2236">
         <v>6.523704073910936</v>
@@ -24961,7 +24961,7 @@
         <v>22.35000000000069</v>
       </c>
       <c r="B2237">
-        <v>0.03879638947425941</v>
+        <v>0.03879638947425942</v>
       </c>
       <c r="C2237">
         <v>6.521220930281087</v>
@@ -25335,7 +25335,7 @@
         <v>22.69000000000075</v>
       </c>
       <c r="B2271">
-        <v>0.03362909617258666</v>
+        <v>0.03362909617258667</v>
       </c>
       <c r="C2271">
         <v>6.404733715768231</v>
@@ -25346,7 +25346,7 @@
         <v>22.70000000000075</v>
       </c>
       <c r="B2272">
-        <v>0.05420606561113381</v>
+        <v>0.05420606561113379</v>
       </c>
       <c r="C2272">
         <v>6.413245896315897</v>
@@ -25368,7 +25368,7 @@
         <v>22.72000000000075</v>
       </c>
       <c r="B2274">
-        <v>0.02758700784007546</v>
+        <v>0.02758700784007544</v>
       </c>
       <c r="C2274">
         <v>6.413587904713072</v>
@@ -25379,7 +25379,7 @@
         <v>22.73000000000075</v>
       </c>
       <c r="B2275">
-        <v>0.04796896807750172</v>
+        <v>0.04796896807750173</v>
       </c>
       <c r="C2275">
         <v>6.423690023734001</v>
@@ -25467,7 +25467,7 @@
         <v>22.81000000000077</v>
       </c>
       <c r="B2283">
-        <v>0.02454522563973857</v>
+        <v>0.02454522563973856</v>
       </c>
       <c r="C2283">
         <v>6.448649474286956</v>
@@ -25478,7 +25478,7 @@
         <v>22.82000000000077</v>
       </c>
       <c r="B2284">
-        <v>0.02150012652004995</v>
+        <v>0.02150012652004997</v>
       </c>
       <c r="C2284">
         <v>6.449074843616858</v>
@@ -25489,7 +25489,7 @@
         <v>22.83000000000077</v>
       </c>
       <c r="B2285">
-        <v>0.04535618077469385</v>
+        <v>0.04535618077469384</v>
       </c>
       <c r="C2285">
         <v>6.460140908792535</v>
@@ -25511,7 +25511,7 @@
         <v>22.85000000000077</v>
       </c>
       <c r="B2287">
-        <v>0.02177621508609445</v>
+        <v>0.02177621508609442</v>
       </c>
       <c r="C2287">
         <v>6.461152708052248</v>
@@ -25522,7 +25522,7 @@
         <v>22.86000000000077</v>
       </c>
       <c r="B2288">
-        <v>0.04684027119687834</v>
+        <v>0.04684027119687835</v>
       </c>
       <c r="C2288">
         <v>6.471740122569853</v>
@@ -25874,7 +25874,7 @@
         <v>23.18000000000082</v>
       </c>
       <c r="B2320">
-        <v>0.04369098746940354</v>
+        <v>0.04369098746940353</v>
       </c>
       <c r="C2320">
         <v>6.555056334573977</v>
@@ -25885,7 +25885,7 @@
         <v>23.19000000000083</v>
       </c>
       <c r="B2321">
-        <v>0.03856273429926174</v>
+        <v>0.03856273429926175</v>
       </c>
       <c r="C2321">
         <v>6.555623824890473</v>
@@ -26127,7 +26127,7 @@
         <v>23.41000000000086</v>
       </c>
       <c r="B2343">
-        <v>0.063094115426591</v>
+        <v>0.06309411542659102</v>
       </c>
       <c r="C2343">
         <v>6.573596280439703</v>
@@ -26138,7 +26138,7 @@
         <v>23.42000000000086</v>
       </c>
       <c r="B2344">
-        <v>0.04445951614373371</v>
+        <v>0.0444595161437337</v>
       </c>
       <c r="C2344">
         <v>6.573884789522589</v>
@@ -26160,7 +26160,7 @@
         <v>23.44000000000086</v>
       </c>
       <c r="B2346">
-        <v>0.03262001237277363</v>
+        <v>0.03262001237277364</v>
       </c>
       <c r="C2346">
         <v>6.574430792384099</v>
@@ -26193,7 +26193,7 @@
         <v>23.47000000000087</v>
       </c>
       <c r="B2349">
-        <v>0.03093602243282054</v>
+        <v>0.03093602243282052</v>
       </c>
       <c r="C2349">
         <v>6.573816975275141</v>
@@ -26204,7 +26204,7 @@
         <v>23.48000000000087</v>
       </c>
       <c r="B2350">
-        <v>0.05465648634767306</v>
+        <v>0.05465648634767307</v>
       </c>
       <c r="C2350">
         <v>6.5721987309996</v>
@@ -26215,7 +26215,7 @@
         <v>23.49000000000087</v>
       </c>
       <c r="B2351">
-        <v>0.03460701733157733</v>
+        <v>0.03460701733157736</v>
       </c>
       <c r="C2351">
         <v>6.572387354479858</v>
@@ -26226,7 +26226,7 @@
         <v>23.50000000000087</v>
       </c>
       <c r="B2352">
-        <v>0.0269381040268682</v>
+        <v>0.02693810402686819</v>
       </c>
       <c r="C2352">
         <v>6.572569136102226</v>
@@ -26248,7 +26248,7 @@
         <v>23.52000000000088</v>
       </c>
       <c r="B2354">
-        <v>0.03018107716293283</v>
+        <v>0.03018107716293284</v>
       </c>
       <c r="C2354">
         <v>6.570551801713174</v>
@@ -26259,7 +26259,7 @@
         <v>23.53000000000088</v>
       </c>
       <c r="B2355">
-        <v>0.02400139783925257</v>
+        <v>0.02400139783925261</v>
       </c>
       <c r="C2355">
         <v>6.570689133218247</v>
@@ -26270,7 +26270,7 @@
         <v>23.54000000000088</v>
       </c>
       <c r="B2356">
-        <v>0.05151361550991976</v>
+        <v>0.05151361550991973</v>
       </c>
       <c r="C2356">
         <v>6.567991689123345</v>
@@ -26281,7 +26281,7 @@
         <v>23.55000000000088</v>
       </c>
       <c r="B2357">
-        <v>0.03325136461834038</v>
+        <v>0.03325136461834037</v>
       </c>
       <c r="C2357">
         <v>6.568087325768924</v>
@@ -26358,7 +26358,7 @@
         <v>23.62000000000089</v>
       </c>
       <c r="B2364">
-        <v>0.04124506837698089</v>
+        <v>0.04124506837698087</v>
       </c>
       <c r="C2364">
         <v>6.561262474809964</v>
@@ -26380,7 +26380,7 @@
         <v>23.6400000000009</v>
       </c>
       <c r="B2366">
-        <v>0.04842173841269582</v>
+        <v>0.04842173841269583</v>
       </c>
       <c r="C2366">
         <v>6.556756207937275</v>
@@ -26589,7 +26589,7 @@
         <v>23.83000000000093</v>
       </c>
       <c r="B2385">
-        <v>0.03114335112943326</v>
+        <v>0.03114335112943325</v>
       </c>
       <c r="C2385">
         <v>6.511884237193462</v>
@@ -26600,7 +26600,7 @@
         <v>23.84000000000093</v>
       </c>
       <c r="B2386">
-        <v>0.06123276229643005</v>
+        <v>0.06123276229643006</v>
       </c>
       <c r="C2386">
         <v>6.50353008151131</v>
@@ -26611,7 +26611,7 @@
         <v>23.85000000000093</v>
       </c>
       <c r="B2387">
-        <v>0.04321643703736001</v>
+        <v>0.04321643703735999</v>
       </c>
       <c r="C2387">
         <v>6.502701023885638</v>
@@ -26655,7 +26655,7 @@
         <v>23.89000000000093</v>
       </c>
       <c r="B2391">
-        <v>0.0393787067636952</v>
+        <v>0.03937870676369521</v>
       </c>
       <c r="C2391">
         <v>6.491882578713852</v>
@@ -26666,7 +26666,7 @@
         <v>23.90000000000094</v>
       </c>
       <c r="B2392">
-        <v>0.03169580143399021</v>
+        <v>0.03169580143399019</v>
       </c>
       <c r="C2392">
         <v>6.491244068544826</v>
@@ -26754,7 +26754,7 @@
         <v>23.98000000000095</v>
       </c>
       <c r="B2400">
-        <v>0.03558095189587983</v>
+        <v>0.03558095189587984</v>
       </c>
       <c r="C2400">
         <v>6.465156025214863</v>
@@ -26842,7 +26842,7 @@
         <v>24.06000000000096</v>
       </c>
       <c r="B2408">
-        <v>0.058200836658159</v>
+        <v>0.05820083665815898</v>
       </c>
       <c r="C2408">
         <v>6.455853107530317</v>
@@ -26853,7 +26853,7 @@
         <v>24.07000000000096</v>
       </c>
       <c r="B2409">
-        <v>0.03858264783378396</v>
+        <v>0.03858264783378397</v>
       </c>
       <c r="C2409">
         <v>6.455563317642731</v>
@@ -26897,7 +26897,7 @@
         <v>24.11000000000097</v>
       </c>
       <c r="B2413">
-        <v>0.02746733280711481</v>
+        <v>0.0274673328071148</v>
       </c>
       <c r="C2413">
         <v>6.456863737580594</v>
@@ -27095,7 +27095,7 @@
         <v>24.290000000001</v>
       </c>
       <c r="B2431">
-        <v>0.04451516128373864</v>
+        <v>0.04451516128373863</v>
       </c>
       <c r="C2431">
         <v>6.500019614187673</v>
@@ -27117,7 +27117,7 @@
         <v>24.310000000001</v>
       </c>
       <c r="B2433">
-        <v>0.05839949224486694</v>
+        <v>0.05839949224486695</v>
       </c>
       <c r="C2433">
         <v>6.511370577852149</v>
@@ -27139,7 +27139,7 @@
         <v>24.330000000001</v>
       </c>
       <c r="B2435">
-        <v>0.03346834455925396</v>
+        <v>0.03346834455925397</v>
       </c>
       <c r="C2435">
         <v>6.512246794085172</v>
@@ -27579,7 +27579,7 @@
         <v>24.73000000000107</v>
       </c>
       <c r="B2475">
-        <v>0.02147665473628901</v>
+        <v>0.02147665473628899</v>
       </c>
       <c r="C2475">
         <v>6.751244909562256</v>
@@ -27590,7 +27590,7 @@
         <v>24.74000000000107</v>
       </c>
       <c r="B2476">
-        <v>0.03806738169594779</v>
+        <v>0.0380673816959478</v>
       </c>
       <c r="C2476">
         <v>6.77175062864077</v>
@@ -27744,7 +27744,7 @@
         <v>24.88000000000109</v>
       </c>
       <c r="B2490">
-        <v>0.02085541555564951</v>
+        <v>0.02085541555564953</v>
       </c>
       <c r="C2490">
         <v>6.874386278706739</v>
@@ -27843,7 +27843,7 @@
         <v>24.9700000000011</v>
       </c>
       <c r="B2499">
-        <v>0.01876649075940291</v>
+        <v>0.0187664907594029</v>
       </c>
       <c r="C2499">
         <v>6.954941998232651</v>
@@ -27854,7 +27854,7 @@
         <v>24.98000000000111</v>
       </c>
       <c r="B2500">
-        <v>0.0331464620418192</v>
+        <v>0.03314646204181922</v>
       </c>
       <c r="C2500">
         <v>6.978997445512864</v>
@@ -27953,7 +27953,7 @@
         <v>25.07000000000112</v>
       </c>
       <c r="B2509">
-        <v>0.03064603822948858</v>
+        <v>0.03064603822948859</v>
       </c>
       <c r="C2509">
         <v>7.065444971117074</v>
@@ -28019,7 +28019,7 @@
         <v>25.13000000000113</v>
       </c>
       <c r="B2515">
-        <v>0.02677150119341338</v>
+        <v>0.02677150119341337</v>
       </c>
       <c r="C2515">
         <v>7.12609419382812</v>
@@ -28030,7 +28030,7 @@
         <v>25.14000000000113</v>
       </c>
       <c r="B2516">
-        <v>0.02571163720976113</v>
+        <v>0.02571163720976114</v>
       </c>
       <c r="C2516">
         <v>7.128272437893285</v>
@@ -28140,7 +28140,7 @@
         <v>25.24000000000115</v>
       </c>
       <c r="B2526">
-        <v>0.02890833071353394</v>
+        <v>0.02890833071353395</v>
       </c>
       <c r="C2526">
         <v>7.250688149060986</v>
@@ -28151,7 +28151,7 @@
         <v>25.25000000000115</v>
       </c>
       <c r="B2527">
-        <v>0.02089851642944386</v>
+        <v>0.02089851642944387</v>
       </c>
       <c r="C2527">
         <v>7.253103533913483</v>
@@ -28195,7 +28195,7 @@
         <v>25.29000000000115</v>
       </c>
       <c r="B2531">
-        <v>0.0190428141882452</v>
+        <v>0.01904281418824521</v>
       </c>
       <c r="C2531">
         <v>7.288426624771225</v>
@@ -28206,7 +28206,7 @@
         <v>25.30000000000116</v>
       </c>
       <c r="B2532">
-        <v>0.02868596090107049</v>
+        <v>0.02868596090107048</v>
       </c>
       <c r="C2532">
         <v>7.317015152616068</v>
@@ -28250,7 +28250,7 @@
         <v>25.34000000000116</v>
       </c>
       <c r="B2536">
-        <v>0.02159945963894661</v>
+        <v>0.0215994596389466</v>
       </c>
       <c r="C2536">
         <v>7.35374176002207</v>
@@ -28294,7 +28294,7 @@
         <v>25.38000000000117</v>
       </c>
       <c r="B2540">
-        <v>0.02859829282022649</v>
+        <v>0.02859829282022648</v>
       </c>
       <c r="C2540">
         <v>7.418376319668568</v>
@@ -28360,7 +28360,7 @@
         <v>25.44000000000118</v>
       </c>
       <c r="B2546">
-        <v>0.02174917791601115</v>
+        <v>0.02174917791601116</v>
       </c>
       <c r="C2546">
         <v>7.490429818590494</v>
@@ -28382,7 +28382,7 @@
         <v>25.46000000000118</v>
       </c>
       <c r="B2548">
-        <v>0.02549708858569369</v>
+        <v>0.02549708858569368</v>
       </c>
       <c r="C2548">
         <v>7.524480754313005</v>
@@ -28492,7 +28492,7 @@
         <v>25.5600000000012</v>
       </c>
       <c r="B2558">
-        <v>0.01125649427105558</v>
+        <v>0.01125649427105557</v>
       </c>
       <c r="C2558">
         <v>7.641100934111839</v>
@@ -28503,7 +28503,7 @@
         <v>25.5700000000012</v>
       </c>
       <c r="B2559">
-        <v>0.01448523841383187</v>
+        <v>0.01448523841383188</v>
       </c>
       <c r="C2559">
         <v>7.673987586731981</v>
@@ -28657,7 +28657,7 @@
         <v>25.71000000000122</v>
       </c>
       <c r="B2573">
-        <v>-0.007072474716877226</v>
+        <v>-0.007072474716877223</v>
       </c>
       <c r="C2573">
         <v>7.871600186292659</v>
@@ -28668,7 +28668,7 @@
         <v>25.72000000000122</v>
       </c>
       <c r="B2574">
-        <v>-0.009596105724228742</v>
+        <v>-0.009596105724228744</v>
       </c>
       <c r="C2574">
         <v>7.87486646618841</v>
@@ -28701,7 +28701,7 @@
         <v>25.75000000000123</v>
       </c>
       <c r="B2577">
-        <v>-0.003021177394757852</v>
+        <v>-0.003021177394757856</v>
       </c>
       <c r="C2577">
         <v>7.913875125465183</v>
@@ -28712,7 +28712,7 @@
         <v>25.76000000000123</v>
       </c>
       <c r="B2578">
-        <v>0.00205698248916263</v>
+        <v>0.002056982489162632</v>
       </c>
       <c r="C2578">
         <v>7.916999095776592</v>
@@ -28756,7 +28756,7 @@
         <v>25.80000000000123</v>
       </c>
       <c r="B2582">
-        <v>0.01257856888912573</v>
+        <v>0.01257856888912574</v>
       </c>
       <c r="C2582">
         <v>7.928402194807184</v>
@@ -28833,7 +28833,7 @@
         <v>25.87000000000124</v>
       </c>
       <c r="B2589">
-        <v>0.00805236446284217</v>
+        <v>0.008052364462842172</v>
       </c>
       <c r="C2589">
         <v>7.944718571192369</v>
@@ -28877,7 +28877,7 @@
         <v>25.91000000000125</v>
       </c>
       <c r="B2593">
-        <v>-0.001775645644207403</v>
+        <v>-0.0017756456442074</v>
       </c>
       <c r="C2593">
         <v>7.95231342347915</v>
@@ -28888,7 +28888,7 @@
         <v>25.92000000000125</v>
       </c>
       <c r="B2594">
-        <v>-0.005126619246546954</v>
+        <v>-0.005126619246546957</v>
       </c>
       <c r="C2594">
         <v>7.954043138037325</v>
@@ -29075,7 +29075,7 @@
         <v>26.09000000000128</v>
       </c>
       <c r="B2611">
-        <v>0.007332788454108916</v>
+        <v>0.007332788454108918</v>
       </c>
       <c r="C2611">
         <v>7.97547708286527</v>
@@ -29086,7 +29086,7 @@
         <v>26.10000000000128</v>
       </c>
       <c r="B2612">
-        <v>0.008260780172766363</v>
+        <v>0.008260780172766361</v>
       </c>
       <c r="C2612">
         <v>7.976366592028469</v>
@@ -29141,7 +29141,7 @@
         <v>26.15000000000129</v>
       </c>
       <c r="B2617">
-        <v>-0.00495144223294601</v>
+        <v>-0.004951442232946009</v>
       </c>
       <c r="C2617">
         <v>7.980352945079717</v>
@@ -29240,7 +29240,7 @@
         <v>26.2400000000013</v>
       </c>
       <c r="B2626">
-        <v>-0.0238110867708183</v>
+        <v>-0.02381108677081831</v>
       </c>
       <c r="C2626">
         <v>7.985910828618057</v>
@@ -29339,7 +29339,7 @@
         <v>26.33000000000132</v>
       </c>
       <c r="B2635">
-        <v>-0.01232082410036796</v>
+        <v>-0.01232082410036797</v>
       </c>
       <c r="C2635">
         <v>7.989896462801414</v>
@@ -29350,7 +29350,7 @@
         <v>26.34000000000132</v>
       </c>
       <c r="B2636">
-        <v>-0.01614394371213978</v>
+        <v>-0.01614394371213977</v>
       </c>
       <c r="C2636">
         <v>7.990262944034844</v>
@@ -29427,7 +29427,7 @@
         <v>26.41000000000133</v>
       </c>
       <c r="B2643">
-        <v>-0.002698599589550838</v>
+        <v>-0.002698599589550841</v>
       </c>
       <c r="C2643">
         <v>7.992481915267039</v>
@@ -29438,7 +29438,7 @@
         <v>26.42000000000133</v>
       </c>
       <c r="B2644">
-        <v>-0.007736464365893421</v>
+        <v>-0.00773646436589342</v>
       </c>
       <c r="C2644">
         <v>7.992754615501799</v>
@@ -29504,7 +29504,7 @@
         <v>26.48000000000134</v>
       </c>
       <c r="B2650">
-        <v>0.002537626317263832</v>
+        <v>0.002537626317263828</v>
       </c>
       <c r="C2650">
         <v>7.994195206615403</v>
@@ -29515,7 +29515,7 @@
         <v>26.49000000000134</v>
       </c>
       <c r="B2651">
-        <v>-0.002091839953895016</v>
+        <v>-0.002091839953895014</v>
       </c>
       <c r="C2651">
         <v>7.994405761374353</v>
@@ -29548,7 +29548,7 @@
         <v>26.52000000000135</v>
       </c>
       <c r="B2654">
-        <v>0.0001781399326281838</v>
+        <v>0.0001781399326281873</v>
       </c>
       <c r="C2654">
         <v>7.994992699539558</v>
@@ -29559,7 +29559,7 @@
         <v>26.53000000000135</v>
       </c>
       <c r="B2655">
-        <v>0.00726419941723592</v>
+        <v>0.007264199417235918</v>
       </c>
       <c r="C2655">
         <v>7.995174327182712</v>
@@ -29834,7 +29834,7 @@
         <v>26.78000000000139</v>
       </c>
       <c r="B2680">
-        <v>-0.02177664554954519</v>
+        <v>-0.02177664554954518</v>
       </c>
       <c r="C2680">
         <v>7.998083921010159</v>
@@ -29845,7 +29845,7 @@
         <v>26.79000000000139</v>
       </c>
       <c r="B2681">
-        <v>-0.02881704807165478</v>
+        <v>-0.0288170480716548</v>
       </c>
       <c r="C2681">
         <v>7.998153422114351</v>
@@ -29856,7 +29856,7 @@
         <v>26.80000000000139</v>
       </c>
       <c r="B2682">
-        <v>-0.01978860286253192</v>
+        <v>-0.01978860286253191</v>
       </c>
       <c r="C2682">
         <v>7.998220402235061</v>
@@ -30054,7 +30054,7 @@
         <v>26.98000000000142</v>
       </c>
       <c r="B2700">
-        <v>-0.03134039362050219</v>
+        <v>-0.0313403936205022</v>
       </c>
       <c r="C2700">
         <v>7.999084838298181</v>
@@ -30120,7 +30120,7 @@
         <v>27.04000000000143</v>
       </c>
       <c r="B2706">
-        <v>-0.03381724912159557</v>
+        <v>-0.03381724912159555</v>
       </c>
       <c r="C2706">
         <v>7.999266798802206</v>
@@ -30131,7 +30131,7 @@
         <v>27.05000000000143</v>
       </c>
       <c r="B2707">
-        <v>-0.04732021375754667</v>
+        <v>-0.04732021375754668</v>
       </c>
       <c r="C2707">
         <v>7.999293393892029</v>
@@ -30164,7 +30164,7 @@
         <v>27.08000000000143</v>
       </c>
       <c r="B2710">
-        <v>-0.03050120592689757</v>
+        <v>-0.03050120592689759</v>
       </c>
       <c r="C2710">
         <v>7.999367529823706</v>
@@ -30175,7 +30175,7 @@
         <v>27.09000000000144</v>
       </c>
       <c r="B2711">
-        <v>-0.02395895613606475</v>
+        <v>-0.02395895613606474</v>
       </c>
       <c r="C2711">
         <v>7.999390471140767</v>
@@ -30197,7 +30197,7 @@
         <v>27.11000000000144</v>
       </c>
       <c r="B2713">
-        <v>-0.01982871735194515</v>
+        <v>-0.01982871735194514</v>
       </c>
       <c r="C2713">
         <v>7.999433887537358</v>
@@ -30208,7 +30208,7 @@
         <v>27.12000000000144</v>
       </c>
       <c r="B2714">
-        <v>-0.03396299477393111</v>
+        <v>-0.03396299477393113</v>
       </c>
       <c r="C2714">
         <v>7.999454421889782</v>
@@ -30219,7 +30219,7 @@
         <v>27.13000000000144</v>
       </c>
       <c r="B2715">
-        <v>-0.02045867263284666</v>
+        <v>-0.02045867263284665</v>
       </c>
       <c r="C2715">
         <v>7.999474211408526</v>
@@ -30263,7 +30263,7 @@
         <v>27.17000000000145</v>
       </c>
       <c r="B2719">
-        <v>-0.02164099536718765</v>
+        <v>-0.02164099536718764</v>
       </c>
       <c r="C2719">
         <v>7.999546446999617</v>
@@ -30274,7 +30274,7 @@
         <v>27.18000000000145</v>
       </c>
       <c r="B2720">
-        <v>-0.008745677207010602</v>
+        <v>-0.008745677207010607</v>
       </c>
       <c r="C2720">
         <v>7.999562898531367</v>
@@ -30318,7 +30318,7 @@
         <v>27.22000000000146</v>
       </c>
       <c r="B2724">
-        <v>-0.02219841339311933</v>
+        <v>-0.02219841339311934</v>
       </c>
       <c r="C2724">
         <v>7.999622949820927</v>
@@ -30329,7 +30329,7 @@
         <v>27.23000000000146</v>
       </c>
       <c r="B2725">
-        <v>-0.01032908738059139</v>
+        <v>-0.01032908738059138</v>
       </c>
       <c r="C2725">
         <v>7.999636626398939</v>
@@ -30351,7 +30351,7 @@
         <v>27.25000000000146</v>
       </c>
       <c r="B2727">
-        <v>-0.02378820996027739</v>
+        <v>-0.02378820996027738</v>
       </c>
       <c r="C2727">
         <v>7.999662509295433</v>
@@ -30362,7 +30362,7 @@
         <v>27.26000000000146</v>
       </c>
       <c r="B2728">
-        <v>-0.01351464236372373</v>
+        <v>-0.01351464236372375</v>
       </c>
       <c r="C2728">
         <v>7.999674750949742</v>
@@ -30417,7 +30417,7 @@
         <v>27.31000000000147</v>
       </c>
       <c r="B2733">
-        <v>-0.0222224584016446</v>
+        <v>-0.02222245840164459</v>
       </c>
       <c r="C2733">
         <v>7.999729612167619</v>
@@ -30450,7 +30450,7 @@
         <v>27.34000000000147</v>
       </c>
       <c r="B2736">
-        <v>-0.02238397678692194</v>
+        <v>-0.02238397678692193</v>
       </c>
       <c r="C2736">
         <v>7.999757980807009</v>
@@ -30461,7 +30461,7 @@
         <v>27.35000000000148</v>
       </c>
       <c r="B2737">
-        <v>-0.03406282097821202</v>
+        <v>-0.03406282097821203</v>
       </c>
       <c r="C2737">
         <v>7.999766759464485</v>
@@ -30648,7 +30648,7 @@
         <v>27.5200000000015</v>
       </c>
       <c r="B2754">
-        <v>-0.02658158160354449</v>
+        <v>-0.02658158160354451</v>
       </c>
       <c r="C2754">
         <v>7.999875541147054</v>
@@ -30857,7 +30857,7 @@
         <v>27.71000000000153</v>
       </c>
       <c r="B2773">
-        <v>-0.002907626146409862</v>
+        <v>-0.002907626146409875</v>
       </c>
       <c r="C2773">
         <v>7.999938318347385</v>
@@ -30868,7 +30868,7 @@
         <v>27.72000000000153</v>
       </c>
       <c r="B2774">
-        <v>-0.007325544133822391</v>
+        <v>-0.007325544133822385</v>
       </c>
       <c r="C2774">
         <v>7.999940555699284</v>
@@ -30945,7 +30945,7 @@
         <v>27.79000000000154</v>
       </c>
       <c r="B2781">
-        <v>0.005886413781026045</v>
+        <v>0.005886413781026038</v>
       </c>
       <c r="C2781">
         <v>7.999954102421587</v>
@@ -30956,7 +30956,7 @@
         <v>27.80000000000155</v>
       </c>
       <c r="B2782">
-        <v>-0.001126508173325596</v>
+        <v>-0.001126508173325593</v>
       </c>
       <c r="C2782">
         <v>7.99995576724459</v>
@@ -31011,7 +31011,7 @@
         <v>27.85000000000155</v>
       </c>
       <c r="B2787">
-        <v>-0.008088689488043008</v>
+        <v>-0.008088689488043015</v>
       </c>
       <c r="C2787">
         <v>7.999963228182078</v>
@@ -31022,7 +31022,7 @@
         <v>27.86000000000156</v>
       </c>
       <c r="B2788">
-        <v>-0.003788591266713516</v>
+        <v>-0.003788591266713513</v>
       </c>
       <c r="C2788">
         <v>7.999964561990319</v>
@@ -31055,7 +31055,7 @@
         <v>27.89000000000156</v>
       </c>
       <c r="B2791">
-        <v>0.0003804882188958546</v>
+        <v>0.0003804882188958615</v>
       </c>
       <c r="C2791">
         <v>7.999968280087057</v>
@@ -31066,7 +31066,7 @@
         <v>27.90000000000156</v>
       </c>
       <c r="B2792">
-        <v>0.0005855890096469725</v>
+        <v>0.0005855890096469695</v>
       </c>
       <c r="C2792">
         <v>7.999969430649735</v>
@@ -31132,7 +31132,7 @@
         <v>27.96000000000157</v>
       </c>
       <c r="B2798">
-        <v>0.009720627089086034</v>
+        <v>0.009720627089086031</v>
       </c>
       <c r="C2798">
         <v>7.999975508717</v>
@@ -31154,7 +31154,7 @@
         <v>27.98000000000157</v>
       </c>
       <c r="B2800">
-        <v>0.007226226783648712</v>
+        <v>0.007226226783648709</v>
       </c>
       <c r="C2800">
         <v>7.999977253217263</v>
@@ -31165,7 +31165,7 @@
         <v>27.99000000000158</v>
       </c>
       <c r="B2801">
-        <v>0.00634734454905638</v>
+        <v>0.006347344549056382</v>
       </c>
       <c r="C2801">
         <v>7.999978078301472</v>
@@ -31198,7 +31198,7 @@
         <v>28.02000000000158</v>
       </c>
       <c r="B2804">
-        <v>-0.001266303250264426</v>
+        <v>-0.001266303250264429</v>
       </c>
       <c r="C2804">
         <v>7.999980378289437</v>
@@ -31209,7 +31209,7 @@
         <v>28.03000000000158</v>
       </c>
       <c r="B2805">
-        <v>-0.002762928405716746</v>
+        <v>-0.002762928405716744</v>
       </c>
       <c r="C2805">
         <v>7.999981090019255</v>
@@ -31231,7 +31231,7 @@
         <v>28.05000000000159</v>
       </c>
       <c r="B2807">
-        <v>-0.007791391133931483</v>
+        <v>-0.007791391133931487</v>
       </c>
       <c r="C2807">
         <v>7.99998243696651</v>
@@ -31242,7 +31242,7 @@
         <v>28.06000000000159</v>
       </c>
       <c r="B2808">
-        <v>-0.007182127151391763</v>
+        <v>-0.007182127151391761</v>
       </c>
       <c r="C2808">
         <v>7.999983074022825</v>
@@ -31286,7 +31286,7 @@
         <v>28.10000000000159</v>
       </c>
       <c r="B2812">
-        <v>0.0003842136306312816</v>
+        <v>0.0003842136306312824</v>
       </c>
       <c r="C2812">
         <v>7.999985399402238</v>
@@ -31462,7 +31462,7 @@
         <v>28.26000000000162</v>
       </c>
       <c r="B2828">
-        <v>0.003381895178406377</v>
+        <v>0.003381895178406376</v>
       </c>
       <c r="C2828">
         <v>7.999991915778964</v>
@@ -31506,7 +31506,7 @@
         <v>28.30000000000162</v>
       </c>
       <c r="B2832">
-        <v>0.002406246049723643</v>
+        <v>0.002406246049723644</v>
       </c>
       <c r="C2832">
         <v>7.9999930264316</v>
@@ -31572,7 +31572,7 @@
         <v>28.36000000000163</v>
       </c>
       <c r="B2838">
-        <v>-0.00854092759895733</v>
+        <v>-0.008540927598957332</v>
       </c>
       <c r="C2838">
         <v>7.999994412977845</v>
@@ -31583,7 +31583,7 @@
         <v>28.37000000000164</v>
       </c>
       <c r="B2839">
-        <v>-0.002412349765144267</v>
+        <v>-0.002412349765144265</v>
       </c>
       <c r="C2839">
         <v>7.999994615633482</v>
@@ -31847,7 +31847,7 @@
         <v>28.61000000000167</v>
       </c>
       <c r="B2863">
-        <v>0.02396580299520051</v>
+        <v>0.0239658029952005</v>
       </c>
       <c r="C2863">
         <v>7.999997781620062</v>
@@ -31891,7 +31891,7 @@
         <v>28.65000000000168</v>
       </c>
       <c r="B2867">
-        <v>0.03152594325133926</v>
+        <v>0.03152594325133924</v>
       </c>
       <c r="C2867">
         <v>7.999998086392718</v>
@@ -31902,7 +31902,7 @@
         <v>28.66000000000168</v>
       </c>
       <c r="B2868">
-        <v>0.02144356869568555</v>
+        <v>0.02144356869568556</v>
       </c>
       <c r="C2868">
         <v>7.999998155804168</v>
@@ -31946,7 +31946,7 @@
         <v>28.70000000000169</v>
       </c>
       <c r="B2872">
-        <v>0.03745809213356921</v>
+        <v>0.03745809213356922</v>
       </c>
       <c r="C2872">
         <v>7.999998409169452</v>
@@ -31957,7 +31957,7 @@
         <v>28.71000000000169</v>
       </c>
       <c r="B2873">
-        <v>0.02523177136135982</v>
+        <v>0.02523177136135981</v>
       </c>
       <c r="C2873">
         <v>7.99999846687296</v>
@@ -32001,7 +32001,7 @@
         <v>28.75000000000169</v>
       </c>
       <c r="B2877">
-        <v>0.04129875822538939</v>
+        <v>0.04129875822538938</v>
       </c>
       <c r="C2877">
         <v>7.999998677501984</v>
@@ -32012,7 +32012,7 @@
         <v>28.7600000000017</v>
       </c>
       <c r="B2878">
-        <v>0.03099746085455945</v>
+        <v>0.03099746085455946</v>
       </c>
       <c r="C2878">
         <v>7.999998725472382</v>
@@ -32045,7 +32045,7 @@
         <v>28.7900000000017</v>
       </c>
       <c r="B2881">
-        <v>0.0327916841794255</v>
+        <v>0.03279168417942549</v>
       </c>
       <c r="C2881">
         <v>7.99999885919369</v>
@@ -32067,7 +32067,7 @@
         <v>28.8100000000017</v>
       </c>
       <c r="B2883">
-        <v>0.03341369760334803</v>
+        <v>0.03341369760334804</v>
       </c>
       <c r="C2883">
         <v>7.999998940452679</v>
@@ -32078,7 +32078,7 @@
         <v>28.82000000000171</v>
       </c>
       <c r="B2884">
-        <v>0.04723249273177447</v>
+        <v>0.04723249273177446</v>
       </c>
       <c r="C2884">
         <v>7.999998978885181</v>
@@ -32122,7 +32122,7 @@
         <v>28.86000000000171</v>
       </c>
       <c r="B2888">
-        <v>0.02346470500506176</v>
+        <v>0.02346470500506175</v>
       </c>
       <c r="C2888">
         <v>7.999999119171284</v>
@@ -32188,7 +32188,7 @@
         <v>28.92000000000172</v>
       </c>
       <c r="B2894">
-        <v>0.02171316914871248</v>
+        <v>0.02171316914871246</v>
       </c>
       <c r="C2894">
         <v>7.999999294305401</v>
@@ -32199,7 +32199,7 @@
         <v>28.93000000000172</v>
       </c>
       <c r="B2895">
-        <v>0.007675047739845446</v>
+        <v>0.007675047739845453</v>
       </c>
       <c r="C2895">
         <v>7.999999319902757</v>
@@ -32287,7 +32287,7 @@
         <v>29.01000000000174</v>
       </c>
       <c r="B2903">
-        <v>0.02255900692987201</v>
+        <v>0.02255900692987202</v>
       </c>
       <c r="C2903">
         <v>7.999999493936767</v>
@@ -32353,7 +32353,7 @@
         <v>29.07000000000174</v>
       </c>
       <c r="B2909">
-        <v>0.06646706430837485</v>
+        <v>0.06646706430837483</v>
       </c>
       <c r="C2909">
         <v>7.999999594556712</v>
@@ -32364,7 +32364,7 @@
         <v>29.08000000000175</v>
       </c>
       <c r="B2910">
-        <v>0.05259425441664634</v>
+        <v>0.05259425441664636</v>
       </c>
       <c r="C2910">
         <v>7.999999609263181</v>
@@ -32375,7 +32375,7 @@
         <v>29.09000000000175</v>
       </c>
       <c r="B2911">
-        <v>0.04742132986335036</v>
+        <v>0.04742132986335035</v>
       </c>
       <c r="C2911">
         <v>7.999999623436209</v>
@@ -32408,7 +32408,7 @@
         <v>29.12000000000175</v>
       </c>
       <c r="B2914">
-        <v>0.07426491372933927</v>
+        <v>0.07426491372933924</v>
       </c>
       <c r="C2914">
         <v>7.999999662944653</v>
@@ -32430,7 +32430,7 @@
         <v>29.14000000000176</v>
       </c>
       <c r="B2916">
-        <v>0.04649055322276806</v>
+        <v>0.04649055322276807</v>
       </c>
       <c r="C2916">
         <v>7.999999686952915</v>
@@ -32441,7 +32441,7 @@
         <v>29.15000000000176</v>
       </c>
       <c r="B2917">
-        <v>0.06550385943833914</v>
+        <v>0.06550385943833913</v>
       </c>
       <c r="C2917">
         <v>7.999999698307936</v>
@@ -32485,7 +32485,7 @@
         <v>29.19000000000176</v>
       </c>
       <c r="B2921">
-        <v>0.02887688014180408</v>
+        <v>0.02887688014180406</v>
       </c>
       <c r="C2921">
         <v>7.999999739755972</v>
@@ -32496,7 +32496,7 @@
         <v>29.20000000000176</v>
       </c>
       <c r="B2922">
-        <v>0.05033035729696642</v>
+        <v>0.05033035729696643</v>
       </c>
       <c r="C2922">
         <v>7.999999749195691</v>
@@ -32573,7 +32573,7 @@
         <v>29.27000000000178</v>
       </c>
       <c r="B2929">
-        <v>0.06379421931197729</v>
+        <v>0.06379421931197732</v>
       </c>
       <c r="C2929">
         <v>7.999999806351319</v>
@@ -32584,7 +32584,7 @@
         <v>29.28000000000178</v>
       </c>
       <c r="B2930">
-        <v>0.04638684813728341</v>
+        <v>0.04638684813728339</v>
       </c>
       <c r="C2930">
         <v>7.999999813375454</v>
@@ -32628,7 +32628,7 @@
         <v>29.32000000000178</v>
       </c>
       <c r="B2934">
-        <v>0.04195379572606703</v>
+        <v>0.04195379572606706</v>
       </c>
       <c r="C2934">
         <v>7.999999839014912</v>
@@ -32639,7 +32639,7 @@
         <v>29.33000000000179</v>
       </c>
       <c r="B2935">
-        <v>0.06938862275141561</v>
+        <v>0.06938862275141559</v>
       </c>
       <c r="C2935">
         <v>7.999999844854254</v>
@@ -32650,7 +32650,7 @@
         <v>29.34000000000179</v>
       </c>
       <c r="B2936">
-        <v>0.04465273114126571</v>
+        <v>0.04465273114126574</v>
       </c>
       <c r="C2936">
         <v>7.999999850481789</v>
@@ -32826,7 +32826,7 @@
         <v>29.50000000000181</v>
       </c>
       <c r="B2952">
-        <v>0.06541300939312308</v>
+        <v>0.06541300939312307</v>
       </c>
       <c r="C2952">
         <v>7.888501912984174</v>
@@ -32859,7 +32859,7 @@
         <v>29.53000000000182</v>
       </c>
       <c r="B2955">
-        <v>0.06655136985485451</v>
+        <v>0.06655136985485453</v>
       </c>
       <c r="C2955">
         <v>7.851764058092748</v>
@@ -32870,7 +32870,7 @@
         <v>29.54000000000182</v>
       </c>
       <c r="B2956">
-        <v>0.03741309716695599</v>
+        <v>0.03741309716695598</v>
       </c>
       <c r="C2956">
         <v>7.848543742117355</v>
@@ -32903,7 +32903,7 @@
         <v>29.57000000000182</v>
       </c>
       <c r="B2959">
-        <v>0.02674576736542849</v>
+        <v>0.02674576736542847</v>
       </c>
       <c r="C2959">
         <v>7.810381507339581</v>
@@ -32914,7 +32914,7 @@
         <v>29.58000000000182</v>
       </c>
       <c r="B2960">
-        <v>0.05524178306427664</v>
+        <v>0.05524178306427665</v>
       </c>
       <c r="C2960">
         <v>7.779207757246584</v>
@@ -33035,7 +33035,7 @@
         <v>29.69000000000184</v>
       </c>
       <c r="B2971">
-        <v>0.04259355893607696</v>
+        <v>0.04259355893607698</v>
       </c>
       <c r="C2971">
         <v>7.629787361095784</v>
@@ -33046,7 +33046,7 @@
         <v>29.70000000000184</v>
       </c>
       <c r="B2972">
-        <v>0.03644713909206714</v>
+        <v>0.03644713909206715</v>
       </c>
       <c r="C2972">
         <v>7.626471894486027</v>
@@ -33057,7 +33057,7 @@
         <v>29.71000000000184</v>
       </c>
       <c r="B2973">
-        <v>0.06416370958863163</v>
+        <v>0.06416370958863161</v>
       </c>
       <c r="C2973">
         <v>7.595805616623492</v>
@@ -33068,7 +33068,7 @@
         <v>29.72000000000185</v>
       </c>
       <c r="B2974">
-        <v>0.04090195327377132</v>
+        <v>0.04090195327377133</v>
       </c>
       <c r="C2974">
         <v>7.592126951994921</v>
@@ -33079,7 +33079,7 @@
         <v>29.73000000000185</v>
       </c>
       <c r="B2975">
-        <v>0.03148250524775013</v>
+        <v>0.03148250524775012</v>
       </c>
       <c r="C2975">
         <v>7.588982025808227</v>
@@ -33101,7 +33101,7 @@
         <v>29.75000000000185</v>
       </c>
       <c r="B2977">
-        <v>0.03332404832574663</v>
+        <v>0.03332404832574666</v>
       </c>
       <c r="C2977">
         <v>7.555047040161705</v>
@@ -33112,7 +33112,7 @@
         <v>29.76000000000185</v>
       </c>
       <c r="B2978">
-        <v>0.05927765514590202</v>
+        <v>0.059277655145902</v>
       </c>
       <c r="C2978">
         <v>7.524448271453196</v>
@@ -33134,7 +33134,7 @@
         <v>29.78000000000186</v>
       </c>
       <c r="B2980">
-        <v>0.0304585566297233</v>
+        <v>0.03045855662972327</v>
       </c>
       <c r="C2980">
         <v>7.517331718581481</v>
@@ -33145,7 +33145,7 @@
         <v>29.79000000000186</v>
       </c>
       <c r="B2981">
-        <v>0.0558590608257015</v>
+        <v>0.05585906082570152</v>
       </c>
       <c r="C2981">
         <v>7.487094307017562</v>
@@ -33211,7 +33211,7 @@
         <v>29.85000000000187</v>
       </c>
       <c r="B2987">
-        <v>0.02308204069549815</v>
+        <v>0.02308204069549812</v>
       </c>
       <c r="C2987">
         <v>7.412940381489102</v>
@@ -33222,7 +33222,7 @@
         <v>29.86000000000187</v>
       </c>
       <c r="B2988">
-        <v>0.01519093337306587</v>
+        <v>0.01519093337306589</v>
       </c>
       <c r="C2988">
         <v>7.40970398611728</v>
@@ -33233,7 +33233,7 @@
         <v>29.87000000000187</v>
       </c>
       <c r="B2989">
-        <v>0.04292329354179415</v>
+        <v>0.04292329354179414</v>
       </c>
       <c r="C2989">
         <v>7.379896743168846</v>
@@ -33244,7 +33244,7 @@
         <v>29.88000000000187</v>
       </c>
       <c r="B2990">
-        <v>0.02123884916539331</v>
+        <v>0.02123884916539332</v>
       </c>
       <c r="C2990">
         <v>7.376311570858383</v>
@@ -33266,7 +33266,7 @@
         <v>29.90000000000187</v>
       </c>
       <c r="B2992">
-        <v>0.04354079608223685</v>
+        <v>0.04354079608223682</v>
       </c>
       <c r="C2992">
         <v>7.34371546272325</v>
@@ -33277,7 +33277,7 @@
         <v>29.91000000000188</v>
       </c>
       <c r="B2993">
-        <v>0.01966927362217292</v>
+        <v>0.0196692736221729</v>
       </c>
       <c r="C2993">
         <v>7.340261405652063</v>
@@ -33288,7 +33288,7 @@
         <v>29.92000000000188</v>
       </c>
       <c r="B2994">
-        <v>0.04426152367519086</v>
+        <v>0.04426152367519087</v>
       </c>
       <c r="C2994">
         <v>7.310526833540864</v>
@@ -33299,7 +33299,7 @@
         <v>29.93000000000188</v>
       </c>
       <c r="B2995">
-        <v>0.02488912499060423</v>
+        <v>0.02488912499060424</v>
       </c>
       <c r="C2995">
         <v>7.306794250913649</v>
@@ -33310,7 +33310,7 @@
         <v>29.94000000000188</v>
       </c>
       <c r="B2996">
-        <v>0.01844420235695821</v>
+        <v>0.0184442023569582</v>
       </c>
       <c r="C2996">
         <v>7.303603229705259</v>
@@ -33387,7 +33387,7 @@
         <v>30.01000000000189</v>
       </c>
       <c r="B3003">
-        <v>0.04723820146919012</v>
+        <v>0.04723820146919015</v>
       </c>
       <c r="C3003">
         <v>7.20335404768786</v>
@@ -33398,7 +33398,7 @@
         <v>30.02000000000189</v>
       </c>
       <c r="B3004">
-        <v>0.02668385327701012</v>
+        <v>0.02668385327701008</v>
       </c>
       <c r="C3004">
         <v>7.200035666709049</v>
@@ -33409,7 +33409,7 @@
         <v>30.03000000000189</v>
       </c>
       <c r="B3005">
-        <v>0.05341230222507604</v>
+        <v>0.05341230222507605</v>
       </c>
       <c r="C3005">
         <v>7.17092718984228</v>
@@ -33431,7 +33431,7 @@
         <v>30.0500000000019</v>
       </c>
       <c r="B3007">
-        <v>0.02638878683494908</v>
+        <v>0.02638878683494906</v>
       </c>
       <c r="C3007">
         <v>7.164230204682029</v>
@@ -33442,7 +33442,7 @@
         <v>30.0600000000019</v>
       </c>
       <c r="B3008">
-        <v>0.05024048069106689</v>
+        <v>0.05024048069106693</v>
       </c>
       <c r="C3008">
         <v>7.135445844340607</v>
@@ -33453,7 +33453,7 @@
         <v>30.0700000000019</v>
       </c>
       <c r="B3009">
-        <v>0.02750780909764832</v>
+        <v>0.02750780909764831</v>
       </c>
       <c r="C3009">
         <v>7.132010535599365</v>
@@ -33464,7 +33464,7 @@
         <v>30.0800000000019</v>
       </c>
       <c r="B3010">
-        <v>0.01965807197256122</v>
+        <v>0.01965807197256119</v>
       </c>
       <c r="C3010">
         <v>7.129073656728755</v>
@@ -33475,7 +33475,7 @@
         <v>30.0900000000019</v>
       </c>
       <c r="B3011">
-        <v>0.04521640349248928</v>
+        <v>0.04521640349248929</v>
       </c>
       <c r="C3011">
         <v>7.100542758500384</v>
@@ -33508,7 +33508,7 @@
         <v>30.12000000000191</v>
       </c>
       <c r="B3014">
-        <v>0.045779756616957</v>
+        <v>0.04577975661695703</v>
       </c>
       <c r="C3014">
         <v>7.065927222848016</v>
@@ -33519,7 +33519,7 @@
         <v>30.13000000000191</v>
       </c>
       <c r="B3015">
-        <v>0.02344100223562759</v>
+        <v>0.02344100223562758</v>
       </c>
       <c r="C3015">
         <v>7.062678430766414</v>
@@ -33783,7 +33783,7 @@
         <v>30.37000000000195</v>
       </c>
       <c r="B3039">
-        <v>0.03997671570239356</v>
+        <v>0.03997671570239357</v>
       </c>
       <c r="C3039">
         <v>6.792719510678768</v>
@@ -33805,7 +33805,7 @@
         <v>30.39000000000195</v>
       </c>
       <c r="B3041">
-        <v>0.04848211595712341</v>
+        <v>0.04848211595712343</v>
       </c>
       <c r="C3041">
         <v>6.762678208906367</v>
@@ -33816,7 +33816,7 @@
         <v>30.40000000000195</v>
       </c>
       <c r="B3042">
-        <v>0.03998946755140666</v>
+        <v>0.03998946755140665</v>
       </c>
       <c r="C3042">
         <v>6.760096224707528</v>
@@ -33838,7 +33838,7 @@
         <v>30.42000000000196</v>
       </c>
       <c r="B3044">
-        <v>0.04581856495526387</v>
+        <v>0.04581856495526386</v>
       </c>
       <c r="C3044">
         <v>6.73021077690141</v>
@@ -33926,7 +33926,7 @@
         <v>30.50000000000197</v>
       </c>
       <c r="B3052">
-        <v>0.07679528922887721</v>
+        <v>0.07679528922887718</v>
       </c>
       <c r="C3052">
         <v>6.636745376708068</v>
@@ -33937,7 +33937,7 @@
         <v>30.51000000000197</v>
       </c>
       <c r="B3053">
-        <v>0.0430048883369606</v>
+        <v>0.04300488833696061</v>
       </c>
       <c r="C3053">
         <v>6.63379478084253</v>
@@ -33948,7 +33948,7 @@
         <v>30.52000000000197</v>
       </c>
       <c r="B3054">
-        <v>0.03470287202582623</v>
+        <v>0.03470287202582624</v>
       </c>
       <c r="C3054">
         <v>6.631272287725923</v>
@@ -34003,7 +34003,7 @@
         <v>30.57000000000198</v>
       </c>
       <c r="B3059">
-        <v>0.06760152834033654</v>
+        <v>0.06760152834033653</v>
       </c>
       <c r="C3059">
         <v>6.570304377098071</v>
@@ -34036,7 +34036,7 @@
         <v>30.60000000000198</v>
       </c>
       <c r="B3062">
-        <v>0.07802344644593323</v>
+        <v>0.0780234464459332</v>
       </c>
       <c r="C3062">
         <v>6.538789434598979</v>
@@ -34047,7 +34047,7 @@
         <v>30.61000000000199</v>
       </c>
       <c r="B3063">
-        <v>0.06887643873865015</v>
+        <v>0.06887643873865017</v>
       </c>
       <c r="C3063">
         <v>6.536304468535519</v>
@@ -34113,7 +34113,7 @@
         <v>30.67000000000199</v>
       </c>
       <c r="B3069">
-        <v>0.08250397783727384</v>
+        <v>0.08250397783727381</v>
       </c>
       <c r="C3069">
         <v>6.473753303996847</v>
@@ -34124,7 +34124,7 @@
         <v>30.680000000002</v>
       </c>
       <c r="B3070">
-        <v>0.1356788140047018</v>
+        <v>0.1356788140047019</v>
       </c>
       <c r="C3070">
         <v>6.448016671903243</v>
@@ -34135,7 +34135,7 @@
         <v>30.690000000002</v>
       </c>
       <c r="B3071">
-        <v>0.09243068550778334</v>
+        <v>0.09243068550778333</v>
       </c>
       <c r="C3071">
         <v>6.445151999192359</v>
@@ -34146,7 +34146,7 @@
         <v>30.700000000002</v>
       </c>
       <c r="B3072">
-        <v>0.07795429336755391</v>
+        <v>0.07795429336755393</v>
       </c>
       <c r="C3072">
         <v>6.442702962616751</v>
@@ -34201,7 +34201,7 @@
         <v>30.75000000000201</v>
       </c>
       <c r="B3077">
-        <v>0.08672889755182935</v>
+        <v>0.08672889755182936</v>
       </c>
       <c r="C3077">
         <v>6.383474217236073</v>
@@ -34245,7 +34245,7 @@
         <v>30.79000000000201</v>
       </c>
       <c r="B3081">
-        <v>0.07167046939338809</v>
+        <v>0.07167046939338811</v>
       </c>
       <c r="C3081">
         <v>6.351341663070732</v>
@@ -34278,7 +34278,7 @@
         <v>30.82000000000202</v>
       </c>
       <c r="B3084">
-        <v>0.07416090184714674</v>
+        <v>0.07416090184714677</v>
       </c>
       <c r="C3084">
         <v>6.321440087067295</v>
@@ -34289,7 +34289,7 @@
         <v>30.83000000000202</v>
       </c>
       <c r="B3085">
-        <v>0.06183017885339252</v>
+        <v>0.0618301788533925</v>
       </c>
       <c r="C3085">
         <v>6.319175186311772</v>
@@ -35477,7 +35477,7 @@
         <v>31.91000000000219</v>
       </c>
       <c r="B3193">
-        <v>-0.004871659933175836</v>
+        <v>-0.00487165993317584</v>
       </c>
       <c r="C3193">
         <v>6.346433474111378</v>
@@ -35488,7 +35488,7 @@
         <v>31.92000000000219</v>
       </c>
       <c r="B3194">
-        <v>-0.002753719645692467</v>
+        <v>-0.002753719645692466</v>
       </c>
       <c r="C3194">
         <v>6.349980732637378</v>
@@ -35587,7 +35587,7 @@
         <v>32.0100000000022</v>
       </c>
       <c r="B3203">
-        <v>0.004131265810266674</v>
+        <v>0.004131265810266678</v>
       </c>
       <c r="C3203">
         <v>6.625704401499741</v>
@@ -35598,7 +35598,7 @@
         <v>32.0200000000022</v>
       </c>
       <c r="B3204">
-        <v>-0.006944621487895638</v>
+        <v>-0.006944621487895639</v>
       </c>
       <c r="C3204">
         <v>6.692360699250794</v>
@@ -35609,7 +35609,7 @@
         <v>32.0300000000022</v>
       </c>
       <c r="B3205">
-        <v>-0.004483295551353001</v>
+        <v>-0.004483295551353005</v>
       </c>
       <c r="C3205">
         <v>6.697565391929804</v>
@@ -35620,7 +35620,7 @@
         <v>32.04000000000219</v>
       </c>
       <c r="B3206">
-        <v>-0.006903521286675822</v>
+        <v>-0.006903521286675821</v>
       </c>
       <c r="C3206">
         <v>6.702581297043119</v>
@@ -35752,7 +35752,7 @@
         <v>32.16000000000217</v>
       </c>
       <c r="B3218">
-        <v>-0.04163817711149583</v>
+        <v>-0.04163817711149584</v>
       </c>
       <c r="C3218">
         <v>6.509492447804919</v>
@@ -36720,7 +36720,7 @@
         <v>33.040000000002</v>
       </c>
       <c r="B3306">
-        <v>-0.09911982929605721</v>
+        <v>-0.0991198292960572</v>
       </c>
       <c r="C3306">
         <v>5.56035844610494</v>
@@ -36808,7 +36808,7 @@
         <v>33.12000000000198</v>
       </c>
       <c r="B3314">
-        <v>-0.0678636137118263</v>
+        <v>-0.06786361371182632</v>
       </c>
       <c r="C3314">
         <v>5.505623643840638</v>
@@ -36819,7 +36819,7 @@
         <v>33.13000000000198</v>
       </c>
       <c r="B3315">
-        <v>-0.05596769493619572</v>
+        <v>-0.0559676949361957</v>
       </c>
       <c r="C3315">
         <v>5.504096359268301</v>
@@ -36951,7 +36951,7 @@
         <v>33.25000000000195</v>
       </c>
       <c r="B3327">
-        <v>-0.09317210627847365</v>
+        <v>-0.09317210627847362</v>
       </c>
       <c r="C3327">
         <v>5.404267946678273</v>
@@ -36962,7 +36962,7 @@
         <v>33.26000000000195</v>
       </c>
       <c r="B3328">
-        <v>-0.05712665478731641</v>
+        <v>-0.05712665478731643</v>
       </c>
       <c r="C3328">
         <v>5.402223545465165</v>
@@ -36973,7 +36973,7 @@
         <v>33.27000000000195</v>
       </c>
       <c r="B3329">
-        <v>-0.04882236425939104</v>
+        <v>-0.04882236425939107</v>
       </c>
       <c r="C3329">
         <v>5.400475766974766</v>
@@ -36984,7 +36984,7 @@
         <v>33.28000000000195</v>
       </c>
       <c r="B3330">
-        <v>-0.04163832357659808</v>
+        <v>-0.04163832357659809</v>
       </c>
       <c r="C3330">
         <v>5.398981574136335</v>
@@ -37017,7 +37017,7 @@
         <v>33.31000000000194</v>
       </c>
       <c r="B3333">
-        <v>-0.04487256313275241</v>
+        <v>-0.0448725631327524</v>
       </c>
       <c r="C3333">
         <v>5.380875012033045</v>
@@ -37028,7 +37028,7 @@
         <v>33.32000000000194</v>
       </c>
       <c r="B3334">
-        <v>-0.08283339210909992</v>
+        <v>-0.08283339210909993</v>
       </c>
       <c r="C3334">
         <v>5.381696266188254</v>
@@ -37039,7 +37039,7 @@
         <v>33.33000000000194</v>
       </c>
       <c r="B3335">
-        <v>-0.0526429141302806</v>
+        <v>-0.05264291413028059</v>
       </c>
       <c r="C3335">
         <v>5.380722251097681</v>
@@ -37050,7 +37050,7 @@
         <v>33.34000000000194</v>
       </c>
       <c r="B3336">
-        <v>-0.04654372806173185</v>
+        <v>-0.04654372806173186</v>
       </c>
       <c r="C3336">
         <v>5.379889556118968</v>
@@ -37061,7 +37061,7 @@
         <v>33.35000000000193</v>
       </c>
       <c r="B3337">
-        <v>-0.03837901851436042</v>
+        <v>-0.03837901851436043</v>
       </c>
       <c r="C3337">
         <v>5.37917767707902</v>
@@ -37072,7 +37072,7 @@
         <v>33.36000000000193</v>
       </c>
       <c r="B3338">
-        <v>-0.06721738914695063</v>
+        <v>-0.06721738914695062</v>
       </c>
       <c r="C3338">
         <v>5.394558383347016</v>
@@ -37083,7 +37083,7 @@
         <v>33.37000000000193</v>
       </c>
       <c r="B3339">
-        <v>-0.03768365261889392</v>
+        <v>-0.03768365261889391</v>
       </c>
       <c r="C3339">
         <v>5.394608628711345</v>
@@ -37094,7 +37094,7 @@
         <v>33.38000000000193</v>
       </c>
       <c r="B3340">
-        <v>-0.0303301249898069</v>
+        <v>-0.03033012498980691</v>
       </c>
       <c r="C3340">
         <v>5.394657051547313</v>
@@ -37105,7 +37105,7 @@
         <v>33.39000000000193</v>
       </c>
       <c r="B3341">
-        <v>-0.02114140216190322</v>
+        <v>-0.02114140216190324</v>
       </c>
       <c r="C3341">
         <v>5.394703717962702</v>
@@ -37116,7 +37116,7 @@
         <v>33.40000000000192</v>
       </c>
       <c r="B3342">
-        <v>-0.04380609030531265</v>
+        <v>-0.04380609030531263</v>
       </c>
       <c r="C3342">
         <v>5.423411800733971</v>
@@ -37127,7 +37127,7 @@
         <v>33.41000000000192</v>
       </c>
       <c r="B3343">
-        <v>-0.01574931967059246</v>
+        <v>-0.01574931967059247</v>
       </c>
       <c r="C3343">
         <v>5.423778389409192</v>
@@ -37314,7 +37314,7 @@
         <v>33.58000000000189</v>
       </c>
       <c r="B3360">
-        <v>-0.004869090216631421</v>
+        <v>-0.004869090216631428</v>
       </c>
       <c r="C3360">
         <v>5.754220939965708</v>
@@ -37325,7 +37325,7 @@
         <v>33.59000000000189</v>
       </c>
       <c r="B3361">
-        <v>-0.00162405586212368</v>
+        <v>-0.001624055862123676</v>
       </c>
       <c r="C3361">
         <v>5.75726892234982</v>
@@ -37380,7 +37380,7 @@
         <v>33.64000000000188</v>
       </c>
       <c r="B3366">
-        <v>0.002670598151383966</v>
+        <v>0.002670598151383959</v>
       </c>
       <c r="C3366">
         <v>5.865889326057312</v>
@@ -37391,7 +37391,7 @@
         <v>33.65000000000187</v>
       </c>
       <c r="B3367">
-        <v>0.004162032414312232</v>
+        <v>0.004162032414312236</v>
       </c>
       <c r="C3367">
         <v>5.869304365563881</v>
@@ -37743,7 +37743,7 @@
         <v>33.97000000000181</v>
       </c>
       <c r="B3399">
-        <v>0.08943226096409158</v>
+        <v>0.0894322609640916</v>
       </c>
       <c r="C3399">
         <v>6.243036246494678</v>
@@ -37974,7 +37974,7 @@
         <v>34.18000000000177</v>
       </c>
       <c r="B3420">
-        <v>0.05297585220321623</v>
+        <v>0.05297585220321624</v>
       </c>
       <c r="C3420">
         <v>6.117047296863072</v>
@@ -38007,7 +38007,7 @@
         <v>34.21000000000176</v>
       </c>
       <c r="B3423">
-        <v>0.0439001076665731</v>
+        <v>0.04390010766657311</v>
       </c>
       <c r="C3423">
         <v>6.09051123603232</v>
@@ -38018,7 +38018,7 @@
         <v>34.22000000000176</v>
       </c>
       <c r="B3424">
-        <v>0.03453474619879499</v>
+        <v>0.03453474619879497</v>
       </c>
       <c r="C3424">
         <v>6.089216633857881</v>
@@ -38095,7 +38095,7 @@
         <v>34.29000000000175</v>
       </c>
       <c r="B3431">
-        <v>0.07434048605778476</v>
+        <v>0.07434048605778473</v>
       </c>
       <c r="C3431">
         <v>6.010687590245141</v>
@@ -38106,7 +38106,7 @@
         <v>34.30000000000175</v>
       </c>
       <c r="B3432">
-        <v>0.04284486560369376</v>
+        <v>0.04284486560369377</v>
       </c>
       <c r="C3432">
         <v>6.008298404703802</v>
@@ -38150,7 +38150,7 @@
         <v>34.34000000000174</v>
       </c>
       <c r="B3436">
-        <v>0.0323842942835945</v>
+        <v>0.03238429428359452</v>
       </c>
       <c r="C3436">
         <v>5.981840520412819</v>
@@ -38161,7 +38161,7 @@
         <v>34.35000000000174</v>
       </c>
       <c r="B3437">
-        <v>0.02331141419314924</v>
+        <v>0.02331141419314923</v>
       </c>
       <c r="C3437">
         <v>5.980015136772185</v>
@@ -38260,7 +38260,7 @@
         <v>34.44000000000172</v>
       </c>
       <c r="B3446">
-        <v>0.04172806583560304</v>
+        <v>0.04172806583560305</v>
       </c>
       <c r="C3446">
         <v>5.934444233393808</v>
@@ -38293,7 +38293,7 @@
         <v>34.47000000000171</v>
       </c>
       <c r="B3449">
-        <v>0.04439077178840117</v>
+        <v>0.04439077178840118</v>
       </c>
       <c r="C3449">
         <v>5.927679124262463</v>
@@ -38425,7 +38425,7 @@
         <v>34.59000000000169</v>
       </c>
       <c r="B3461">
-        <v>0.02800038168777089</v>
+        <v>0.0280003816877709</v>
       </c>
       <c r="C3461">
         <v>5.926976578684692</v>
@@ -38722,7 +38722,7 @@
         <v>34.86000000000163</v>
       </c>
       <c r="B3488">
-        <v>0.03131449844346616</v>
+        <v>0.03131449844346609</v>
       </c>
       <c r="C3488">
         <v>6.017391904554493</v>
@@ -38733,7 +38733,7 @@
         <v>34.87000000000163</v>
       </c>
       <c r="B3489">
-        <v>0.05875045193812766</v>
+        <v>0.0587504519381277</v>
       </c>
       <c r="C3489">
         <v>6.033061609172168</v>
@@ -39547,7 +39547,7 @@
         <v>35.61000000000148</v>
       </c>
       <c r="B3563">
-        <v>0.01943273433935607</v>
+        <v>0.01943273433935606</v>
       </c>
       <c r="C3563">
         <v>6.617762544412326</v>
@@ -39987,7 +39987,7 @@
         <v>36.0100000000014</v>
       </c>
       <c r="B3603">
-        <v>0.02572160822550369</v>
+        <v>0.0257216082255037</v>
       </c>
       <c r="C3603">
         <v>7.127584851939182</v>
@@ -40262,7 +40262,7 @@
         <v>36.26000000000136</v>
       </c>
       <c r="B3628">
-        <v>0.008614612038123078</v>
+        <v>0.008614612038123071</v>
       </c>
       <c r="C3628">
         <v>7.468686997379246</v>
@@ -40460,7 +40460,7 @@
         <v>36.44000000000132</v>
       </c>
       <c r="B3646">
-        <v>0.03569151845167902</v>
+        <v>0.03569151845167903</v>
       </c>
       <c r="C3646">
         <v>7.569431957173204</v>
@@ -40746,7 +40746,7 @@
         <v>36.70000000000127</v>
       </c>
       <c r="B3672">
-        <v>0.0703756762014848</v>
+        <v>0.07037567620148483</v>
       </c>
       <c r="C3672">
         <v>7.346284267568243</v>
@@ -40757,7 +40757,7 @@
         <v>36.71000000000127</v>
       </c>
       <c r="B3673">
-        <v>0.0448365881984633</v>
+        <v>0.04483658819846329</v>
       </c>
       <c r="C3673">
         <v>7.343382220232935</v>
@@ -40790,7 +40790,7 @@
         <v>36.74000000000126</v>
       </c>
       <c r="B3676">
-        <v>0.03310971686374416</v>
+        <v>0.03310971686374414</v>
       </c>
       <c r="C3676">
         <v>7.308952754449686</v>
@@ -40867,7 +40867,7 @@
         <v>36.81000000000125</v>
       </c>
       <c r="B3683">
-        <v>0.04414167399080121</v>
+        <v>0.04414167399080123</v>
       </c>
       <c r="C3683">
         <v>7.209288979122055</v>
@@ -40878,7 +40878,7 @@
         <v>36.82000000000124</v>
       </c>
       <c r="B3684">
-        <v>0.0180159593386578</v>
+        <v>0.01801595933865779</v>
       </c>
       <c r="C3684">
         <v>7.206016601706865</v>
@@ -40889,7 +40889,7 @@
         <v>36.83000000000124</v>
       </c>
       <c r="B3685">
-        <v>0.009374792756720922</v>
+        <v>0.009374792756720932</v>
       </c>
       <c r="C3685">
         <v>7.203219014412322</v>
@@ -40900,7 +40900,7 @@
         <v>36.84000000000124</v>
       </c>
       <c r="B3686">
-        <v>0.0427413971625244</v>
+        <v>0.04274139716252439</v>
       </c>
       <c r="C3686">
         <v>7.174532884233354</v>
@@ -40922,7 +40922,7 @@
         <v>36.86000000000124</v>
       </c>
       <c r="B3688">
-        <v>0.01479726507335421</v>
+        <v>0.01479726507335423</v>
       </c>
       <c r="C3688">
         <v>7.168540023707504</v>
@@ -40933,7 +40933,7 @@
         <v>36.87000000000123</v>
       </c>
       <c r="B3689">
-        <v>0.05038053694223496</v>
+        <v>0.05038053694223495</v>
       </c>
       <c r="C3689">
         <v>7.14001036988423</v>
@@ -40955,7 +40955,7 @@
         <v>36.89000000000123</v>
       </c>
       <c r="B3691">
-        <v>0.05954687839061351</v>
+        <v>0.05954687839061353</v>
       </c>
       <c r="C3691">
         <v>7.108033449289131</v>
@@ -40988,7 +40988,7 @@
         <v>36.92000000000122</v>
       </c>
       <c r="B3694">
-        <v>0.0737191490549183</v>
+        <v>0.07371914905491832</v>
       </c>
       <c r="C3694">
         <v>7.073031826506775</v>
@@ -40999,7 +40999,7 @@
         <v>36.93000000000122</v>
       </c>
       <c r="B3695">
-        <v>0.05179203353819172</v>
+        <v>0.05179203353819171</v>
       </c>
       <c r="C3695">
         <v>7.069667687130174</v>
@@ -41032,7 +41032,7 @@
         <v>36.96000000000122</v>
       </c>
       <c r="B3698">
-        <v>0.0588674289213269</v>
+        <v>0.05886742892132689</v>
       </c>
       <c r="C3698">
         <v>7.035273698827343</v>
@@ -41043,7 +41043,7 @@
         <v>36.97000000000121</v>
       </c>
       <c r="B3699">
-        <v>0.0528753080509661</v>
+        <v>0.05287530805096614</v>
       </c>
       <c r="C3699">
         <v>7.032481944579418</v>
@@ -41054,7 +41054,7 @@
         <v>36.98000000000121</v>
       </c>
       <c r="B3700">
-        <v>0.09109576768483511</v>
+        <v>0.0910957676848351</v>
       </c>
       <c r="C3700">
         <v>7.004425330064268</v>
@@ -41076,7 +41076,7 @@
         <v>37.00000000000121</v>
       </c>
       <c r="B3702">
-        <v>0.05090132752670161</v>
+        <v>0.05090132752670158</v>
       </c>
       <c r="C3702">
         <v>6.998492634527185</v>
@@ -41098,7 +41098,7 @@
         <v>37.0200000000012</v>
       </c>
       <c r="B3704">
-        <v>0.06082521489829491</v>
+        <v>0.06082521489829489</v>
       </c>
       <c r="C3704">
         <v>6.967457476263761</v>
@@ -41109,7 +41109,7 @@
         <v>37.0300000000012</v>
       </c>
       <c r="B3705">
-        <v>0.0527501861817818</v>
+        <v>0.05275018618178178</v>
       </c>
       <c r="C3705">
         <v>6.96476379180266</v>
@@ -41120,7 +41120,7 @@
         <v>37.0400000000012</v>
       </c>
       <c r="B3706">
-        <v>0.09314938051990712</v>
+        <v>0.09314938051990718</v>
       </c>
       <c r="C3706">
         <v>6.937036649368248</v>
@@ -41131,7 +41131,7 @@
         <v>37.0500000000012</v>
       </c>
       <c r="B3707">
-        <v>0.05968071410549013</v>
+        <v>0.05968071410549011</v>
       </c>
       <c r="C3707">
         <v>6.933921031797072</v>
@@ -41241,7 +41241,7 @@
         <v>37.15000000000118</v>
       </c>
       <c r="B3717">
-        <v>0.09464914054708594</v>
+        <v>0.09464914054708597</v>
       </c>
       <c r="C3717">
         <v>6.80526483791971</v>
@@ -41252,7 +41252,7 @@
         <v>37.16000000000118</v>
       </c>
       <c r="B3718">
-        <v>0.06097232939835943</v>
+        <v>0.06097232939835942</v>
       </c>
       <c r="C3718">
         <v>6.802156084779346</v>
@@ -41395,7 +41395,7 @@
         <v>37.29000000000115</v>
       </c>
       <c r="B3731">
-        <v>0.06022708227496698</v>
+        <v>0.06022708227496695</v>
       </c>
       <c r="C3731">
         <v>6.669626647820138</v>
@@ -41527,7 +41527,7 @@
         <v>37.41000000000113</v>
       </c>
       <c r="B3743">
-        <v>0.05705381293207558</v>
+        <v>0.05705381293207559</v>
       </c>
       <c r="C3743">
         <v>6.542532099259915</v>
@@ -41538,7 +41538,7 @@
         <v>37.42000000000112</v>
       </c>
       <c r="B3744">
-        <v>0.04245301206555591</v>
+        <v>0.04245301206555589</v>
       </c>
       <c r="C3744">
         <v>6.540404597220454</v>
@@ -41571,7 +41571,7 @@
         <v>37.45000000000112</v>
       </c>
       <c r="B3747">
-        <v>0.04092323221329357</v>
+        <v>0.04092323221329355</v>
       </c>
       <c r="C3747">
         <v>6.509819229319463</v>
@@ -41626,7 +41626,7 @@
         <v>37.50000000000111</v>
       </c>
       <c r="B3752">
-        <v>0.05886484917873078</v>
+        <v>0.05886484917873076</v>
       </c>
       <c r="C3752">
         <v>6.450680499543273</v>
@@ -41692,7 +41692,7 @@
         <v>37.5600000000011</v>
       </c>
       <c r="B3758">
-        <v>0.06937979247573288</v>
+        <v>0.06937979247573287</v>
       </c>
       <c r="C3758">
         <v>6.389312837155558</v>
@@ -41703,7 +41703,7 @@
         <v>37.57000000000109</v>
       </c>
       <c r="B3759">
-        <v>0.05720876832493724</v>
+        <v>0.05720876832493722</v>
       </c>
       <c r="C3759">
         <v>6.386919263081839</v>
@@ -41736,7 +41736,7 @@
         <v>37.60000000000109</v>
       </c>
       <c r="B3762">
-        <v>0.05466499872388638</v>
+        <v>0.05466499872388635</v>
       </c>
       <c r="C3762">
         <v>6.356360500610486</v>
@@ -41758,7 +41758,7 @@
         <v>37.62000000000108</v>
       </c>
       <c r="B3764">
-        <v>0.06652840442661773</v>
+        <v>0.0665284044266177</v>
       </c>
       <c r="C3764">
         <v>6.32831148811694</v>
@@ -41769,7 +41769,7 @@
         <v>37.63000000000108</v>
       </c>
       <c r="B3765">
-        <v>0.05388272205752482</v>
+        <v>0.05388272205752483</v>
       </c>
       <c r="C3765">
         <v>6.325920286129639</v>
@@ -41857,7 +41857,7 @@
         <v>37.71000000000107</v>
       </c>
       <c r="B3773">
-        <v>0.07684761073852361</v>
+        <v>0.07684761073852359</v>
       </c>
       <c r="C3773">
         <v>6.239844957366241</v>
@@ -41868,7 +41868,7 @@
         <v>37.72000000000106</v>
       </c>
       <c r="B3774">
-        <v>0.04089981185823952</v>
+        <v>0.04089981185823954</v>
       </c>
       <c r="C3774">
         <v>6.237175389649756</v>
@@ -41890,7 +41890,7 @@
         <v>37.74000000000106</v>
       </c>
       <c r="B3776">
-        <v>0.07614271588938729</v>
+        <v>0.07614271588938726</v>
       </c>
       <c r="C3776">
         <v>6.210179346384224</v>
@@ -41901,7 +41901,7 @@
         <v>37.75000000000106</v>
       </c>
       <c r="B3777">
-        <v>0.04264429572076062</v>
+        <v>0.04264429572076066</v>
       </c>
       <c r="C3777">
         <v>6.207484505536197</v>
@@ -41912,7 +41912,7 @@
         <v>37.76000000000106</v>
       </c>
       <c r="B3778">
-        <v>0.03475734094160392</v>
+        <v>0.0347573409416039</v>
       </c>
       <c r="C3778">
         <v>6.205180659872718</v>
@@ -41934,7 +41934,7 @@
         <v>37.78000000000105</v>
       </c>
       <c r="B3780">
-        <v>0.07129350177955474</v>
+        <v>0.07129350177955471</v>
       </c>
       <c r="C3780">
         <v>6.178873732438239</v>
@@ -41945,7 +41945,7 @@
         <v>37.79000000000105</v>
       </c>
       <c r="B3781">
-        <v>0.03889616543112699</v>
+        <v>0.03889616543112701</v>
       </c>
       <c r="C3781">
         <v>6.176412329348028</v>
@@ -41967,7 +41967,7 @@
         <v>37.81000000000105</v>
       </c>
       <c r="B3783">
-        <v>0.0732852843845514</v>
+        <v>0.07328528438455137</v>
       </c>
       <c r="C3783">
         <v>6.149964177432326</v>
@@ -41978,7 +41978,7 @@
         <v>37.82000000000104</v>
       </c>
       <c r="B3784">
-        <v>0.04071467441107243</v>
+        <v>0.04071467441107244</v>
       </c>
       <c r="C3784">
         <v>6.147409228117248</v>
@@ -42066,7 +42066,7 @@
         <v>37.90000000000103</v>
       </c>
       <c r="B3792">
-        <v>0.03699938649115912</v>
+        <v>0.03699938649115915</v>
       </c>
       <c r="C3792">
         <v>6.085027680844491</v>
@@ -42077,7 +42077,7 @@
         <v>37.91000000000103</v>
       </c>
       <c r="B3793">
-        <v>0.07323990682943694</v>
+        <v>0.07323990682943693</v>
       </c>
       <c r="C3793">
         <v>6.060942650575591</v>
@@ -42110,7 +42110,7 @@
         <v>37.94000000000102</v>
       </c>
       <c r="B3796">
-        <v>0.06723628797225863</v>
+        <v>0.06723628797225864</v>
       </c>
       <c r="C3796">
         <v>6.032865535241529</v>
@@ -42121,7 +42121,7 @@
         <v>37.95000000000102</v>
       </c>
       <c r="B3797">
-        <v>0.03383013522774147</v>
+        <v>0.03383013522774146</v>
       </c>
       <c r="C3797">
         <v>6.030368758736914</v>
@@ -42154,7 +42154,7 @@
         <v>37.98000000000101</v>
       </c>
       <c r="B3800">
-        <v>0.02556218384623062</v>
+        <v>0.02556218384623061</v>
       </c>
       <c r="C3800">
         <v>6.007279604363508</v>
@@ -42165,7 +42165,7 @@
         <v>37.99000000000101</v>
       </c>
       <c r="B3801">
-        <v>0.0169358107626486</v>
+        <v>0.01693581076264861</v>
       </c>
       <c r="C3801">
         <v>6.005297569087635</v>
@@ -42253,7 +42253,7 @@
         <v>38.070000000001</v>
       </c>
       <c r="B3809">
-        <v>0.06628417242621557</v>
+        <v>0.06628417242621555</v>
       </c>
       <c r="C3809">
         <v>5.968841024276271</v>
@@ -42264,7 +42264,7 @@
         <v>38.08000000000099</v>
       </c>
       <c r="B3810">
-        <v>0.0424579370641026</v>
+        <v>0.04245793706410261</v>
       </c>
       <c r="C3810">
         <v>5.967711913768763</v>
@@ -42308,7 +42308,7 @@
         <v>38.12000000000099</v>
       </c>
       <c r="B3814">
-        <v>0.04718222419983853</v>
+        <v>0.04718222419983854</v>
       </c>
       <c r="C3814">
         <v>5.963488802561731</v>
@@ -42319,7 +42319,7 @@
         <v>38.13000000000098</v>
       </c>
       <c r="B3815">
-        <v>0.04226457644339042</v>
+        <v>0.04226457644339043</v>
       </c>
       <c r="C3815">
         <v>5.962931699082752</v>
@@ -42330,7 +42330,7 @@
         <v>38.14000000000098</v>
       </c>
       <c r="B3816">
-        <v>0.07343006803720591</v>
+        <v>0.07343006803720589</v>
       </c>
       <c r="C3816">
         <v>5.96441681443915</v>
@@ -42363,7 +42363,7 @@
         <v>38.17000000000098</v>
       </c>
       <c r="B3819">
-        <v>0.0670323984310212</v>
+        <v>0.06703239843102121</v>
       </c>
       <c r="C3819">
         <v>5.968339301884198</v>
@@ -42396,7 +42396,7 @@
         <v>38.20000000000097</v>
       </c>
       <c r="B3822">
-        <v>0.02689626217701851</v>
+        <v>0.02689626217701853</v>
       </c>
       <c r="C3822">
         <v>5.968350139749834</v>
@@ -42407,7 +42407,7 @@
         <v>38.21000000000097</v>
       </c>
       <c r="B3823">
-        <v>0.05250193667987536</v>
+        <v>0.05250193667987535</v>
       </c>
       <c r="C3823">
         <v>5.975630586757462</v>
@@ -42484,7 +42484,7 @@
         <v>38.28000000000095</v>
       </c>
       <c r="B3830">
-        <v>0.03006669109602214</v>
+        <v>0.03006669109602215</v>
       </c>
       <c r="C3830">
         <v>5.997977333148962</v>
@@ -42495,7 +42495,7 @@
         <v>38.29000000000095</v>
       </c>
       <c r="B3831">
-        <v>0.0253766424366686</v>
+        <v>0.02537664243666859</v>
       </c>
       <c r="C3831">
         <v>5.998263439075989</v>
@@ -42506,7 +42506,7 @@
         <v>38.30000000000095</v>
       </c>
       <c r="B3832">
-        <v>0.02241410784933671</v>
+        <v>0.02241410784933672</v>
       </c>
       <c r="C3832">
         <v>5.998539167206512</v>
@@ -42517,7 +42517,7 @@
         <v>38.31000000000095</v>
       </c>
       <c r="B3833">
-        <v>0.05189680327507074</v>
+        <v>0.05189680327507073</v>
       </c>
       <c r="C3833">
         <v>6.012425605351133</v>
@@ -42594,7 +42594,7 @@
         <v>38.38000000000093</v>
       </c>
       <c r="B3840">
-        <v>0.06228733209007169</v>
+        <v>0.06228733209007171</v>
       </c>
       <c r="C3840">
         <v>6.048124795656106</v>
@@ -42605,7 +42605,7 @@
         <v>38.39000000000093</v>
       </c>
       <c r="B3841">
-        <v>0.04278682909971561</v>
+        <v>0.04278682909971562</v>
       </c>
       <c r="C3841">
         <v>6.048783396818904</v>
@@ -42616,7 +42616,7 @@
         <v>38.40000000000093</v>
       </c>
       <c r="B3842">
-        <v>0.03642186100255053</v>
+        <v>0.03642186100255052</v>
       </c>
       <c r="C3842">
         <v>6.049418108826672</v>
@@ -42803,7 +42803,7 @@
         <v>38.5700000000009</v>
       </c>
       <c r="B3859">
-        <v>0.02371255797657996</v>
+        <v>0.02371255797657995</v>
       </c>
       <c r="C3859">
         <v>6.172678617511659</v>
@@ -42814,7 +42814,7 @@
         <v>38.58000000000089</v>
       </c>
       <c r="B3860">
-        <v>0.04420203562185007</v>
+        <v>0.04420203562185009</v>
       </c>
       <c r="C3860">
         <v>6.198824214290481</v>
@@ -42880,7 +42880,7 @@
         <v>38.64000000000088</v>
       </c>
       <c r="B3866">
-        <v>0.04680134211022005</v>
+        <v>0.04680134211022004</v>
       </c>
       <c r="C3866">
         <v>6.260660431573833</v>
@@ -42924,7 +42924,7 @@
         <v>38.68000000000087</v>
       </c>
       <c r="B3870">
-        <v>0.03561194464675249</v>
+        <v>0.03561194464675251</v>
       </c>
       <c r="C3870">
         <v>6.2955707649582</v>
@@ -42935,7 +42935,7 @@
         <v>38.69000000000087</v>
       </c>
       <c r="B3871">
-        <v>0.03194893200266533</v>
+        <v>0.03194893200266534</v>
       </c>
       <c r="C3871">
         <v>6.297359373779416</v>
@@ -42968,7 +42968,7 @@
         <v>38.72000000000087</v>
       </c>
       <c r="B3874">
-        <v>0.0328055441503546</v>
+        <v>0.03280554415035462</v>
       </c>
       <c r="C3874">
         <v>6.331728906596243</v>
@@ -42979,7 +42979,7 @@
         <v>38.73000000000086</v>
       </c>
       <c r="B3875">
-        <v>0.02868235111500342</v>
+        <v>0.02868235111500341</v>
       </c>
       <c r="C3875">
         <v>6.333587577998219</v>
@@ -43001,7 +43001,7 @@
         <v>38.75000000000086</v>
       </c>
       <c r="B3877">
-        <v>0.03385696557648331</v>
+        <v>0.03385696557648329</v>
       </c>
       <c r="C3877">
         <v>6.367448724089005</v>
@@ -43012,7 +43012,7 @@
         <v>38.76000000000086</v>
       </c>
       <c r="B3878">
-        <v>0.02844802969774488</v>
+        <v>0.02844802969774489</v>
       </c>
       <c r="C3878">
         <v>6.369438494796619</v>
@@ -43320,7 +43320,7 @@
         <v>39.0400000000008</v>
       </c>
       <c r="B3906">
-        <v>0.01761572891893894</v>
+        <v>0.01761572891893895</v>
       </c>
       <c r="C3906">
         <v>6.750348225276599</v>
@@ -43331,7 +43331,7 @@
         <v>39.0500000000008</v>
       </c>
       <c r="B3907">
-        <v>0.01519916855608831</v>
+        <v>0.0151991685560883</v>
       </c>
       <c r="C3907">
         <v>6.753238400762044</v>
@@ -43551,7 +43551,7 @@
         <v>39.25000000000076</v>
       </c>
       <c r="B3927">
-        <v>0.006348949428732618</v>
+        <v>0.006348949428732612</v>
       </c>
       <c r="C3927">
         <v>7.113580934768623</v>
@@ -43562,7 +43562,7 @@
         <v>39.26000000000076</v>
       </c>
       <c r="B3928">
-        <v>0.004600523779903946</v>
+        <v>0.004600523779903949</v>
       </c>
       <c r="C3928">
         <v>7.117285367383237</v>
@@ -43584,7 +43584,7 @@
         <v>39.28000000000075</v>
       </c>
       <c r="B3930">
-        <v>0.002196520897329017</v>
+        <v>0.002196520897329011</v>
       </c>
       <c r="C3930">
         <v>7.170937904684438</v>
@@ -43595,7 +43595,7 @@
         <v>39.29000000000075</v>
       </c>
       <c r="B3931">
-        <v>-0.0008916263133555181</v>
+        <v>-0.0008916263133555155</v>
       </c>
       <c r="C3931">
         <v>7.17475494294834</v>
@@ -43628,7 +43628,7 @@
         <v>39.32000000000075</v>
       </c>
       <c r="B3934">
-        <v>-0.002767442911467968</v>
+        <v>-0.002767442911467971</v>
       </c>
       <c r="C3934">
         <v>7.282010285978308</v>
@@ -43639,7 +43639,7 @@
         <v>39.33000000000074</v>
       </c>
       <c r="B3935">
-        <v>-0.004023365354364282</v>
+        <v>-0.00402336535436428</v>
       </c>
       <c r="C3935">
         <v>7.286342765357177</v>
@@ -43672,7 +43672,7 @@
         <v>39.36000000000074</v>
       </c>
       <c r="B3938">
-        <v>-0.0006474337798522819</v>
+        <v>-0.0006474337798522785</v>
       </c>
       <c r="C3938">
         <v>7.348488044343874</v>
@@ -43683,7 +43683,7 @@
         <v>39.37000000000074</v>
       </c>
       <c r="B3939">
-        <v>0.001833914047411293</v>
+        <v>0.001833914047411295</v>
       </c>
       <c r="C3939">
         <v>7.352763395939366</v>
@@ -43694,7 +43694,7 @@
         <v>39.38000000000073</v>
       </c>
       <c r="B3940">
-        <v>0.004735306250452611</v>
+        <v>0.004735306250452609</v>
       </c>
       <c r="C3940">
         <v>7.407586310928544</v>
@@ -44167,7 +44167,7 @@
         <v>39.81000000000065</v>
       </c>
       <c r="B3983">
-        <v>-0.04049928472206824</v>
+        <v>-0.04049928472206825</v>
       </c>
       <c r="C3983">
         <v>7.93885059844465</v>
@@ -44244,7 +44244,7 @@
         <v>39.88000000000063</v>
       </c>
       <c r="B3990">
-        <v>-0.03699165459967435</v>
+        <v>-0.03699165459967434</v>
       </c>
       <c r="C3990">
         <v>7.952785895047932</v>
@@ -44343,7 +44343,7 @@
         <v>39.97000000000062</v>
       </c>
       <c r="B3999">
-        <v>-0.02907696616720677</v>
+        <v>-0.02907696616720676</v>
       </c>
       <c r="C3999">
         <v>7.96614212058684</v>
@@ -44376,7 +44376,7 @@
         <v>40.00000000000061</v>
       </c>
       <c r="B4002">
-        <v>-0.0139258522119611</v>
+        <v>-0.01392585221196111</v>
       </c>
       <c r="C4002">
         <v>7.969694432697622</v>
@@ -44420,7 +44420,7 @@
         <v>40.0400000000006</v>
       </c>
       <c r="B4006">
-        <v>-0.03424587974478374</v>
+        <v>-0.03424587974478373</v>
       </c>
       <c r="C4006">
         <v>7.97385797029231</v>
@@ -44431,7 +44431,7 @@
         <v>40.0500000000006</v>
       </c>
       <c r="B4007">
-        <v>-0.02318791044055504</v>
+        <v>-0.02318791044055505</v>
       </c>
       <c r="C4007">
         <v>7.974806208825346</v>
@@ -44651,7 +44651,7 @@
         <v>40.25000000000056</v>
       </c>
       <c r="B4027">
-        <v>-0.05361668405176499</v>
+        <v>-0.05361668405176501</v>
       </c>
       <c r="C4027">
         <v>7.987966888145574</v>
@@ -44827,7 +44827,7 @@
         <v>40.41000000000053</v>
       </c>
       <c r="B4043">
-        <v>-0.04503705665414227</v>
+        <v>-0.04503705665414226</v>
       </c>
       <c r="C4043">
         <v>7.993337373060578</v>
@@ -44838,7 +44838,7 @@
         <v>40.42000000000053</v>
       </c>
       <c r="B4044">
-        <v>-0.06990866603762462</v>
+        <v>-0.06990866603762463</v>
       </c>
       <c r="C4044">
         <v>7.993579043644915</v>
@@ -44849,7 +44849,7 @@
         <v>40.43000000000053</v>
       </c>
       <c r="B4045">
-        <v>-0.04761738266905408</v>
+        <v>-0.0476173826690541</v>
       </c>
       <c r="C4045">
         <v>7.993811948216706</v>
@@ -44860,7 +44860,7 @@
         <v>40.44000000000052</v>
       </c>
       <c r="B4046">
-        <v>-0.03877912213353426</v>
+        <v>-0.03877912213353425</v>
       </c>
       <c r="C4046">
         <v>7.994036404741733</v>
@@ -44893,7 +44893,7 @@
         <v>40.47000000000052</v>
       </c>
       <c r="B4049">
-        <v>-0.03738893132523068</v>
+        <v>-0.03738893132523066</v>
       </c>
       <c r="C4049">
         <v>7.994662095187412</v>
@@ -44904,7 +44904,7 @@
         <v>40.48000000000052</v>
       </c>
       <c r="B4050">
-        <v>-0.06790261872339462</v>
+        <v>-0.06790261872339465</v>
       </c>
       <c r="C4050">
         <v>7.994855714699193</v>
@@ -44948,7 +44948,7 @@
         <v>40.52000000000051</v>
       </c>
       <c r="B4054">
-        <v>-0.03631732849147567</v>
+        <v>-0.03631732849147568</v>
       </c>
       <c r="C4054">
         <v>7.995562463562661</v>
@@ -44959,7 +44959,7 @@
         <v>40.53000000000051</v>
       </c>
       <c r="B4055">
-        <v>-0.06708975930467118</v>
+        <v>-0.06708975930467115</v>
       </c>
       <c r="C4055">
         <v>7.995723424401918</v>
@@ -45014,7 +45014,7 @@
         <v>40.5800000000005</v>
       </c>
       <c r="B4060">
-        <v>-0.06444125420416026</v>
+        <v>-0.06444125420416023</v>
       </c>
       <c r="C4060">
         <v>7.996444773612529</v>
@@ -45025,7 +45025,7 @@
         <v>40.59000000000049</v>
       </c>
       <c r="B4061">
-        <v>-0.03655156439098625</v>
+        <v>-0.03655156439098627</v>
       </c>
       <c r="C4061">
         <v>7.996573730801085</v>
@@ -45058,7 +45058,7 @@
         <v>40.62000000000049</v>
       </c>
       <c r="B4064">
-        <v>-0.02720059041206442</v>
+        <v>-0.02720059041206439</v>
       </c>
       <c r="C4064">
         <v>7.996933209238042</v>
@@ -45069,7 +45069,7 @@
         <v>40.63000000000049</v>
       </c>
       <c r="B4065">
-        <v>-0.05381168088875544</v>
+        <v>-0.05381168088875545</v>
       </c>
       <c r="C4065">
         <v>7.99704444961248</v>
@@ -45124,7 +45124,7 @@
         <v>40.68000000000048</v>
       </c>
       <c r="B4070">
-        <v>-0.06193760315280886</v>
+        <v>-0.06193760315280888</v>
       </c>
       <c r="C4070">
         <v>7.997542975568601</v>
@@ -45135,7 +45135,7 @@
         <v>40.69000000000047</v>
       </c>
       <c r="B4071">
-        <v>-0.04354460820792763</v>
+        <v>-0.04354460820792762</v>
       </c>
       <c r="C4071">
         <v>7.99763209815275</v>
@@ -45179,7 +45179,7 @@
         <v>40.73000000000047</v>
       </c>
       <c r="B4075">
-        <v>-0.07195991170161714</v>
+        <v>-0.07195991170161711</v>
       </c>
       <c r="C4075">
         <v>7.997957412913012</v>
@@ -45190,7 +45190,7 @@
         <v>40.74000000000046</v>
       </c>
       <c r="B4076">
-        <v>-0.05137807396777862</v>
+        <v>-0.05137807396777864</v>
       </c>
       <c r="C4076">
         <v>7.998031502790677</v>
@@ -45245,7 +45245,7 @@
         <v>40.79000000000045</v>
       </c>
       <c r="B4081">
-        <v>-0.04092922272052735</v>
+        <v>-0.04092922272052732</v>
       </c>
       <c r="C4081">
         <v>7.99836353805475</v>
@@ -45256,7 +45256,7 @@
         <v>40.80000000000045</v>
       </c>
       <c r="B4082">
-        <v>-0.05849551947367879</v>
+        <v>-0.05849551947367881</v>
       </c>
       <c r="C4082">
         <v>7.998422896730862</v>
@@ -45278,7 +45278,7 @@
         <v>40.82000000000045</v>
       </c>
       <c r="B4084">
-        <v>-0.02674060823499706</v>
+        <v>-0.02674060823499708</v>
       </c>
       <c r="C4084">
         <v>7.998535232906515</v>
@@ -45289,7 +45289,7 @@
         <v>40.83000000000045</v>
       </c>
       <c r="B4085">
-        <v>-0.0467110651320598</v>
+        <v>-0.04671106513205979</v>
       </c>
       <c r="C4085">
         <v>7.998588363769554</v>
@@ -45322,7 +45322,7 @@
         <v>40.86000000000044</v>
       </c>
       <c r="B4088">
-        <v>-0.03888659732558196</v>
+        <v>-0.03888659732558197</v>
       </c>
       <c r="C4088">
         <v>7.998736470283144</v>
@@ -45333,7 +45333,7 @@
         <v>40.87000000000044</v>
       </c>
       <c r="B4089">
-        <v>-0.01941746394665768</v>
+        <v>-0.01941746394665767</v>
       </c>
       <c r="C4089">
         <v>7.998782301749888</v>
@@ -45344,7 +45344,7 @@
         <v>40.88000000000044</v>
       </c>
       <c r="B4090">
-        <v>-0.04288637541005087</v>
+        <v>-0.04288637541005084</v>
       </c>
       <c r="C4090">
         <v>7.998826470791667</v>
@@ -45355,7 +45355,7 @@
         <v>40.89000000000043</v>
       </c>
       <c r="B4091">
-        <v>-0.02552220875994097</v>
+        <v>-0.02552220875994098</v>
       </c>
       <c r="C4091">
         <v>7.998869037708904</v>
@@ -45377,7 +45377,7 @@
         <v>40.91000000000043</v>
       </c>
       <c r="B4093">
-        <v>-0.04011318883434804</v>
+        <v>-0.04011318883434806</v>
       </c>
       <c r="C4093">
         <v>7.99894959551452</v>
@@ -45388,7 +45388,7 @@
         <v>40.92000000000043</v>
       </c>
       <c r="B4094">
-        <v>-0.01967133122392785</v>
+        <v>-0.01967133122392784</v>
       </c>
       <c r="C4094">
         <v>7.998987696381956</v>
@@ -45421,7 +45421,7 @@
         <v>40.95000000000042</v>
       </c>
       <c r="B4097">
-        <v>-0.01872243103422674</v>
+        <v>-0.01872243103422671</v>
       </c>
       <c r="C4097">
         <v>7.999093905585382</v>
@@ -45432,7 +45432,7 @@
         <v>40.96000000000042</v>
       </c>
       <c r="B4098">
-        <v>-0.04216646590578438</v>
+        <v>-0.04216646590578442</v>
       </c>
       <c r="C4098">
         <v>7.999126771956054</v>
@@ -45443,7 +45443,7 @@
         <v>40.97000000000042</v>
       </c>
       <c r="B4099">
-        <v>-0.02605103657175467</v>
+        <v>-0.02605103657175465</v>
       </c>
       <c r="C4099">
         <v>7.999158446179083</v>
@@ -45487,7 +45487,7 @@
         <v>41.01000000000041</v>
       </c>
       <c r="B4103">
-        <v>-0.04820975878697112</v>
+        <v>-0.04820975878697109</v>
       </c>
       <c r="C4103">
         <v>7.999274063251564</v>
@@ -45498,7 +45498,7 @@
         <v>41.02000000000041</v>
       </c>
       <c r="B4104">
-        <v>-0.0296331107817004</v>
+        <v>-0.02963311078170039</v>
       </c>
       <c r="C4104">
         <v>7.999300394841158</v>
@@ -45509,7 +45509,7 @@
         <v>41.03000000000041</v>
       </c>
       <c r="B4105">
-        <v>-0.04779617702355995</v>
+        <v>-0.04779617702355997</v>
       </c>
       <c r="C4105">
         <v>7.999325771316395</v>
@@ -45531,7 +45531,7 @@
         <v>41.0500000000004</v>
       </c>
       <c r="B4107">
-        <v>-0.02867201737010102</v>
+        <v>-0.02867201737010099</v>
       </c>
       <c r="C4107">
         <v>7.999373796244955</v>
@@ -45542,7 +45542,7 @@
         <v>41.0600000000004</v>
       </c>
       <c r="B4108">
-        <v>-0.0499354157700282</v>
+        <v>-0.04993541577002822</v>
       </c>
       <c r="C4108">
         <v>7.999396510262829</v>
@@ -45641,7 +45641,7 @@
         <v>41.15000000000038</v>
       </c>
       <c r="B4117">
-        <v>-0.02027307386372389</v>
+        <v>-0.02027307386372387</v>
       </c>
       <c r="C4117">
         <v>7.999567229268267</v>
@@ -45652,7 +45652,7 @@
         <v>41.16000000000038</v>
       </c>
       <c r="B4118">
-        <v>-0.03843608208471603</v>
+        <v>-0.03843608208471604</v>
       </c>
       <c r="C4118">
         <v>7.999582926973778</v>
@@ -45674,7 +45674,7 @@
         <v>41.18000000000038</v>
       </c>
       <c r="B4120">
-        <v>-0.04152414503144319</v>
+        <v>-0.04152414503144321</v>
       </c>
       <c r="C4120">
         <v>7.999612634850016</v>
@@ -45685,7 +45685,7 @@
         <v>41.19000000000037</v>
       </c>
       <c r="B4121">
-        <v>-0.02803786407969612</v>
+        <v>-0.02803786407969608</v>
       </c>
       <c r="C4121">
         <v>7.999626685578505</v>
@@ -45696,7 +45696,7 @@
         <v>41.20000000000037</v>
       </c>
       <c r="B4122">
-        <v>-0.02146318932430536</v>
+        <v>-0.02146318932430537</v>
       </c>
       <c r="C4122">
         <v>7.999640226650999</v>
@@ -45718,7 +45718,7 @@
         <v>41.22000000000037</v>
       </c>
       <c r="B4124">
-        <v>-0.019341089752802</v>
+        <v>-0.01934108975280203</v>
       </c>
       <c r="C4124">
         <v>7.999665853103571</v>
@@ -45729,7 +45729,7 @@
         <v>41.23000000000037</v>
       </c>
       <c r="B4125">
-        <v>-0.03255626553624042</v>
+        <v>-0.03255626553624041</v>
       </c>
       <c r="C4125">
         <v>7.999677973469375</v>
@@ -45740,7 +45740,7 @@
         <v>41.24000000000036</v>
       </c>
       <c r="B4126">
-        <v>-0.01942042697832385</v>
+        <v>-0.01942042697832387</v>
       </c>
       <c r="C4126">
         <v>7.999689654198392</v>
@@ -45751,7 +45751,7 @@
         <v>41.25000000000036</v>
       </c>
       <c r="B4127">
-        <v>-0.0140796839195187</v>
+        <v>-0.01407968391951868</v>
       </c>
       <c r="C4127">
         <v>7.99970091123738</v>
@@ -45784,7 +45784,7 @@
         <v>41.28000000000036</v>
       </c>
       <c r="B4130">
-        <v>-0.03242587996054334</v>
+        <v>-0.03242587996054333</v>
       </c>
       <c r="C4130">
         <v>7.999732291130394</v>
@@ -45795,7 +45795,7 @@
         <v>41.29000000000035</v>
       </c>
       <c r="B4131">
-        <v>-0.02023385152205185</v>
+        <v>-0.02023385152205187</v>
       </c>
       <c r="C4131">
         <v>7.999742001618396</v>
@@ -45817,7 +45817,7 @@
         <v>41.31000000000035</v>
       </c>
       <c r="B4133">
-        <v>-0.03244391999046758</v>
+        <v>-0.0324439199904676</v>
       </c>
       <c r="C4133">
         <v>7.999760378697488</v>
@@ -45828,7 +45828,7 @@
         <v>41.32000000000035</v>
       </c>
       <c r="B4134">
-        <v>-0.01767035381312173</v>
+        <v>-0.01767035381312174</v>
       </c>
       <c r="C4134">
         <v>7.99976907037732</v>
@@ -45839,7 +45839,7 @@
         <v>41.33000000000035</v>
       </c>
       <c r="B4135">
-        <v>-0.03003059421345647</v>
+        <v>-0.03003059421345646</v>
       </c>
       <c r="C4135">
         <v>7.99977744678761</v>
@@ -45861,7 +45861,7 @@
         <v>41.35000000000034</v>
       </c>
       <c r="B4137">
-        <v>-0.01424068362608106</v>
+        <v>-0.01424068362608108</v>
       </c>
       <c r="C4137">
         <v>7.999793299127306</v>
@@ -45872,7 +45872,7 @@
         <v>41.36000000000034</v>
       </c>
       <c r="B4138">
-        <v>-0.02900962332128925</v>
+        <v>-0.02900962332128924</v>
       </c>
       <c r="C4138">
         <v>7.999800796698631</v>
@@ -45938,7 +45938,7 @@
         <v>41.42000000000033</v>
       </c>
       <c r="B4144">
-        <v>-0.02132093991859412</v>
+        <v>-0.02132093991859411</v>
       </c>
       <c r="C4144">
         <v>7.999840404052226</v>
@@ -45949,7 +45949,7 @@
         <v>41.43000000000033</v>
       </c>
       <c r="B4145">
-        <v>-0.03373010006838496</v>
+        <v>-0.03373010006838497</v>
       </c>
       <c r="C4145">
         <v>7.99984619300699</v>
@@ -45960,7 +45960,7 @@
         <v>41.44000000000032</v>
       </c>
       <c r="B4146">
-        <v>-0.02492246399097577</v>
+        <v>-0.02492246399097575</v>
       </c>
       <c r="C4146">
         <v>7.999851771981501</v>
@@ -45971,7 +45971,7 @@
         <v>41.45000000000032</v>
       </c>
       <c r="B4147">
-        <v>-0.02177267783301939</v>
+        <v>-0.0217726778330194</v>
       </c>
       <c r="C4147">
         <v>7.999857148592285</v>
@@ -46070,7 +46070,7 @@
         <v>41.5400000000003</v>
       </c>
       <c r="B4156">
-        <v>-0.01520017658785411</v>
+        <v>-0.01520017658785412</v>
       </c>
       <c r="C4156">
         <v>7.99989755930476</v>
@@ -46125,7 +46125,7 @@
         <v>41.59000000000029</v>
       </c>
       <c r="B4161">
-        <v>-0.008083170472682231</v>
+        <v>-0.008083170472682217</v>
       </c>
       <c r="C4161">
         <v>7.999914838436848</v>
@@ -46136,7 +46136,7 @@
         <v>41.60000000000029</v>
       </c>
       <c r="B4162">
-        <v>-0.005084690795143157</v>
+        <v>-0.005084690795143163</v>
       </c>
       <c r="C4162">
         <v>7.999917927465383</v>
@@ -46147,7 +46147,7 @@
         <v>41.61000000000029</v>
       </c>
       <c r="B4163">
-        <v>-0.01357298805989662</v>
+        <v>-0.0135729880598966</v>
       </c>
       <c r="C4163">
         <v>7.999920904446921</v>
@@ -46158,7 +46158,7 @@
         <v>41.62000000000029</v>
       </c>
       <c r="B4164">
-        <v>-0.005028016635297765</v>
+        <v>-0.005028016635297758</v>
       </c>
       <c r="C4164">
         <v>7.999923773445697</v>
@@ -46169,7 +46169,7 @@
         <v>41.63000000000029</v>
       </c>
       <c r="B4165">
-        <v>-0.01276927742145458</v>
+        <v>-0.01276927742145459</v>
       </c>
       <c r="C4165">
         <v>7.999926538378522</v>
@@ -46202,7 +46202,7 @@
         <v>41.66000000000028</v>
       </c>
       <c r="B4168">
-        <v>-0.0100758086042096</v>
+        <v>-0.01007580860420962</v>
       </c>
       <c r="C4168">
         <v>7.999934245849047</v>
@@ -46213,7 +46213,7 @@
         <v>41.67000000000028</v>
       </c>
       <c r="B4169">
-        <v>-0.000923690231745114</v>
+        <v>-0.0009236902317451209</v>
       </c>
       <c r="C4169">
         <v>7.999936630920916</v>
@@ -46224,7 +46224,7 @@
         <v>41.68000000000028</v>
       </c>
       <c r="B4170">
-        <v>-0.009082568512460778</v>
+        <v>-0.009082568512460771</v>
       </c>
       <c r="C4170">
         <v>7.999938929480105</v>
@@ -46356,7 +46356,7 @@
         <v>41.80000000000025</v>
       </c>
       <c r="B4182">
-        <v>0.008187988917287071</v>
+        <v>0.008187988917287078</v>
       </c>
       <c r="C4182">
         <v>7.999960800342339</v>
@@ -46367,7 +46367,7 @@
         <v>41.81000000000025</v>
       </c>
       <c r="B4183">
-        <v>-0.001718659659194583</v>
+        <v>-0.001718659659194592</v>
       </c>
       <c r="C4183">
         <v>7.999962222214561</v>
@@ -46378,7 +46378,7 @@
         <v>41.82000000000025</v>
       </c>
       <c r="B4184">
-        <v>0.001537380395717202</v>
+        <v>0.001537380395717205</v>
       </c>
       <c r="C4184">
         <v>7.999963592511827</v>
@@ -46389,7 +46389,7 @@
         <v>41.83000000000025</v>
       </c>
       <c r="B4185">
-        <v>-0.008701877721676535</v>
+        <v>-0.008701877721676542</v>
       </c>
       <c r="C4185">
         <v>7.999964913104894</v>
@@ -46400,7 +46400,7 @@
         <v>41.84000000000024</v>
       </c>
       <c r="B4186">
-        <v>-0.006466618474173434</v>
+        <v>-0.006466618474173424</v>
       </c>
       <c r="C4186">
         <v>7.99996618579666</v>
@@ -46411,7 +46411,7 @@
         <v>41.85000000000024</v>
       </c>
       <c r="B4187">
-        <v>-0.00572220091746448</v>
+        <v>-0.005722200917464482</v>
       </c>
       <c r="C4187">
         <v>7.999967412324628</v>
@@ -46433,7 +46433,7 @@
         <v>41.87000000000024</v>
       </c>
       <c r="B4189">
-        <v>-0.008056171657913013</v>
+        <v>-0.008056171657913006</v>
       </c>
       <c r="C4189">
         <v>7.99996973352635</v>
@@ -46444,7 +46444,7 @@
         <v>41.88000000000024</v>
       </c>
       <c r="B4190">
-        <v>-0.01401114891256077</v>
+        <v>-0.01401114891256078</v>
       </c>
       <c r="C4190">
         <v>7.999970831369054</v>
@@ -46488,7 +46488,7 @@
         <v>41.92000000000023</v>
       </c>
       <c r="B4194">
-        <v>-0.005708775986718676</v>
+        <v>-0.005708775986718669</v>
       </c>
       <c r="C4194">
         <v>7.999974838708376</v>
@@ -46499,7 +46499,7 @@
         <v>41.93000000000023</v>
       </c>
       <c r="B4195">
-        <v>-0.008103088858066002</v>
+        <v>-0.008103088858066005</v>
       </c>
       <c r="C4195">
         <v>7.999975751373021</v>
@@ -46510,7 +46510,7 @@
         <v>41.94000000000023</v>
       </c>
       <c r="B4196">
-        <v>-0.003191999728969386</v>
+        <v>-0.003191999728969392</v>
       </c>
       <c r="C4196">
         <v>7.999976630932976</v>
@@ -46521,7 +46521,7 @@
         <v>41.95000000000022</v>
       </c>
       <c r="B4197">
-        <v>0.0004851651380312289</v>
+        <v>0.0004851651380312324</v>
       </c>
       <c r="C4197">
         <v>7.999977478589034</v>
@@ -46598,7 +46598,7 @@
         <v>42.02000000000021</v>
       </c>
       <c r="B4204">
-        <v>0.0004817885442140579</v>
+        <v>0.0004817885442140613</v>
       </c>
       <c r="C4204">
         <v>7.999982610978456</v>
@@ -46609,7 +46609,7 @@
         <v>42.03000000000021</v>
       </c>
       <c r="B4205">
-        <v>-0.005630597863651636</v>
+        <v>-0.005630597863651634</v>
       </c>
       <c r="C4205">
         <v>7.999983241722911</v>
@@ -46620,7 +46620,7 @@
         <v>42.04000000000021</v>
       </c>
       <c r="B4206">
-        <v>-0.00494763309499312</v>
+        <v>-0.004947633094993121</v>
       </c>
       <c r="C4206">
         <v>7.999983849588646</v>
@@ -46631,7 +46631,7 @@
         <v>42.0500000000002</v>
       </c>
       <c r="B4207">
-        <v>-0.004033876154040093</v>
+        <v>-0.004033876154040096</v>
       </c>
       <c r="C4207">
         <v>7.999984435405529</v>
@@ -46642,7 +46642,7 @@
         <v>42.0600000000002</v>
       </c>
       <c r="B4208">
-        <v>-0.007207897419617656</v>
+        <v>-0.007207897419617654</v>
       </c>
       <c r="C4208">
         <v>7.99998499997333</v>
@@ -46653,7 +46653,7 @@
         <v>42.0700000000002</v>
       </c>
       <c r="B4209">
-        <v>-0.003612933378148005</v>
+        <v>-0.003612933378148003</v>
       </c>
       <c r="C4209">
         <v>7.999985544062808</v>
@@ -46664,7 +46664,7 @@
         <v>42.0800000000002</v>
       </c>
       <c r="B4210">
-        <v>-0.005292588948329473</v>
+        <v>-0.005292588948329478</v>
       </c>
       <c r="C4210">
         <v>7.999986068416763</v>
@@ -46675,7 +46675,7 @@
         <v>42.0900000000002</v>
       </c>
       <c r="B4211">
-        <v>-0.001246856573072325</v>
+        <v>-0.001246856573072324</v>
       </c>
       <c r="C4211">
         <v>7.999986573751054</v>
@@ -46686,7 +46686,7 @@
         <v>42.10000000000019</v>
       </c>
       <c r="B4212">
-        <v>0.000472483940091088</v>
+        <v>0.0004724839400910914</v>
       </c>
       <c r="C4212">
         <v>7.999987060755573</v>
@@ -46697,7 +46697,7 @@
         <v>42.11000000000019</v>
       </c>
       <c r="B4213">
-        <v>0.001447924216715191</v>
+        <v>0.001447924216715189</v>
       </c>
       <c r="C4213">
         <v>7.999987530095188</v>
@@ -46741,7 +46741,7 @@
         <v>42.15000000000018</v>
       </c>
       <c r="B4217">
-        <v>0.01028525972475623</v>
+        <v>0.01028525972475624</v>
       </c>
       <c r="C4217">
         <v>7.999989243276036</v>
@@ -46763,7 +46763,7 @@
         <v>42.17000000000018</v>
       </c>
       <c r="B4219">
-        <v>0.009298998185932725</v>
+        <v>0.009298998185932727</v>
       </c>
       <c r="C4219">
         <v>7.999990009471412</v>
@@ -46796,7 +46796,7 @@
         <v>42.20000000000017</v>
       </c>
       <c r="B4222">
-        <v>0.00539957638165001</v>
+        <v>0.005399576381650012</v>
       </c>
       <c r="C4222">
         <v>7.999991057660972</v>
@@ -46807,7 +46807,7 @@
         <v>42.21000000000017</v>
       </c>
       <c r="B4223">
-        <v>0.002423377990962032</v>
+        <v>0.002423377990962031</v>
       </c>
       <c r="C4223">
         <v>7.999991382022566</v>
@@ -46829,7 +46829,7 @@
         <v>42.23000000000017</v>
       </c>
       <c r="B4225">
-        <v>-0.002020544780599362</v>
+        <v>-0.002020544780599361</v>
       </c>
       <c r="C4225">
         <v>7.999991995876234</v>
@@ -46906,7 +46906,7 @@
         <v>42.30000000000015</v>
       </c>
       <c r="B4232">
-        <v>-0.00626013505679897</v>
+        <v>-0.006260135056798972</v>
       </c>
       <c r="C4232">
         <v>7.999993819930696</v>
@@ -46917,7 +46917,7 @@
         <v>42.31000000000015</v>
       </c>
       <c r="B4233">
-        <v>-0.001764236836390519</v>
+        <v>-0.001764236836390518</v>
       </c>
       <c r="C4233">
         <v>7.999994044097676</v>
@@ -47038,7 +47038,7 @@
         <v>42.42000000000013</v>
       </c>
       <c r="B4244">
-        <v>0.01924456959417028</v>
+        <v>0.01924456959417029</v>
       </c>
       <c r="C4244">
         <v>7.999996033166224</v>
@@ -47104,7 +47104,7 @@
         <v>42.48000000000012</v>
       </c>
       <c r="B4250">
-        <v>0.01954157074167738</v>
+        <v>0.01954157074167739</v>
       </c>
       <c r="C4250">
         <v>7.999996821887028</v>
@@ -47302,7 +47302,7 @@
         <v>42.66000000000008</v>
       </c>
       <c r="B4268">
-        <v>0.009224506891474773</v>
+        <v>0.009224506891474776</v>
       </c>
       <c r="C4268">
         <v>7.999998365649062</v>
@@ -47313,7 +47313,7 @@
         <v>42.67000000000008</v>
       </c>
       <c r="B4269">
-        <v>0.00218074168294154</v>
+        <v>0.002180741682941538</v>
       </c>
       <c r="C4269">
         <v>7.999998424931166</v>
@@ -47544,7 +47544,7 @@
         <v>42.88000000000004</v>
       </c>
       <c r="B4290">
-        <v>0.02376176742154253</v>
+        <v>0.02376176742154252</v>
       </c>
       <c r="C4290">
         <v>7.999999274999698</v>
@@ -47599,7 +47599,7 @@
         <v>42.93000000000003</v>
       </c>
       <c r="B4295">
-        <v>0.031899423128049</v>
+        <v>0.03189942312804899</v>
       </c>
       <c r="C4295">
         <v>7.999999397288755</v>
@@ -47632,7 +47632,7 @@
         <v>42.96000000000002</v>
       </c>
       <c r="B4298">
-        <v>0.037715931082485</v>
+        <v>0.03771593108248501</v>
       </c>
       <c r="C4298">
         <v>7.999999460524211</v>
@@ -47698,7 +47698,7 @@
         <v>43.02000000000001</v>
       </c>
       <c r="B4304">
-        <v>0.03043362847464609</v>
+        <v>0.0304336284746461</v>
       </c>
       <c r="C4304">
         <v>7.999999567787535</v>
@@ -47720,7 +47720,7 @@
         <v>43.04000000000001</v>
       </c>
       <c r="B4306">
-        <v>0.03256075326906992</v>
+        <v>0.03256075326906989</v>
       </c>
       <c r="C4306">
         <v>7.999999598573785</v>
@@ -47731,7 +47731,7 @@
         <v>43.05</v>
       </c>
       <c r="B4307">
-        <v>0.02876621192215167</v>
+        <v>0.02876621192215168</v>
       </c>
       <c r="C4307">
         <v>7.999999613134544</v>
@@ -47742,7 +47742,7 @@
         <v>43.06</v>
       </c>
       <c r="B4308">
-        <v>0.04463380022243596</v>
+        <v>0.04463380022243595</v>
       </c>
       <c r="C4308">
         <v>7.999999627167147</v>
@@ -47753,7 +47753,7 @@
         <v>43.07</v>
       </c>
       <c r="B4309">
-        <v>0.033522911441832</v>
+        <v>0.03352291144183201</v>
       </c>
       <c r="C4309">
         <v>7.999999640690753</v>
@@ -47808,7 +47808,7 @@
         <v>43.11999999999999</v>
       </c>
       <c r="B4314">
-        <v>0.02562001944799047</v>
+        <v>0.02562001944799046</v>
       </c>
       <c r="C4314">
         <v>7.999999701297057</v>
@@ -47841,7 +47841,7 @@
         <v>43.14999999999998</v>
       </c>
       <c r="B4317">
-        <v>0.0232001277555777</v>
+        <v>0.02320012775557771</v>
       </c>
       <c r="C4317">
         <v>7.99999973263647</v>
@@ -47852,7 +47852,7 @@
         <v>43.15999999999998</v>
       </c>
       <c r="B4318">
-        <v>0.04230354762589239</v>
+        <v>0.04230354762589238</v>
       </c>
       <c r="C4318">
         <v>7.999999742334432</v>
@@ -48028,7 +48028,7 @@
         <v>43.31999999999995</v>
       </c>
       <c r="B4334">
-        <v>0.03578822797163678</v>
+        <v>0.03578822797163679</v>
       </c>
       <c r="C4334">
         <v>7.999999857332869</v>
@@ -48039,7 +48039,7 @@
         <v>43.32999999999995</v>
       </c>
       <c r="B4335">
-        <v>0.03134825756393116</v>
+        <v>0.03134825756393114</v>
       </c>
       <c r="C4335">
         <v>7.999999862507772</v>
@@ -48050,7 +48050,7 @@
         <v>43.33999999999995</v>
       </c>
       <c r="B4336">
-        <v>0.05904178396192866</v>
+        <v>0.05904178396192868</v>
       </c>
       <c r="C4336">
         <v>7.999999867494968</v>
@@ -48061,7 +48061,7 @@
         <v>43.34999999999994</v>
       </c>
       <c r="B4337">
-        <v>0.04274046660091476</v>
+        <v>0.04274046660091475</v>
       </c>
       <c r="C4337">
         <v>7.999999872301266</v>
@@ -48083,7 +48083,7 @@
         <v>43.36999999999994</v>
       </c>
       <c r="B4339">
-        <v>0.05084166768295021</v>
+        <v>0.0508416676829502</v>
       </c>
       <c r="C4339">
         <v>7.999999881397175</v>
@@ -48248,7 +48248,7 @@
         <v>43.51999999999991</v>
       </c>
       <c r="B4354">
-        <v>0.05255344378790339</v>
+        <v>0.05255344378790341</v>
       </c>
       <c r="C4354">
         <v>7.999999931859024</v>
@@ -48259,7 +48259,7 @@
         <v>43.52999999999991</v>
       </c>
       <c r="B4355">
-        <v>0.0419224706012568</v>
+        <v>0.04192247060125679</v>
       </c>
       <c r="C4355">
         <v>7.999999934330671</v>
@@ -48270,7 +48270,7 @@
         <v>43.53999999999991</v>
       </c>
       <c r="B4356">
-        <v>0.07068255149146621</v>
+        <v>0.07068255149146618</v>
       </c>
       <c r="C4356">
         <v>7.999999936712666</v>
@@ -48281,7 +48281,7 @@
         <v>43.5499999999999</v>
       </c>
       <c r="B4357">
-        <v>0.04233989073425905</v>
+        <v>0.04233989073425909</v>
       </c>
       <c r="C4357">
         <v>7.99999993900826</v>
@@ -48292,7 +48292,7 @@
         <v>43.5599999999999</v>
       </c>
       <c r="B4358">
-        <v>0.07032139791682383</v>
+        <v>0.07032139791682385</v>
       </c>
       <c r="C4358">
         <v>7.971533642298584</v>
@@ -48303,7 +48303,7 @@
         <v>43.5699999999999</v>
       </c>
       <c r="B4359">
-        <v>0.04561708591916484</v>
+        <v>0.04561708591916482</v>
       </c>
       <c r="C4359">
         <v>7.970249543750474</v>
@@ -48369,7 +48369,7 @@
         <v>43.62999999999989</v>
       </c>
       <c r="B4365">
-        <v>0.03487665923917227</v>
+        <v>0.03487665923917224</v>
       </c>
       <c r="C4365">
         <v>7.900864625802138</v>
@@ -48380,7 +48380,7 @@
         <v>43.63999999999989</v>
       </c>
       <c r="B4366">
-        <v>0.06614356554679118</v>
+        <v>0.06614356554679121</v>
       </c>
       <c r="C4366">
         <v>7.869923466737761</v>
@@ -48424,7 +48424,7 @@
         <v>43.67999999999988</v>
       </c>
       <c r="B4370">
-        <v>0.02186139414326935</v>
+        <v>0.02186139414326936</v>
       </c>
       <c r="C4370">
         <v>7.82889836350151</v>
@@ -48435,7 +48435,7 @@
         <v>43.68999999999988</v>
       </c>
       <c r="B4371">
-        <v>0.05644777725139227</v>
+        <v>0.05644777725139226</v>
       </c>
       <c r="C4371">
         <v>7.797724961638891</v>
@@ -48446,7 +48446,7 @@
         <v>43.69999999999987</v>
       </c>
       <c r="B4372">
-        <v>0.02522635228231953</v>
+        <v>0.02522635228231956</v>
       </c>
       <c r="C4372">
         <v>7.79421739543369</v>
@@ -48457,7 +48457,7 @@
         <v>43.70999999999987</v>
       </c>
       <c r="B4373">
-        <v>0.01486511131776225</v>
+        <v>0.01486511131776223</v>
       </c>
       <c r="C4373">
         <v>7.791218742954031</v>
@@ -48490,7 +48490,7 @@
         <v>43.73999999999987</v>
       </c>
       <c r="B4376">
-        <v>0.06908480105839923</v>
+        <v>0.06908480105839926</v>
       </c>
       <c r="C4376">
         <v>7.72546352351637</v>
@@ -48501,7 +48501,7 @@
         <v>43.74999999999986</v>
       </c>
       <c r="B4377">
-        <v>0.04263782336015697</v>
+        <v>0.04263782336015695</v>
       </c>
       <c r="C4377">
         <v>7.721647196240133</v>
@@ -48512,7 +48512,7 @@
         <v>43.75999999999986</v>
       </c>
       <c r="B4378">
-        <v>0.03405275266329067</v>
+        <v>0.0340527526632907</v>
       </c>
       <c r="C4378">
         <v>7.718384580916404</v>
@@ -48534,7 +48534,7 @@
         <v>43.77999999999986</v>
       </c>
       <c r="B4380">
-        <v>0.04656879997499187</v>
+        <v>0.04656879997499184</v>
       </c>
       <c r="C4380">
         <v>7.683770829230466</v>
@@ -48545,7 +48545,7 @@
         <v>43.78999999999986</v>
       </c>
       <c r="B4381">
-        <v>0.0883432099644979</v>
+        <v>0.0883432099644976</v>
       </c>
       <c r="C4381">
         <v>7.652611682294848</v>
@@ -48556,7 +48556,7 @@
         <v>43.79999999999986</v>
       </c>
       <c r="B4382">
-        <v>0.05822365194964497</v>
+        <v>0.05822365194964513</v>
       </c>
       <c r="C4382">
         <v>7.648675545455006</v>
@@ -48567,7 +48567,7 @@
         <v>43.80999999999985</v>
       </c>
       <c r="B4383">
-        <v>0.04586605202546694</v>
+        <v>0.04586605202546692</v>
       </c>
       <c r="C4383">
         <v>7.645310503769531</v>
@@ -48578,7 +48578,7 @@
         <v>43.81999999999985</v>
       </c>
       <c r="B4384">
-        <v>0.08607446840456448</v>
+        <v>0.08607446840456451</v>
       </c>
       <c r="C4384">
         <v>7.614534028103793</v>
@@ -48589,7 +48589,7 @@
         <v>43.82999999999985</v>
       </c>
       <c r="B4385">
-        <v>0.04995203799571302</v>
+        <v>0.049952037995713</v>
       </c>
       <c r="C4385">
         <v>7.610816071364597</v>
@@ -48611,7 +48611,7 @@
         <v>43.84999999999985</v>
       </c>
       <c r="B4387">
-        <v>0.08049703345680739</v>
+        <v>0.08049703345680742</v>
       </c>
       <c r="C4387">
         <v>7.577154263837995</v>
@@ -48622,7 +48622,7 @@
         <v>43.85999999999984</v>
       </c>
       <c r="B4388">
-        <v>0.0448162670078756</v>
+        <v>0.04481626700787559</v>
       </c>
       <c r="C4388">
         <v>7.573578664486418</v>
@@ -48666,7 +48666,7 @@
         <v>43.89999999999984</v>
       </c>
       <c r="B4392">
-        <v>0.08290974333958069</v>
+        <v>0.08290974333958072</v>
       </c>
       <c r="C4392">
         <v>7.505408308040303</v>
@@ -48677,7 +48677,7 @@
         <v>43.90999999999983</v>
       </c>
       <c r="B4393">
-        <v>0.04347794351715761</v>
+        <v>0.04347794351715759</v>
       </c>
       <c r="C4393">
         <v>7.501756065595121</v>
@@ -48710,7 +48710,7 @@
         <v>43.93999999999983</v>
       </c>
       <c r="B4396">
-        <v>0.0382100684853533</v>
+        <v>0.03821006848535327</v>
       </c>
       <c r="C4396">
         <v>7.465079529086056</v>
@@ -48721,7 +48721,7 @@
         <v>43.94999999999983</v>
       </c>
       <c r="B4397">
-        <v>0.0859873388282418</v>
+        <v>0.08598733882824185</v>
       </c>
       <c r="C4397">
         <v>7.434836078289976</v>
@@ -48732,7 +48732,7 @@
         <v>43.95999999999982</v>
       </c>
       <c r="B4398">
-        <v>0.05416597434341709</v>
+        <v>0.05416597434341707</v>
       </c>
       <c r="C4398">
         <v>7.431037240953106</v>
@@ -48743,7 +48743,7 @@
         <v>43.96999999999982</v>
       </c>
       <c r="B4399">
-        <v>0.04598799240162291</v>
+        <v>0.04598799240162288</v>
       </c>
       <c r="C4399">
         <v>7.427789577948732</v>
@@ -48754,7 +48754,7 @@
         <v>43.97999999999982</v>
       </c>
       <c r="B4400">
-        <v>0.09703357868100534</v>
+        <v>0.09703357868100536</v>
       </c>
       <c r="C4400">
         <v>7.397906717395056</v>
@@ -48765,7 +48765,7 @@
         <v>43.98999999999982</v>
       </c>
       <c r="B4401">
-        <v>0.05881013721841714</v>
+        <v>0.05881013721841712</v>
       </c>
       <c r="C4401">
         <v>7.394310333346297</v>
@@ -48776,7 +48776,7 @@
         <v>43.99999999999982</v>
       </c>
       <c r="B4402">
-        <v>0.04719856343109834</v>
+        <v>0.04719856343109835</v>
       </c>
       <c r="C4402">
         <v>7.391235749627928</v>
@@ -48820,7 +48820,7 @@
         <v>44.03999999999981</v>
       </c>
       <c r="B4406">
-        <v>0.1106336433633245</v>
+        <v>0.1106336433633247</v>
       </c>
       <c r="C4406">
         <v>7.325826679424511</v>
@@ -48831,7 +48831,7 @@
         <v>44.04999999999981</v>
       </c>
       <c r="B4407">
-        <v>0.0692342938937813</v>
+        <v>0.06923429389378116</v>
       </c>
       <c r="C4407">
         <v>7.322451200820023</v>
@@ -48930,7 +48930,7 @@
         <v>44.13999999999979</v>
       </c>
       <c r="B4416">
-        <v>0.07021345641305771</v>
+        <v>0.07021345641305773</v>
       </c>
       <c r="C4416">
         <v>7.215402523515014</v>
@@ -48985,7 +48985,7 @@
         <v>44.18999999999978</v>
       </c>
       <c r="B4421">
-        <v>0.05551688523327553</v>
+        <v>0.05551688523327555</v>
       </c>
       <c r="C4421">
         <v>7.148400162690351</v>
@@ -48996,7 +48996,7 @@
         <v>44.19999999999978</v>
       </c>
       <c r="B4422">
-        <v>0.03961827384127069</v>
+        <v>0.03961827384127067</v>
       </c>
       <c r="C4422">
         <v>7.145601072117922</v>
@@ -49029,7 +49029,7 @@
         <v>44.22999999999977</v>
       </c>
       <c r="B4425">
-        <v>0.09227025736388747</v>
+        <v>0.09227025736388744</v>
       </c>
       <c r="C4425">
         <v>7.085188675396095</v>
@@ -49040,7 +49040,7 @@
         <v>44.23999999999977</v>
       </c>
       <c r="B4426">
-        <v>0.05405337927127789</v>
+        <v>0.0540533792712779</v>
       </c>
       <c r="C4426">
         <v>7.081662535640378</v>
@@ -49051,7 +49051,7 @@
         <v>44.24999999999977</v>
       </c>
       <c r="B4427">
-        <v>0.03908735355499814</v>
+        <v>0.03908735355499813</v>
       </c>
       <c r="C4427">
         <v>7.078648004451652</v>
@@ -49062,7 +49062,7 @@
         <v>44.25999999999976</v>
       </c>
       <c r="B4428">
-        <v>0.08117552230604272</v>
+        <v>0.08117552230604273</v>
       </c>
       <c r="C4428">
         <v>7.050236851025239</v>
@@ -49084,7 +49084,7 @@
         <v>44.27999999999976</v>
       </c>
       <c r="B4430">
-        <v>0.02558125669131504</v>
+        <v>0.02558125669131507</v>
       </c>
       <c r="C4430">
         <v>7.043988407290623</v>
@@ -49128,7 +49128,7 @@
         <v>44.31999999999975</v>
       </c>
       <c r="B4434">
-        <v>0.06516085654795453</v>
+        <v>0.06516085654795452</v>
       </c>
       <c r="C4434">
         <v>6.981788055745824</v>
@@ -49139,7 +49139,7 @@
         <v>44.32999999999975</v>
       </c>
       <c r="B4435">
-        <v>0.03224724263219052</v>
+        <v>0.03224724263219054</v>
       </c>
       <c r="C4435">
         <v>6.978594044976783</v>
@@ -49150,7 +49150,7 @@
         <v>44.33999999999975</v>
       </c>
       <c r="B4436">
-        <v>0.02589753722682709</v>
+        <v>0.02589753722682706</v>
       </c>
       <c r="C4436">
         <v>6.97586345409059</v>
@@ -49161,7 +49161,7 @@
         <v>44.34999999999975</v>
       </c>
       <c r="B4437">
-        <v>0.07190583435070298</v>
+        <v>0.07190583435070297</v>
       </c>
       <c r="C4437">
         <v>6.948065016550323</v>
@@ -49172,7 +49172,7 @@
         <v>44.35999999999974</v>
       </c>
       <c r="B4438">
-        <v>0.03889303673690704</v>
+        <v>0.03889303673690706</v>
       </c>
       <c r="C4438">
         <v>6.944920632340292</v>
@@ -49282,7 +49282,7 @@
         <v>44.45999999999972</v>
       </c>
       <c r="B4448">
-        <v>0.03688605566382944</v>
+        <v>0.03688605566382953</v>
       </c>
       <c r="C4448">
         <v>6.842603811894033</v>
@@ -49293,7 +49293,7 @@
         <v>44.46999999999972</v>
       </c>
       <c r="B4449">
-        <v>0.07580674076721307</v>
+        <v>0.07580674076721303</v>
       </c>
       <c r="C4449">
         <v>6.81539093535801</v>
@@ -49304,7 +49304,7 @@
         <v>44.47999999999972</v>
       </c>
       <c r="B4450">
-        <v>0.04222915420733362</v>
+        <v>0.04222915420733371</v>
       </c>
       <c r="C4450">
         <v>6.812354394016389</v>
@@ -49315,7 +49315,7 @@
         <v>44.48999999999972</v>
       </c>
       <c r="B4451">
-        <v>0.03213515058481398</v>
+        <v>0.03213515058481392</v>
       </c>
       <c r="C4451">
         <v>6.809758425275975</v>
@@ -49381,7 +49381,7 @@
         <v>44.54999999999971</v>
       </c>
       <c r="B4457">
-        <v>0.01013379699595326</v>
+        <v>0.01013379699595329</v>
       </c>
       <c r="C4457">
         <v>6.744565382602361</v>
@@ -49392,7 +49392,7 @@
         <v>44.5599999999997</v>
       </c>
       <c r="B4458">
-        <v>0.0478867536310898</v>
+        <v>0.04788675363108978</v>
       </c>
       <c r="C4458">
         <v>6.717749839973172</v>
@@ -49821,7 +49821,7 @@
         <v>44.94999999999963</v>
       </c>
       <c r="B4497">
-        <v>0.009484197185979353</v>
+        <v>0.009484197185979339</v>
       </c>
       <c r="C4497">
         <v>6.399377948381669</v>
